--- a/rag_evaluation_results_DaNang.xlsx
+++ b/rag_evaluation_results_DaNang.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,150 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GroundTruth</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Answer</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Faithfulness_Score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Faithfulness_Explanation</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Relevance_Score</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Relevance_Explanation</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Context_Precision_Score</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Context_Precision_Explanation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Context_Recall_Score</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Context_Recall_Explanation</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Context_Documents</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Nhà hàng Thìa Gỗ nổi tiếng nhất với món gì?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Thìa Gỗ nổi tiếng với bánh xèo và chả giò, trong đó chả giò giòn rụm, nhẹ, có nhân bò, hải sản hoặc chay.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nhà hàng Thìa Gỗ nổi tiếng nhất với bánh xèo và chả giò.</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The answer states that Thìa Gỗ is famous for bánh xèo and chả giò, which is exactly what the provided context says. The answer is fully supported by the context and contains no fabricated or contradictory information.</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>The answer directly states the dishes (bánh xèo and chả giò) that the restaurant is famous for, precisely addressing the question.</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>The context contains a clear statement that Thìa Gỗ is best known for bánh xèo and chả giò, directly supporting the answer. Other documents are irrelevant but do not detract from the precision of the relevant excerpt.</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>The context explicitly states that Thìa Gỗ is famous for bánh xèo and chả giò, and describes chả giò as giòn rụm, nhẹ, with options of bò, hải sản, or chay, matching all key facts in the ground truth.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Tên tài liệu: 1 Thìa Gỗ Thìa Gỗ là một trong những nhà hàng Đà Nẵng yêu thích của du khách nước ngoài, nổi bật với
-Nội dung: 1 Thìa Gỗ Thìa Gỗ là một trong những nhà hàng Đà Nẵng yêu thích của du khách nước ngoài, nổi bật với ẩm thực Việt mang phong cách gia đình nhưng tinh tế hơn bình thường. Họ có nhiều món truyền thống, nhưng nổi tiếng nhất là bánh xèo và chả giò. Chả giò ở đây giòn rụm, nhẹ, gần như tan ngay khi cắn, có thể chọn nhân bò, hải sản hoặc chay. Bánh xèo to như ở Sài Gòn, vỏ giòn và nhẹ nhưng hơi nhiều dầu. Ngoài ra còn có cơm chiên, rau muống xào, bún bò Nam Bộ
-Tên tài liệu: 25 Nhà Hàng Nổi Tiếng Tại Hà Nội Với Thực Đơn Mới Mẻ, Hấp Dẫn
-Nội dung: 25 Nhà Hàng Nổi Tiếng Tại Hà Nội Với Thực Đơn Mới Mẻ, Hấp Dẫn: Nhà Hàng MIAs Restaurant - Solaria Hotel Hà Nội; 2.Home Hanoi Restaurant Cùng Đại Tiệc Buffet Món Việt Đặc Sắc; 3.Nhà Hàng Nét Huế Hà Nội - Hội Tụ Đặc Sản Miền Trung; 4.Nhà Hàng Vietnamese Cuisine Restaurant - View Hồ Gươm Siêu Thơ Mộng; 5.Nhà Hàng Góc Quê Hà Nội - Đượm Vị Món Truyền Thống Việt; 6.Nhà Hàng Ngự Uyển Hà Nội - Đa Dạng Ẩm Thực Huế; 7.Nhà Hàng Quán Xưa Hà Nội - Cuốn Hút Với Hương Vị Dân Dã; 8.Nhà Hàng Oven d'Or Restaurant
-Tên tài liệu: Nhà Hàng Góc Quê Hà Nội - Đượm Vị Món Truyền Thống Việt
-Nội dung: Nhà Hàng Góc Quê Hà Nội - Đượm Vị Món Truyền Thống Việt: Địa chỉ: 183 Đặng Tiến Đông, Đống Đa, Hà Nội. Nhắc đến các nhà hàng Hà Nội ngon có tiếng thì không thể quên Góc Quê - nhà hàng có điểm đặc trưng là từng món ăn sẽ có những loại nước chấm chuyên biệt. Nếu có cơ hội làm tour ẩm thực Phố cổ Hà Nội thì Góc Quê là một lựa chọn hoàn hảo
-Tên tài liệu: Những nhà hàng Michelin Hà Nội nổi tiếng nhất Việt Nam
-Nội dung: Những nhà hàng Michelin Hà Nội nổi tiếng nhất Việt Nam: Nhà hàng Michelin Hà Nội - Hibana by Koki; Nhà hàng Michelin Hà Nội - Tầm Vị; Nhà hàng Michelin Hà Nội – Gia; Nhà hàng A Bản Mountain Dew; Nhà hàng Akira Back Hà Nội; Nhà hàng Bếp Prime; Nhà hàng Highway 4 (Hàng Tre)
-Tên tài liệu: Nhà hàng Ba Ghien Broken Rice tại 84 Đặng Văn Ngữ, P.10, Q. Phú Nhuận, TP. HCM nổi tiếng với món Bro
-Nội dung: Nhà hàng Ba Ghien Broken Rice tại 84 Đặng Văn Ngữ, P.10, Q. Phú Nhuận, TP. HCM nổi tiếng với món Broken Rice with Grilled Pork Chop (Cơm Tấm Sườn Nướng). Sườn được ướp qua đêm, sau đó nướng trên than để giữ được độ mềm và hương thơm. Món ăn đi kèm với cơm tấm, thịt sườn nướng, chả trứng, bì và nước mắm chua ngọt.
-Tên tài liệu: 2/ Bánh mì Ông Tý Bánh mì ông Tý có thể gọi là món ăn "take-away" nổi tiếng nhất nhì Đà Nẵng. Với sự
-Nội dung: 2/ Bánh mì Ông Tý Bánh mì ông Tý có thể gọi là món ăn "take-away" nổi tiếng nhất nhì Đà Nẵng. Với sự nổi tiếng thế này, chắc hẳn ai cũng nghĩ bánh mì ở đây sẽ phải hoành tráng lắm. Nhưng không, bánh mì Ông Tý chỉ giản dị với topping bao gồm chả bò, chả heo, muối tiêu, ớt bột và một chút bơ. Điều khiến bánh mì Ông Tý được lòng với nhiều khách tới du lịch Đà Nẵng chính là loại chả làm từ thịt tươi, được lọc kỹ gân, da, mỡ
-Tên tài liệu:  Quán Đại Lộc Nổi tiếng với món bánh tráng cuốn thịt heo. Thịt ba chỉ thái mỏng, cuốn cùng nhiều loạ
-Nội dung: Quán Đại Lộc Nổi tiếng với món bánh tráng cuốn thịt heo. Thịt ba chỉ thái mỏng, cuốn cùng nhiều loại rau sống, bún và bánh tráng dẻo. Điểm nhấn là nước chấm mắm nêm – thơm ngon, đậm đà, khó quên. Cách ăn cũng thú vị: nhúng bánh tráng cứng vào nước để mềm ra rồi cuốn cùng nguyên liệu. Quán lúc nào cũng đông khách, có nhiều chi nhánh để lựa chọn. Địa chỉ: 97 Trưng Nữ Vương, Bình Hiên, Hải Châu, Đà Nẵng. Giờ mở cửa: 8:00–21:30. Gợi ý món: Bánh tráng cuốn thịt heo.
-Tên tài liệu: 1 Bánh Xèo Bà Dưỡng Quán nổi tiếng nhất Đà Nẵng về bánh xèo và nem lụi. Bánh xèo ở đây không có nhiề
-Nội dung: 1 Bánh Xèo Bà Dưỡng Quán nổi tiếng nhất Đà Nẵng về bánh xèo và nem lụi. Bánh xèo ở đây không có nhiều lựa chọn nhân, nhưng hương vị cực kỳ ngon, giòn và béo. Nem lụi được làm từ thịt heo băm, nướng trên que sả hoặc tre, ăn cuốn cùng rau và chấm sốt đặc biệt. Đây là một trong những quán được cả người địa phương và du khách yêu thích nhất. Địa chỉ: 280/23 Hoàng Diệu, Bình Hiên, Hải Châu, Đà Nẵng. Giờ mở cửa: 9:30–21:30. Gợi ý món: Bánh xèo, nem lụi.
-Tên tài liệu:  Mỳ Quảng Bà Mua Như đã nói, mì Quảng là món ăn quan trọng nhất trong văn hóa ẩm thực Đà Nẵng. Bạn c
-Nội dung: Mỳ Quảng Bà Mua Như đã nói, mì Quảng là món ăn quan trọng nhất trong văn hóa ẩm thực Đà Nẵng. Bạn có thể tìm thấy quán mì Quảng ở hầu hết các con phố, nhưng một trong những nơi ngon và nổi tiếng nhất là Mỳ Quảng Bà Mua. Ở đây có nhiều loại topping như gà, bò, ếch, trứng… Bát “mì thập cẩm” là lựa chọn tuyệt vời với đủ loại topping trong một phần ăn. Không gian quán thuộc chuỗi nhà hàng khá chỉn chu, phù hợp với ai thích ngồi ăn thoải mái hơn là quán vỉa hè
-Tên tài liệu: Nhà Hàng Vietnamese Cuisine Restaurant - View Hồ Gươm Siêu Thơ Mộng
-Nội dung: . Các món ăn truyền thống của nhà hàng Hà Nội này được chế biến cầu kỳ và trang trí rất công phu, đồng thời được phục vụ trong một không gian mở hiện đại và sang chảnh. Cầu Gỗ mang tới cho cả thực khách trong nước cũng như du khách quốc tế những trải nghiệm vô cùng thoải mái mới lạ.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/rag_evaluation_results_DaNang.xlsx
+++ b/rag_evaluation_results_DaNang.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,4285 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GroundTruth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Answer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Faithfulness_Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Faithfulness_Explanation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Relevance_Explanation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Context_Precision_Score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Context_Precision_Explanation</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Context_Recall_Score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Context_Recall_Explanation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Context_Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bảo tàng Đà Nẵng nằm ở đâu và có đặc điểm gì nổi bật?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bảo tàng Đà Nẵng nằm tại số 42 Bạch Đằng, được cải tạo từ Tòa Thị chính Pháp, kết hợp kiến trúc cổ với trưng bày hiện đại.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bảo tàng Đà Nẵng tọa lạc tại số 24 Trần Phú, quận Hải Châu. Nơi đây lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến tranh. Du khách có thể khám phá trang phục, nhạc cụ, đồ trang sức cổ và một tầng chuyên đề về các cuộc kháng chiến với Pháp và Mỹ. (Giờ mở cửa: 8h00–17h00).</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects all details provided in the context: the address (24 Trần Phú, Hải Châu), the number of artifacts (&gt;500), the range of subjects (agriculture, culture, war history), the exhibits (clothing, musical instruments, jewelry), the dedicated section on resistance against France and the US, and the opening hours (8:00–17:00). No information is omitted or fabricated, so the answer is fully faithful.</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>The answer directly states the museum’s location (24 Trần Phú, Hai Châu) and describes its notable features (over 500 artifacts spanning agriculture, culture, war history, etc.), fully addressing the question.</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>The primary context excerpt contains all key details from the answer—location, artifact count, thematic coverage, and specific exhibits—making it highly relevant. The additional documents are unrelated, but the core context is concise and directly supports the answer.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>The context does not mention the address 42 Bạch Đằng, nor that the museum was renovated from a French colonial building or that it combines old architecture with modern displays. Therefore it fails to recall the key facts from the ground truth.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Bảo tàng Đà Nẵng là nơi lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến
+Nội dung: Bảo tàng Đà Nẵng là nơi lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến tranh. Tại đây, du khách có thể tìm hiểu về quá khứ qua trang phục, nhạc cụ, đồ trang sức cổ, và một tầng chuyên đề về các cuộc kháng chiến với Pháp và Mỹ. (Địa chỉ: 24 Trần Phú, Hải Châu – Giờ mở cửa: 8h00–17h00).
+Tên tài liệu: Bảo tàng 3D TrickEye Đà Nẵng  Chơi bời chán chê ở các địa điểm du lịch Đà Nẵng thiên nhiên tươi đẹp 
+Nội dung: Bảo tàng 3D TrickEye Đà Nẵng  Chơi bời chán chê ở các địa điểm du lịch Đà Nẵng thiên nhiên tươi đẹp rồi, giờ thì mình đổi gió một chút vào trong bảo tàng chứ nhỉ? Gọi là bảo tàng thì có thể các bạn sẽ nghĩ địa điểm du lịch Đà Nẵng này không phù hợp với những bạn trẻ đúng không, nhưng không phải đâu, địa điểm du lịch Đà Nẵng không hề có 1 chút gì đó cổ điển, trầm mặc, già nua, xưa cũ như những bảo tàng khác. Mà địa điểm du lịch Đà Nẵng này lại là 1 nơi cho bạn nhiều điều mới mẻ hoàn toàn luôn. Gọi là trick eye có nghĩ là đánh lừa thị giác, mà còn gì thú vị hơn việc mắt mình thấy những điều không thật nữa nhỉ. Nếu với những bảo tàng thông thường thì khi đến chỉ là để học hỏi về lịch sử văn hoá 1 chủ đề gì đó cố định, nhưng mà với địa điểm du lịch Đà Nẵng này thì các bạn không cần phải nặng đầu tìm hiểu về lịch sử văn hoá gì đâu, mà chỉ có bấm máy chụp hình mỏi tay luôn. Bạn biết sao không, vì tại địa điểm du lịch Đà Nẵng này có những bức tranh siêu siêu ảo luôn. Tranh sơn trên tường mà qua ống kính máy ảnh thì nó rõ mồn một là bạn đang đứng trong bức tranh ấy và làm nhân vật chính luôn đó chứ. Người họa sĩ sẽ hợp giữa các kỹ thuật vẽ và kiến thức về hình khối, góc cạnh, màu sắc, ánh sáng… để vẽ ra những bức tranh tường trông “sống động như thật” – nhằm đánh lừa thị giác, khiến bạn như đang đứng trong bức ảnh thực chứ không còn là tranh tường nữa. những nhóm bạn trẻ tinh nghịch khi đi du lịch Đà Nẵng tự túc chắc chắn không thể bỏ qua địa điểm du lịch Đà Nẵng này rồi.
+Tên tài liệu: Bảo tàng Điêu khắc Chăm – Kho báu văn hóa Champa Bảo tàng Điêu khắc Chăm Đà Nẵng là nơi lưu giữ bộ s
+Nội dung: Bảo tàng Điêu khắc Chăm – Kho báu văn hóa Champa Bảo tàng Điêu khắc Chăm Đà Nẵng là nơi lưu giữ bộ sưu tập các tác phẩm điêu khắc Champa lớn nhất Việt Nam, với hơn 300 hiện vật được trưng bày từ thế kỷ 7 đến 1 Kiến trúc cổ kính và không gian yên tĩnh của bảo tàng đưa du khách trở về quá khứ, tìm hiểu lịch sử, tín ngưỡng và nghệ thuật độc đáo của vương quốc Chăm xưa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bảo tàng Đà Nẵng sử dụng công nghệ nào để tái hiện lịch sử thành phố?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>: Bảo tàng ứng dụng công nghệ 3D Mapping, trình chiếu tương tác và robot thuyết minh đa ngôn ngữ để mang lại trải nghiệm sống động.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bảo tàng Đà Nẵng dùng công nghệ 3D Mapping để tái hiện lịch sử thành phố.</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The answer correctly states that the museum uses 3D Mapping technology to recreate the city's history, which is explicitly mentioned in the provided context.</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>The answer directly states that the museum uses 3D Mapping technology to recreate the city's history, which precisely addresses the question.</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>The first document explicitly states that visitors can explore Da Nang’s history through 3D Mapping technology, directly supporting the answer. The other documents mention historical reenactment but do not specify 3D Mapping, so the overall context is highly relevant but not entirely concise.</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>The context explicitly lists all key technologies mentioned in the ground truth: 3D Mapping, interactive projection, and multilingual robot narration, covering the entire set of facts.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Đà Nẵng hút hồn du khách với chuyến tàu di sản và bảo tàng “đẹp nhất miền Trung” Đà Nẵng không chỉ n
+Nội dung: . Bảo tàng Đà Nẵng – hành trình ngược dòng lịch sử Tọa lạc tại số 42 Bạch Đằng, bảo tàng Đà Nẵng được cải tạo từ Tòa Thị chính Pháp, nay trở thành điểm đến văn hóa hấp dẫn, thu hút hàng nghìn lượt khách mỗi ngày. Với diện tích hơn 600 m², không gian kết hợp hài hòa giữa kiến trúc cổ và khu trưng bày hiện đại, bảo tàng được mệnh danh là “đẹp nhất miền Trung”. Tại đây, du khách có thể khám phá lịch sử Đà Nẵng qua công nghệ 3D Mapping, các hiện vật chiến tranh, câu chuyện về Mẹ Nhu, bảy dũng sĩ Thanh Khê, hay khoảnh khắc Mỹ đổ bộ năm 196 Bảo tàng còn tái hiện hệ sinh thái biển bằng công nghệ trình chiếu tương tác, cùng robot thông minh thuyết minh đa ngôn ngữ. Đặc biệt, từ 1/4/2025, bảo tàng mở cửa miễn phí cho người dân và du khách. Đây không chỉ là nơi lưu giữ quá khứ mà còn mang đến trải nghiệm hiện đại, hấp dẫn cho cả người lớn lẫn trẻ nhỏ. Đà Nẵng – nhiều hơn cả biển và giải trí Với chuyến tàu di sản đầy thi vị và bảo tàng lịch sử hiện đại, Đà Nẵng khẳng định sức hút vượt khỏi hình ảnh “thành phố biển”. Nơi đây vừa là điểm đến giải trí sôi động, vừa là hành trình di sản giàu cảm xúc, đem đến cho du khách cả trải nghiệm nghỉ dưỡng, văn hóa và tri thức.
+Tên tài liệu:  Bảo tàng Đà Nẵng Địa chỉ: 24 Trần Phú, Thạch Thang, Hải Châu. Đây là nơi lưu giữ nhiều hiện vật, tá
+Nội dung: Bảo tàng Đà Nẵng Địa chỉ: 24 Trần Phú, Thạch Thang, Hải Châu. Đây là nơi lưu giữ nhiều hiện vật, tái hiện lịch sử và quá trình hình thành của vùng đất Quảng Đà từ thời sơ khai đến nay. Du khách có thể vừa tham quan, vừa tìm hiểu về văn hóa – lịch sử – đời sống xưa của Đà Nẵng.
+Tên tài liệu: Bảo tàng Đà Nẵng là nơi lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến
+Nội dung: Bảo tàng Đà Nẵng là nơi lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến tranh. Tại đây, du khách có thể tìm hiểu về quá khứ qua trang phục, nhạc cụ, đồ trang sức cổ, và một tầng chuyên đề về các cuộc kháng chiến với Pháp và Mỹ. (Địa chỉ: 24 Trần Phú, Hải Châu – Giờ mở cửa: 8h00–17h00).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sơn Trà nổi tiếng với loài động vật nào sinh sống tại khu vực này?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ghềnh Bàng là nơi cư trú của nhiều đàn voọc chà vá chân nâu quý hiếm – loài biểu tượng của Sơn Trà.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sơn Trà nổi tiếng với loài Voọc chà vá chân nâu, được mệnh danh là “nữ hoàng” của các loài linh trưởng.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies the animal mentioned in the context (Voọc chà vá chân nâu) as the famous species of Sơn Trà, matching the information provided.</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>The answer identifies a specific animal species (Voọc chà vá chân nâu) that is associated with Sơn Trà, directly addressing the question about which animal is famous in that area. The response is focused and relevant, though it does not provide additional context or confirmation of the species' prominence, hence a slightly less than perfect score.</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>The third document contains a clear statement that Sơn Trà is home to the Voọc chà vá chân nâu, directly supporting the answer. The other documents are unrelated and add noise, so the overall precision is high but not perfect.</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>The context contains a passage that explicitly mentions "Voọc chà vá chân nâu" as a rare primate living on Sơn Trà, matching the key fact from the ground truth. Although it refers to Bán đảo Sơn Trà rather than the specific Ghềnh Bàng, the question asks for the animal associated with Sơn Trà, which the context fully covers.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Những địa điểm du lịch Đà Nẵng gần bãi đá Obama 1 Chùa Linh Ứng Chùa Linh Ứng Bãi Bụt Sơn Trà là ng
+Nội dung: . 3 Bãi Tiên sa Khu du lịch sinh thái Tiên Sa tọa lạc cuối đường Yết Kiêu, sát cổng cảng Tiên Sa, cách trung tâm thành phố Đà Nẵng 10 km đã và đang là địa điểm du lịch hấp dẫn. Nơi đây gắn liền với truyền thuyết Tiên giáng trần và đã đi vào thơ ca, nhạc họa.  Bãi biển Tiên Sa nằm độc lập về phía Bắc bán đảo Sơn Trà với phong cảnh còn mang vẻ hoang sơ, yên tĩnh. Đến đây bạn sẽ được hòa mình với thiên nhiên, với biển xanh, cát trắng và nắng vàng. Bãi Tiên Sa là điểm đến lý tưởng, an toàn tuyệt đối cho du khách nghỉ dưỡng, dã ngoại, tổ chức sự kiện. Vậy là Cuồng đã giới thiệu với các bạn bãi đá Obama hoang sơ – thiên đường ẩn dật giữa núi non xanh biêc của thành phố du lịch Đà Nẵng xinh đẹp. Bãi đá Obama Đà Nẵng chính là điểm sống ảo lý tưởng mới của các bạn trẻ, gây sốt rần rần trên Facebook và các trang mạng xã hội trong vài năm trở lại đây. Còn gì tuyệt vời bằng việc cùng bạn bè và người thân bỏ lại tất cả những bộn bề lo âu của cuộc sống nơi phố thị đông đúc để tham gia trải nghiệm những hoạt động thú vị và thưởng thức vẻ đẹp hoang sơ và  huyền ảo tại bãi đá Obama Đà Nẵng.
+Tên tài liệu: Bà Nà Hills Đà Nẵng  Khu vui chơi giải trí Bà Nà Hills đã trở thành địa điểm du lịch Đà Nẵng nổi tiế
+Nội dung: Bà Nà Hills Đà Nẵng  Khu vui chơi giải trí Bà Nà Hills đã trở thành địa điểm du lịch Đà Nẵng nổi tiếng nhất rồi. không hẵn được biết đến trên khắp cả nước Việt Nam mà nó còn nổi tiếng khắp cả các trang chia sẻ kinh nghiệm du lịch Đà Nẵng của bạn bè quốc tế nữa.  Khu vui chơi giải trí Bà Nà Hills này nằm cách trung tâm khoảng chừng 40km, khá là xa nên kinh nghiệm du lịch Đà Nẵng vui chơi Bà Nà Hills là các bạn nên đi sớm sớm một chút nha, chứ đi trễ quá thời gian di chuyển lại nhiều mà trong địa điểm du lịch Đà Nẵng này có cả đống trò chơi, đi trễ quá chơi không được nhiêu thì lại phí cái vé đi. À giá vé của Bà Nà Hills đang được bán với giá niêm yết tại cổng của địa điểm du lịch Đà Nẵng này là 750.000đ/vé nha các bạn. Nếu các bạn muốn mua vé Bà Nà Hills giá rẻ thì đừng quên gọi cho Cuồng du lịch, vì Cuồng du lịch là đại lý bán vé Bà Nà Hills giá rẻ mà. Bà Nà Hills dần dần chiếm trọn trái tim của những khách du lịch Đà Nẵng bởi đây là công trình vui chơi có quy mô hoành tráng nhất hiện nay. Tuyến cáp treo lên khu vui chơi giải trí Bà Nà Hills cũng là một trong những lý do khiến khách du lịch Đà Nẵng đến Bà Nà Hills nhiều như thế. Tuyến cáp treo ở tại địa điểm du lịch Đà Nẵng này sẽ đưa các bạn đến với chốn tiên cảnh
+Tên tài liệu: Bán Đảo Sơn Trà Địa chỉ: Bán đảo Sơn Trà chỉ cách trung tâm Đà Nẵng chừng 10km, giao thông rất thuận
+Nội dung: . Ngắm Voọc chà và chân nâu: Bán đảo Sơn Trà là nơi cư ngụ của rất nhiều loài vật quý hiếm trong đó có loài được mệnh danh là nữ hoàng loài linh trưởng – Voọc chà vá chân nâu. Đây là loài nằm ở mức nguy cấp trong danh sách đỏ của Việt Nam. Một kinh nghiệm du lịch Đà Nẵng và đến thăm bán đảo Sơn Trà là hãy đi thật nhẹ nhàng để chúng biết bạn vô hại và nhớ mang theo ống nhóm để có thể quan sát được Voọc chà vá chân nâu tốt hơn nhé! Những đặc sản không thể bỏ qua ở bán đảo Sơn Trà Hải sản tươi ngon: Hải sản dường như là món ăn không thể bỏ qua khi bạn đặt chân để những vùng biển lớn như bán đảo Sơn Trà. Nếu muốn mua hải sản thì những khu chợ ở ngã ba Hoàng Sa – Lê Đức Thọ là sự lựa chọn của rất nhiều khách du lịch khi đến với nơi đây.  Hải sản Sơn Trà phong phú, đa dạng, lại vô cùng tươi ngon. Rau rừng, thịt rừng: Đây cũng là một mónđặc sản chỉ có tại Bán Đảo Sơn Trà Đà Nẵng  Rượu dừa: Đây là sản phẩm đặc trưng và thương hiệu của bán đảo Sơn Trà, Đà Nẵng. Loại rượu này được làm từ những phương pháp lên men truyền thống từ nếp cái và men. Khi uống tạo cảm giác lân lân cùng với mùi hương quyến rũ làm ngây ngất bao du khách gần xa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Khu du lịch Núi Thần Tài nằm cách trung tâm Đà Nẵng bao xa?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Khu du lịch suối khoáng nóng Núi Thần Tài nằm cách trung tâm Đà Nẵng khoảng 30 km, cùng hướng với cáp treo Bà Nà Hills.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Khu du lịch Núi Thần Tài cách trung tâm Đà Nẵng khoảng 30 km.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The answer states that the Núi Thần Tài tourist area is about 30 km from Da Nang’s center, which matches the information in all provided documents that mention a distance of roughly 30 km. Therefore the answer is fully faithful to the context.</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>The answer directly states the distance (approximately 30 km) from the Núi Thần Tài tourist area to the center of Da Nang, which precisely addresses the question.</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>All provided documents explicitly state that Núi Thần Tài is about 30 km from the center of Đà Nẵng, directly supporting the answer. The context is concise, relevant, and contains no contradictory information.</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>All provided context passages state that the Núi Thần Tài resort is about 30 km from the center of Đà Nẵng, which directly answers the question. The direction detail from the ground truth is not required for the answer, so the context covers the essential fact needed.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Công viên suối khoáng nóng Núi Thần Tài Nằm ở xã Hòa Phú, huyện Hòa Vang, cách trung tâm khoảng 30km
+Nội dung: Công viên suối khoáng nóng Núi Thần Tài Nằm ở xã Hòa Phú, huyện Hòa Vang, cách trung tâm khoảng 30km, đây là điểm đến thư giãn nổi bật của Đà Nẵng. Du khách có thể trải nghiệm tắm khoáng nóng, tắm bùn, xông hơi, tắm onsen Nhật Bản và vui chơi tại công viên nước. Đây là địa điểm lý tưởng cho gia đình có trẻ nhỏ hoặc những ai muốn tìm chốn nghỉ ngơi giữa thiên nhiên xanh mát.
+Tên tài liệu:  Công viên suối khoáng nóng Núi Thần Tài Địa chỉ: xã Hòa Phú, H. Hòa Vang, Đà Nẵng. Đây là khu du lị
+Nội dung: Công viên suối khoáng nóng Núi Thần Tài Địa chỉ: xã Hòa Phú, H. Hòa Vang, Đà Nẵng. Đây là khu du lịch sinh thái kết hợp nghỉ dưỡng, nổi tiếng với nguồn suối khoáng nóng thiên nhiên. Du khách có thể trải nghiệm tắm khoáng, tắm bùn, onsen kiểu Nhật, cùng nhiều trò chơi dưới nước thú vị. Đây cũng là điểm đến lý tưởng để nghỉ dưỡng, thư giãn và chăm sóc sức khỏe.
+Tên tài liệu: Núi khoáng nóng Thần Tài Địa chỉ: tọa lạc tại QL14G, Hoà Phú, Hòa Vang, Đà Nẵng. Cách trung tâm thàn
+Nội dung: Núi khoáng nóng Thần Tài Địa chỉ: tọa lạc tại QL14G, Hoà Phú, Hòa Vang, Đà Nẵng. Cách trung tâm thành phố Đà Nẵng 30km về phía tây, Núi Thần Tài đắc địa ở vị trí khu bảo tồn thiên nhiên Bà Nà Núi Chúa. Giá vé tham quan suối khoáng Thần Tài: có nhiều gói vé khác nhau nhưng giá vé phổ thông là người lớn (cao từ 3m) giá 350.000đ/vé, trẻ em (cao từ 1 - dưới 3m) giá 200.000đ/vé Vẻ đẹp: Suối khoáng nóng Thần Tài là một khu phức hợp gồm khách sạn, khu vui chơi, nhà hàng, khu suối khoáng và đền thần tài. Đến với núi Thần Tài Đà Nẵng , bạn có thể đi theo tour du lịch Đà Nẵng 1 ngày, hoặc có thể làm một chuyến du lịch Đà Nẵng tự túc vì đường tìm đến đây khá dễ dàng. Các bạn trẻ thường thiết kế cho mình những chuyến phượt ngắn để đến đây xõa hơi cùng bạn bè.  Tại núi Thần Tài có ngôi đền Thần Tài rất linh thiêng. Nhiều du khách mỗi khi có dịp đi du lịch Đà Nẵng dù là đi theo tour du lịch Đà Nẵng trọn gói hay đi du lịch Đà Nẵng tự túc đều giành thời gian đến đây để cầu nguyện cho việc làm ăn thuận lợi. Bên cạnh đó khi đến với khu du lịch suối khoáng nóng Thần Tài các bạn sẽ được trãi nghiệm những dịch vụ "tắm trị liệu" như: tắm bùn, tắm khoáng nóng, tắm sữa tươi, tắm cafe,... Riêng các bạn nhỏ thì có thể tham quan công viên khủng long với hiệu ứng âm thanh sống động như thật hoặc vui chơi tại khu công viên nước với hàng trăm trò chơi hấp dẫn. Về ăn uống tại khu suối khoáng nóng Thần Tài Đà Nẵng có 2 khu. Một là khu vực buffet với giá 2000đ/khách. Và khu nhà hàng gọi món</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Giá vé cơ bản khi vào khu du lịch Núi Thần Tài là bao nhiêu?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vé cơ bản là 350.000đ/người lớn và 170.000đ/trẻ em, bao gồm tắm khoáng, xông hơi, công viên nước và khu mỏ khoáng.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The answer correctly states that it cannot provide the ticket price because there is no information in the context. It does not contradict or fabricate any details, so it is fully faithful to the given context.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information about the ticket price and simply states a lack of data, making it irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>The context is empty, so it provides no relevant information to support the answer.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>The context is empty and contains no information about the basic ticket prices, so it fails to cover any of the key facts needed to answer the question.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đền Thần Tài nằm trong khu vực nào của Núi Thần Tài?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Đền Thần Tài nằm trên cao, tựa lưng vào vách núi và có thể di chuyển đến bằng xe điện từ cổng khu du lịch.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>The answer states it cannot provide the information, but the question asks for a specific location. Since no context is provided to support the answer, it is not faithful to the question.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information about the location of Đền Thần Tài on Núi Thần Tài, merely stating inability to answer. It is completely irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>The context is empty, so it provides no relevant information to support the answer.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>The provided context is empty, so it contains none of the key facts from the ground truth needed to answer the question.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lễ hội Pháo hoa Quốc tế Đà Nẵng 2025 (DIFF) diễn ra trong thời gian nào?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIFF 2025 diễn ra từ 31/5 đến 12/7/2025 với 6 đêm thi, thu hút hơn 1,1 triệu lượt khách lưu trú.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lễ hội Pháo hoa Quốc tế Đà Nẵng 2025 (DIFF) bắt đầu với vòng loại từ ngày 31 / 5 đến 30 / 6, sau đó diễn ra đêm chung kết vào ngày 12 / 7. Tổng thời gian của sự kiện kéo dài khoảng một tháng rưỡi.</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the dates given in the context: qualifiers from 31/5 to 30/6 and the final night on 12/7, totaling about a month and a half. No contradictions or fabricated details are present.</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>The answer provides the exact dates for the qualifiers (31 / 5 to 30 / 6) and the final night (12 / 7), directly answering the question about the festival’s time period. It is fully relevant and focused.</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>The context documents explicitly state the qualification period (31/5 – 30/6) and the final night (12/7), matching the answer. The information is concise and directly supports the answer, with only minor unrelated content present.</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>The context explicitly states that DIFF 2025 runs from 31/5 to 12/7, matching the ground truth dates. It also mentions the 6‑night duration and the 1.17 million visitors, covering all key facts needed for the question.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Lễ hội Pháo hoa Quốc tế Đà Nẵng 2025: Đêm chung kết bùng nổ, du lịch đạt kỷ lục Mùa hè 2025 tại Đà N
+Nội dung: Lễ hội Pháo hoa Quốc tế Đà Nẵng 2025: Đêm chung kết bùng nổ, du lịch đạt kỷ lục Mùa hè 2025 tại Đà Nẵng trở nên “nóng” hơn bao giờ hết khi Lễ hội Pháo hoa Quốc tế Đà Nẵng (DIFF) bước vào đêm chung kết đầy kịch tính. Sức hút của sự kiện đã khiến lượng khách du lịch tăng kỷ lục, vé xem pháo hoa “cháy hàng” từ sớm, trong khi các khách sạn 4-5 sao đều đạt công suất gần 100%. Lượng khách và doanh thu bứt phá Theo Sở Văn hóa, Thể thao và Du lịch Đà Nẵng, chỉ trong vòng một tháng diễn ra vòng loại DIFF 2025 (31/5 – 30/6), thành phố đã đón khoảng 1,17 triệu lượt khách lưu trú, tăng 10,3% so với cùng kỳ 20 Riêng 5 đêm pháo hoa đầu tiên đã thu hút gần 400.000 lượt khách, ngang bằng cả mùa DIFF năm trước. Với việc năm nay kéo dài thêm một đêm thi, dự báo lượng khách trong đêm chung kết 12/7 sẽ tiếp tục tăng 15-20%. Doanh thu từ các ngành lưu trú, ăn uống và lữ hành trong tháng 6/2025 đạt khoảng 869 tỷ đồng, tăng 22% so với cùng kỳ. Công suất phòng toàn thành phố luôn ở mức 80-85%, riêng khối khách sạn 4-5 sao và khu vực trung tâm, ven biển duy trì từ 85-90%, thậm chí đạt 100% vào dịp cao điểm. Chung kết hấp dẫn: Việt Nam lần đầu góp mặt Không khí nóng bỏng của đêm chung kết đã lan tỏa từ tháng 4 khi toàn bộ vé được bán hết chỉ trong thời gian ngắn
+Tên tài liệu: Sun World Ba Na Hills ra mắt chuỗi show nghệ thuật đỉnh cao mùa hè 2025 Từ ngày 6/6, Sun World Ba Na
+Nội dung: . Nhưng năm nay, chúng tôi mong muốn mang đến một tầng sâu nghệ thuật mới, với những show diễn được đầu tư sáng tạo, quy tụ tài năng trẻ cùng nghệ sĩ quốc tế. Du khách sẽ thấy một Bà Nà khác – nơi nghệ thuật thăng hoa trong từng khoảnh khắc.” Mùa hè 2025 tại Bà Nà Hills – mỗi phút giây sẽ trở thành một ký ức khó quên, một hành trình đánh thức mọi giác quan và để lại dư âm sâu lắng trong lòng du khách.
+Tên tài liệu: Lễ hội Pháo hoa Quốc tế Đà Nẵng 2025: Đêm chung kết bùng nổ, du lịch đạt kỷ lục Mùa hè 2025 tại Đà N
+Nội dung: . Chung kết hấp dẫn: Việt Nam lần đầu góp mặt Không khí nóng bỏng của đêm chung kết đã lan tỏa từ tháng 4 khi toàn bộ vé được bán hết chỉ trong thời gian ngắn. Điểm nhấn năm nay là lần đầu tiên sau 13 năm tổ chức, đội pháo hoa Việt Nam – Z121 Vina Pyrotech góp mặt tại chung kết, đối đầu với Jiangxi Yanfeng (Trung Quốc) – đương kim á quân DIFF 20 Cuộc tranh tài hứa hẹn mang đến những màn pháo hoa đỉnh cao, mãn nhãn cho khán giả. Đại nhạc hội bùng nổ cảm xúc Bên cạnh pháo hoa, đêm chung kết DIFF 2025 còn là đại nhạc hội quy tụ dàn nghệ sĩ hàng đầu như Mỹ Tâm, Tùng Dương, Hương Tràm cùng hàng trăm vũ công, tạo nên bữa tiệc âm nhạc – ánh sáng hoành tráng, lan tỏa sức nóng từ bầu trời đến mặt đất. Với quy mô ngày càng lớn, DIFF 2025 đã khẳng định vị thế của Đà Nẵng như điểm đến “phải ghé” trong mùa hè, đồng thời tạo cú hích mạnh mẽ cho du lịch và kinh tế thành phố.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bãi Bụt nằm ở khu vực nào của bán đảo Sơn Trà và có điểm nổi bật gì?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bãi Bụt nằm ở phía nam bán đảo Sơn Trà, ngay dưới chân chùa Linh Ứng; là địa điểm miễn phí, thích hợp tắm biển, ngắm san hô và khám phá sinh vật biển.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bãi Bụt nằm ở phía nam bán đảo Sơn Trà, ngay dưới chân Chùa Linh Ứng. Đây là một bãi biển vòng cung đẹp như eo biển, miễn phí và được mệnh danh là “tuyệt cảnh” với làn nước trong xanh, san hô phong phú. Du khách thường đến đây để tắm biển, ngắm san hô, thuê chòi ăn uống, ca hát bên bờ, và tham gia các hoạt động như lặn san hô, lướt ván, nhảy dù và các trò chơi biển khác.</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the provided context. It correctly states that Bãi Bụt is located in the southern part of Sơn Trà Peninsula, below Chùa Linh Ứng, and highlights its free admission, scenic reputation, ring-shaped beach resembling a belt, clear waters, abundant coral, and popular activities such as swimming, snorkeling, renting huts, singing, and various water sports. All these details are directly supported by the documents.</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The answer accurately states that Bãi Bụt is located in the southern part of the Sơn Trà Peninsula, near Chùa Linh Ứng, and lists its notable features such as a crescent-shaped beach, clear water, coral, and recreational activities. This directly addresses both parts of the question, making it highly relevant.</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>The provided context contains multiple documents that directly mention Bãi Bụt’s location (phía nam bán đảo Sơn Trà, dưới chân Chùa Linh Ứng), its free beach status, the scenic description, and the same activities listed in the answer. The third document about Bãi biển Tiên Sa is irrelevant, but the majority of the context is concise and directly supports the answer, warranting a high precision score.</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>The context includes all key facts from the ground truth: Bãi Bụt is located in the southern part of Sơn Trà Peninsula, directly below Chùa Linh Ứng, is a free tourist spot, and is suitable for swimming, snorkeling, and exploring marine life.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Bãi Bụt Địa chỉ: Hoàng Sa, Bãi Bụt, Bán Đảo Sơn Trà, TP. Đà Nẵng. Nằm ở phía nam bán đảo Sơn Trà, B
+Nội dung: Bãi Bụt Địa chỉ: Hoàng Sa, Bãi Bụt, Bán Đảo Sơn Trà, TP. Đà Nẵng. Nằm ở phía nam bán đảo Sơn Trà, Bãi Bụt là một trong những địa điểm du lịch Đà Nẵng miễn phí đáng đến nhất. Được mệnh danh là tuyệt cảnh dưới chân Chùa Linh Ứng, Bãi Bụt là nơi nhiều du khách trong và ngoài nước chọn làm nơi tham quan, tắm biển, ngắm san hô, khám phá các loài sinh vật biển,... khi đến du lịch tại Đà Nẵng.
+Tên tài liệu:  Bãi Bụt Bãi Bụt là 1 bãi biển nằm trên đường lên Chùa Linh Ứng. Nó giống như 1 bãi tắm hình vòng cu
+Nội dung: Bãi Bụt Bãi Bụt là 1 bãi biển nằm trên đường lên Chùa Linh Ứng. Nó giống như 1 bãi tắm hình vòng cung được gọi là eo biển rất đẹp và Bãi Bụt đã trở nên hút cả du khách Việt Nam và quốc tế khi đến du lịch Đà Nẵng. Đến Bãi Bụt bạn có thể thuê chòi và tự do ăn uống tổ chức ca hát bên bờ biển trong xanh. Ngoài ra bạn có thể tham gia các hoạt động du lịch biển tại đây, như tham gia các trò chơi biển, lặn san hô thiên nhiên, lướt ván và nhảy dù….
+Tên tài liệu:  Bãi biển Tiên Sa Địa chỉ: Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng. Bãi biển Tiên Sa nằm ở p
+Nội dung: Bãi biển Tiên Sa Địa chỉ: Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng. Bãi biển Tiên Sa nằm ở phía Bắc của bán đảo Sơn Trà, tách biệt với thành phố ồn ào nên mang vẻ đẹp hoang sơ, yên tĩnh. Khung cảnh yên bình giữa núi non hùng vĩ rất thích hợp để nghỉ ngơi, thư giãn và khám phá. Khi đến đây, du khách có thể tham gia nhiều hoạt động vui chơi giải trí như dù lượn, moto nước, tàu lượn…</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ghềnh Bàng cách trung tâm Đà Nẵng bao xa và thu hút du khách bởi điều gì?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ghềnh Bàng cách trung tâm khoảng 20km, nổi tiếng với các mỏm đá nhấp nhô độc đáo, cảnh biển xanh trong và hoạt động cắm trại, ngắm san hô.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ghềnh Bàng cách trung tâm thành phố Đà Nẵng khoảng 20 km. Nơi đây thu hút du khách, đặc biệt là các bạn trẻ, nhờ vào những mỏm đá nhấp nhô độc đáo, phong cảnh hoang sơ, bãi biển dài, san hô phong phú và các hoạt động như tắm biển, cắm trại, câu cá, thưởng thức hải sản tươi ngon, cùng cơ hội chụp ảnh “check‑in” ấn tượng.</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>The answer correctly states that Ghềnh Bàng is about 20 km from Da Nang’s city center, which matches all documents. It also lists attractions—unique rock formations, pristine scenery, long beach, coral, swimming, camping, fishing, fresh seafood, and photo opportunities—that are all mentioned in the context. No information is fabricated or omitted in a misleading way, so the answer is fully faithful.</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>The answer directly states the distance (≈20 km) and lists the attractions that draw tourists, fully addressing both parts of the question.</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>The provided context contains multiple passages that explicitly state Ghềnh Bàng is about 20 km from Da Nang’s city center and lists the same attractions and activities mentioned in the answer (unique rock formations, pristine scenery, beach, coral, swimming, camping, fishing, fresh seafood, and photo opportunities). The information is concise, directly relevant, and matches the answer’s content, yielding a high precision score.</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>The context includes the distance of about 20 km from Da Nang’s center and lists the attractions—unique rock formations, clear blue sea, camping, and snorkeling—exactly matching the ground truth.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Ghềnh Bàng Địa chỉ: Hoàng Sa, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng. Cách trung tâm thành phố tầm 2
+Nội dung: Ghềnh Bàng Địa chỉ: Hoàng Sa, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng. Cách trung tâm thành phố tầm 20km, Ghềnh Bàng là địa điểm du lịch Đà Nẵng thu hút đông đảo các bạn trẻ đến đây check in, chụp hình. Nơi đây quyến rũ du khách gần xa bởi hình thù độc đáo của các mỏm đá nhấp nhô đầy tính nghệ thuật. Đến đây, du khách tha hồ tắm biển, ngắm san hô, cắm trại, thưởng thức hải sản tươi ngon,...
+Tên tài liệu: Ghềnh Bàng Đà Nẵng  Ghềnh Bàng với bờ biển dài khoảng 2 cây số, nổi bật với những tảng đá đủ hình đủ
+Nội dung: Ghềnh Bàng Đà Nẵng  Ghềnh Bàng với bờ biển dài khoảng 2 cây số, nổi bật với những tảng đá đủ hình đủ dạng và vẻ đẹp hoang sơ hiếm có. Địa điểm du lịch gần Đà Nẵng này rất thích hợp cho những nhóm bạn trẻ đi du lịch Đà Nẵng tự túc, vì chỉ cần thuê 1 chiếc xe máy, đi chừng 30-1 tiếng là tới nơi. Nằm trên bán đảo Sơn Trà xanh mát và cách trung tâm Đà Nẵng khoảng 20 km. Ghềnh Bàng là một trong số những địa điểm du lịch Đà Nẵng vẫn giữ nguyên được nét đẹp hoang sơ, tự nhiên nhất. Ghềnh Bàng có nhiều bãi đá đẹp, nhấp nhô. Cảnh đẹp ở địa điểm du lịch Đà Nẵng này nếu các bạn đến vào hôm trời quang, ánh sáng nhiều thì dưới ánh nằng mùa xuân và hè nó sẽ trở nên lung linh nên được nhiều bạn trẻ yêu thích. Cảnh biển tuyệt đẹp và các ghềnh đá xếp thành khối vô cùng đặc biệt. Nếu bạn đi theo nhóm, địa điểm du lịch Đà Nẵng này là một lựa chọn hay ho cho chuyến cắm trại qua đêm. Nếu không ưa mạo hiểm, có thể ngồi câu cá trên các ghềnh đá hoặc bắt cá khu nước cạn. vì đây là 1 cảnh đẹp Đà Nẵng mà chỉ thích hợp cho những nhóm bạn trẻ đi du lịch Đà Nẵng tự túc nên trong các tour Đà Nẵng trọn gói thướng sẽ không có địa điểm du lịch Đà Nẵng này đâu các bạn nha. Những khách nào đi du lịch Đà Nẵng mà có đi lên bán đảo Sơn Trà thì có đi ngang qua Ghềnh Bàng Đà Nẵng đó nhé. lúc đó thì dừng xe xuống chụp choẹt một chút rồi lên đường thẳng tiến bán đảo Sơn Trà thôi nào. Địa chỉ: Hoàng Sa, Thọ Quang, Sơn Trà, Đà Nẵng
+Tên tài liệu: Ghềnh Bàng – điểm trekking hoang sơ giữa lòng Đà Nẵng Cách trung tâm thành phố khoảng 20 km, nằm trê
+Nội dung: Ghềnh Bàng – điểm trekking hoang sơ giữa lòng Đà Nẵng Cách trung tâm thành phố khoảng 20 km, nằm trên đường lên bán đảo Sơn Trà, Ghềnh Bàng là điểm đến mang vẻ đẹp yên bình, hoang sơ và là nơi cư trú của nhiều đàn voọc quý hiếm. Với đường bờ biển dài khoảng 2 km, Ghềnh Bàng mang đến cho du khách một trải nghiệm “chữa lành” khác biệt so với những bãi tắm quen thuộc. Hành trình trekking ngắn nhưng đầy thú vị Để đặt chân tới Ghềnh Bàng, du khách buộc phải trải qua một chặng hiking ngắn 700 m – 1 km từ bãi đỗ xe xuống bờ biển. Con đường khá dốc, dễ trượt ngã, đòi hỏi sự tập trung nhưng lại phù hợp cho cả những ai lần đầu thử sức với trekking. Trên hành trình, đôi khi bãi biển thoắt ẩn thoắt hiện sau những tán cây, tạo cảm giác như đang chơi trò “trốn tìm” với thiên nhiên. Và nếu may mắn, du khách có thể bắt gặp những đàn voọc chà vá đáng yêu đang kiếm ăn bên sườn núi. Phương tiện và trải nghiệm Bạn có thể đến đây bằng ô tô, xe máy, thậm chí xe đạp để vừa rèn luyện sức khỏe vừa thong thả chiêm ngưỡng cảnh biển từ thấp lên cao. Khi xuống tới Ghềnh Bàng, khung cảnh biển xanh mênh mông, tiếng sóng dập dìu hòa cùng gió biển sẽ khiến mọi mệt mỏi tan biến. Đây cũng là nơi lý tưởng để tắm biển, lặn ngắm san hô hay đơn giản là nằm dài trên bãi đá lắng nghe nhịp thở của thiên nhiên. Thời điểm lý tưởng Khoảng tháng 3 đến tháng 8 là thời gian đẹp nhất để khám phá Ghềnh Bàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VinWonders Nam Hội An thuộc tỉnh nào và có gì khác biệt?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VinWonders Nam Hội An thuộc huyện Thăng Bình, tỉnh Quảng Nam – gần Đà Nẵng; là tổ hợp giải trí – văn hóa kết hợp giữa hoạt động hiện đại và giá trị truyền thống Việt Nam.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>The answer states that it cannot provide information, which does not address the question about the location and distinguishing features of VinWonders Nam Hội An. It is therefore not faithful to the question.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>The answer admits lack of information and does not address the question about the province of VinWonders Nam Hội An or its distinguishing features, making it irrelevant.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>The context is empty, so it provides no support for the answer.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>The provided context is empty, so it contains none of the key facts from the ground truth (province name and the unique blend of modern and traditional elements).</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cầu Rồng Đà Nẵng có hoạt động đặc biệt nào vào cuối tuần?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vào tối thứ Bảy và Chủ nhật, Cầu Rồng trình diễn phun lửa và phun nước vào lúc 21h, tạo nên điểm nhấn du lịch sôi động.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Vào các ngày cuối tuần, Cầu Rồng Đà Nẵng tổ chức biểu diễn phun lửa và phun nước, bắt đầu lúc 21 giờ vào mỗi Thứ Bảy và Chủ nhật.</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the context: it states that on weekends the Dragon Bridge performs fire and water displays starting at 21:00 on Saturdays and Sundays, which is directly supported by the passages that mention weekend performances and the specific 21:00 timing for Saturdays and Sundays.</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by describing the special fire and water displays that occur on weekends at the Dragon Bridge, matching the requested information.</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>The context contains explicit statements about weekend fire and water shows at 21:00 on Saturdays and Sundays, directly supporting the answer. While some additional details are present, the core information is concise and relevant.</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>The context explicitly states that on Saturday and Sunday evenings the dragon performs fire and water shows at 21:00, matching all key facts in the ground truth.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Cầu Rồng Địa chỉ: P. An Hải Tây, Q. Sơn Trà, TP. Đà Nẵng. Đưa vào hoạt động năm 2013, điểm tham qua
+Nội dung: Cầu Rồng Địa chỉ: P. An Hải Tây, Q. Sơn Trà, TP. Đà Nẵng. Đưa vào hoạt động năm 2013, điểm tham quan Đà Nẵng cầu Rồng là một trong những địa điểm du lịch mới ở Đà Nẵng hấp dẫn du khách. Với thiết kế độc đáo mang hình dáng con rồng bắc qua sông Hàn thơ mộng, cầu Rồng là cây cầu thứ 7 tạo nên biểu tượng “thành phố của những cây cầu”. Đến đây vào các ngày cuối tuần, bạn còn xem được cảnh rồng phun lửa, phun nước sống động.
+Tên tài liệu: Cầu Rồng Đà Nẵng  Một trong những biểu tượng bất hủ của du lịch Đà Nẵng đó là chiếc cầu có hình con 
+Nội dung: Cầu Rồng Đà Nẵng  Một trong những biểu tượng bất hủ của du lịch Đà Nẵng đó là chiếc cầu có hình con rồng độc nhất vô nhị này. Với kiến trúc hình một chú rồng đang vươn mình ra biển lớn, cầu Rồng Đà Nẵng gần như là điểm tham quan không thể bỏ qua khi đến du lịch Đà Nẵng. Ngoài ra, vào những khung giờ nhất định cầu Rồng còn “biểu diễn” phun lửa, phun nước rất độc đáo. Cầu Rồng Đà Nẵng có kiến trúc độc đáo mô phỏng hình con rồng thời Lý mạnh mẽ vươn ra biển, trở thành điểm nhấn quan trọng, là biểu tượng kiến trúc của thành phố. Nét đặc trưng của cầu dễ phân biệt đó là mô hình hệ thống kết cấu dầm thép dưới dạng một con rồng bay qua sông Hàn, hướng ra biển. Đây được cho là thiết kế độc đáo chưa từng có trên thế giới về kết cấu chịu lực là sự kết hợp giữa dầm thép, vòm thép và dầm bê tông. Mách bạn thông tin về thời gian phun lửa và phun nước: bắt đầu vào lúc 21 giờ các ngày Thứ Bảy, Chủ nhật hàng tuần và các ngày Lễ lớn. khách đi du lịch Đà Nẵng trọn gói 3 ngày 2 đêm mà có rơi vào 1 trong 2 đêm thứ 7 chủ nhật thì chắc chắn phải ra đây để ngắm cảnh. Còn nếu bạn là đi người đi du lịch Đà Nẵng tự túc thì không cần bàn cãi rồi, các bạn có thể đi dạo phố rồi trươc giờ phun nước 15 20p thì đến cầu rồng chờ đợi nhé.
+Tên tài liệu:  Các cây cầu biểu tượng của Đà thành Đà Nẵng được mệnh danh là “thành phố của những cây cầu”. Những 
+Nội dung: Các cây cầu biểu tượng của Đà thành Đà Nẵng được mệnh danh là “thành phố của những cây cầu”. Những cây cầu nổi tiếng như Cầu Rồng, Cầu quay sông Hàn, Cầu tình yêu… vừa là biểu tượng vừa là điểm check-in lung linh về đêm mà du khách không nên bỏ lỡ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Khi đến khu du lịch suối khoáng nóng Núi Thần Tài, du khách cần chuẩn bị gì?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nên mang theo kem chống nắng, đồ tắm, túi nylon đựng quần áo ướt và túi chống nước cho điện thoại vì phần lớn thời gian ở đây là tắm khoáng, tắm bùn.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>The answer does not address the question about what tourists need to prepare for the hot spring area, and it claims lack of information. Since no relevant context is provided, the response is not faithful to the question.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information about what tourists should prepare for the hot spring area, merely stating a lack of data. It is completely irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>The context is empty, so it provides no relevant information to support the answer.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>The provided context contains no information, so none of the key facts from the ground truth are present.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Khi mua vé ở khu du lịch Núi Thần Tài cần lưu ý điều gì?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Du khách nên chọn gói vé combo phù hợp vì giá vé lẻ sẽ đắt hơn nếu mua thêm từng dịch vụ riêng lẻ sau đó.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information related to the question and claims lack of data, which is not supported by any context. Therefore it is not faithful to the question.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>The answer does not address the question at all; it merely states a lack of information, which is irrelevant to what should be noted when buying tickets at Thần Tài Mountain.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>The context is empty, so it provides no relevant information to support the answer.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>The provided context is empty, so it contains none of the key facts from the ground truth.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mì Quảng Bà Mua ở Đà Nẵng có những loại topping nào đặc biệt?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mì Quảng Bà Mua có topping như gà, bò, ếch, trứng và món “mì thập cẩm” gồm đủ loại topping trong một phần ăn.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>The answer correctly acknowledges that the provided context does not contain specific information about the toppings at Mì Quảng Bà Mua, so it is faithful to the available data. It does not fabricate any details or contradict the context.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information about the toppings of Mì Quảng Bà Mua and simply states an inability to answer, making it irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>The retrieved context contains relevant information about the toppings at Mì Quảng Bà Mua, but the answer does not utilize this information and instead states a lack of data. Therefore the context does not support the answer, resulting in a low precision score.</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>The context mentions gà, bò, and trứng (cút) as toppings for Mì Quảng Bà Mua, covering three of the four key toppings listed in the ground truth. However, it omits the frog topping and the special "mì thập cẩm" dish that includes all toppings in one portion. Thus, the recall is partial but not complete.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Mì Quảng là món ăn biểu tượng của Đà Nẵng, với sợi mì vàng từ nghệ, nước dùng ninh từ xương, nêm nướ
+Nội dung: Mì Quảng là món ăn biểu tượng của Đà Nẵng, với sợi mì vàng từ nghệ, nước dùng ninh từ xương, nêm nước mắm, tiêu, hành khô, tỏi. Topping thường gồm tôm sông, trứng cút, thịt heo quay, ngoài ra có nơi dùng gà, cá hoặc bò. Ăn kèm với các loại rau sống, hoa chuối, lạc rang và bánh tráng mè, tạo nên hương vị khó quên.
+Tên tài liệu: Ẩm thực đặc sản tại Đà Nẵng Được mệnh danh là thiên đường ẩm thực miền Trung, Đà Nẵng quyến rũ du kh
+Nội dung: Ẩm thực đặc sản tại Đà Nẵng Được mệnh danh là thiên đường ẩm thực miền Trung, Đà Nẵng quyến rũ du khách với vô vàn món ăn mang hương vị độc đáo, khiến nhiều người “say lòng” ngay từ lần đầu thưởng thức. Trong số đó, Mì Quảng luôn là cái tên không thể thiếu. Đây là món ăn mộc mạc nhưng giàu sức hút, nổi tiếng bởi sợi mì mềm dai, nước dùng đậm đà cùng nhiều loại topping như tôm, gà, thịt heo, trứng cút và lạc rang. Các địa chỉ nổi tiếng gồm Mì Quảng Bà Mua (19-21 Trần Bình Trọng), Mì Quảng Thị Gia Truyền (251 Hoàng Diệu) và Mì Quảng 1A (1 Hải Phòng), với giá chỉ từ 30.000 – 50.000 VND.
+Tên tài liệu:  Mì Quảng Dù có nguồn gốc từ Quảng Nam nhưng mì Quảng luôn là lựa chọn hàng đầu của nhiều người khi 
+Nội dung: Mì Quảng Dù có nguồn gốc từ Quảng Nam nhưng mì Quảng luôn là lựa chọn hàng đầu của nhiều người khi du lịch Đà Nẵng. Món đặc sản chinh phục thực khách với nước dùng thơm béo, kết hợp với mì Quảng, thịt gà, thịt heo, tôm và một ít bánh đa, rau sống.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bảo tàng tranh 3D Art in Paradise Đà Nẵng có bao nhiêu bức tranh và chia thành mấy khu vực?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Art in Paradise Đà Nẵng có hơn 150 bức tranh 3D chia thành 9 khu vực chủ đề khác nhau.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bảo tàng tranh 3D Art in Paradise Đà Nẵng có hơn 150 bức tranh và được chia thành 9 khu vực chủ đề.</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>The answer correctly states that Art in Paradise Da Nang has more than 150 3D paintings and is divided into 9 themed zones, which matches the information provided in the context.</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>The answer directly provides the requested information: it states that the museum has more than 150 paintings and is divided into 9 themed areas, fully addressing both parts of the question.</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>The first document explicitly states that Art in Paradise Da Nang has more than 150 paintings and is divided into 9 themed areas, directly supporting the answer. The other documents are less specific but do not contradict the key facts. Overall, the context is highly relevant and concise.</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>The context explicitly states that Art in Paradise Da Nang has more than 150 3D paintings and is divided into 9 themed areas, matching both key facts in the ground truth.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Art in Paradise Da Nang Bảo tàng tranh 3D nổi tiếng quốc tế với hơn 150 bức tranh sống động, chia th
+Nội dung: Art in Paradise Da Nang Bảo tàng tranh 3D nổi tiếng quốc tế với hơn 150 bức tranh sống động, chia thành 9 khu vực chủ đề như Safari, Ai Cập cổ đại, Thế giới tưởng tượng, Đại dương… Du khách có thể thoải mái tạo dáng và chụp ảnh sáng tạo. Địa chỉ: Lô C2-10 Trần Nhân Tông, quận Sơn Trà, Đà Nẵng Giờ mở cửa: Hằng ngày 9:00–18:00 Điện thoại: +84 (0)911 641 100
+Tên tài liệu:  Bảo tàng 3D Art In Paradise Bảo tàng 3D Art In Paradise trưng bày hàng trăm bức tranh 3D sống động,
+Nội dung: Bảo tàng 3D Art In Paradise Bảo tàng 3D Art In Paradise trưng bày hàng trăm bức tranh 3D sống động, mang đến không gian nghệ thuật đa chiều. Đây là địa điểm thú vị để du khách vừa chiêm ngưỡng tác phẩm vừa thoải mái tạo dáng, chụp ảnh độc lạ.
+Tên tài liệu:  Bảo tàng 3D Trick Eye Địa chỉ: Trần Nhân Tông, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng. Đây là bảo tà
+Nội dung: Bảo tàng 3D Trick Eye Địa chỉ: Trần Nhân Tông, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng. Đây là bảo tàng tranh 3D đầu tiên ở Đà Nẵng, ra mắt từ năm 2012 và nhanh chóng trở thành điểm check-in nổi tiếng. Hàng trăm bức tranh 3D sống động tại đây không chỉ tạo hiệu ứng nghệ thuật mà còn mang lại những góc chụp hình “sống ảo” cực chất cho du khách.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bún chả cá Hờn ở Đà Nẵng nổi bật với điểm gì trong hương vị?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bún chả cá Hờn có nước lèo ngọt, chua, cay nhẹ hài hòa và chả cá viên dai giòn, thơm ngon.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bún chả cá Hờn nổi bật với nước dùng vàng óng, được làm từ nghệ và cà chua, mang hương thơm đặc trưng cùng vị rau củ thanh ngon.</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the context: it states that Bún chả cá Hờn is known for its bright yellow broth made from turmeric (nghệ) and tomato (cà chua), with a fragrant aroma and a fresh vegetable flavor. This matches the description in the first context paragraph, so the answer is fully faithful.</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by describing the standout flavor feature of Bún chả cá Hờn—its golden broth made from turmeric and tomato, with a distinctive aroma and fresh vegetable taste. It is highly relevant and focused, though it could mention more specific taste nuances for a perfect score.</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>The context contains a clear statement that Bún chả cá Hờn has a golden broth made from turmeric and tomato, matching the answer. While the context also includes unrelated information about other dishes, the relevant portion directly supports the answer, giving a high precision score.</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>The context mentions that Bún chả cá Hờn has a sweet broth and a slightly spicy flavor, but it does not mention the sour component or the description of the fish cake pieces as firm, crispy, fragrant, and tasty. Therefore, only part of the ground‑truth information is recalled.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Mì Quảng và bún chả cá Nu Đồ là nơi nổi tiếng với mì Quảng – món ăn biểu tượng của Đà Nẵng. Đầu bếp 
+Nội dung: Mì Quảng và bún chả cá Nu Đồ là nơi nổi tiếng với mì Quảng – món ăn biểu tượng của Đà Nẵng. Đầu bếp Tuyết mang đến hương vị đầy sáng tạo, sợi mì vàng mềm, kết hợp nhiều topping như trứng, hoa chuối, lạc rang và bánh tráng giòn. Ngoài ra, Bún chả cá Hờn với nước dùng vàng óng từ nghệ, cà chua, thơm và rau củ đã trở thành món ăn quen thuộc suốt hơn 30 năm. Nếu nhớ hương vị phở, bạn có thể ghé Phở Việt Kiều, nơi phục vụ thực đơn đa dạng, thân thiện với du khách quốc tế. Với mì kéo thủ công, Ân Ký Mì Gia nổi bật với mì wonton, sủi cảo và bánh bao, mở cửa từ 6h sáng, có menu tiếng Anh rõ ràng.
+Tên tài liệu:  Bún chả cá Đà Nẵng Bún chả cá Đà Nẵng gây ấn tượng đặc biệt với du khách ở nước dùng ngọt đậm đà vị
+Nội dung: Bún chả cá Đà Nẵng Bún chả cá Đà Nẵng gây ấn tượng đặc biệt với du khách ở nước dùng ngọt đậm đà vị rau củ, vị cay của ớt, vị mặn đặc trưng của mắm ruốc và vị ngon của những lát chả cá hấp, chiên. Thưởng thức một tô bún cá nóng hổi thơm ngon sẽ là gợi ý tuyệt vời cho bữa sáng trước khi bắt đầu hành trình du lịch Đà Nẵng.
+Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: . Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi. Để thưởng thức món ăn này ngon đúng chuẩn, các bạn có thể tới quán trên đường Hùng Vương hoặc đường Trần Cao Vân rất ngon, rẻ từ 20k/bát. Bún bò Huế bà Thương đã có 20 năm nằm trên đường Trần Quốc Toản (gần ngã tư đường Yên Bái và Trần Quốc Toản)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Quán Bà Hoa ở Đà Nẵng khác quán Hờn ở điểm nào?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Quán Bà Hoa dùng cá lát thay vì cá viên, tạo cảm giác chắc thịt hơn, nước lèo ngọt đậm đà.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó.</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>The answer correctly states that it cannot answer the question because the provided context contains no information about Quán Bà Hoa or Quán Hờn. This is fully faithful to the given context.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>The answer admits lack of information and does not address the question about differences between the two restaurants, making it completely irrelevant.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>The provided context contains no information about Quán Bà Hoa or Quán Hờn, so it does not support the answer. The answer correctly states lack of data, but the context is irrelevant.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>The provided context does not mention Quán Bà Hoa or its use of cá lát versus cá viên, so none of the key facts from the ground truth are present.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn tham khảo Mì Quảng: Được biết đến là món ăn nổi tiếng ở Đà Nẵng, với nhiều hương vị khác nhau như: Mì Quảng tôm, gà, chả cua, lươn… ăn kèm với bánh tráng nướng, đậu phộng rang… Để thưởng thức mì Quảng ngon tại Đà Nẵng, các bạn có thể tham khảo một số địa chỉ: Quán mì Quảng Thi (địa chỉ 251 Hoàng Diệu, Quận Hải Châu, Đà Nẵng). Mì được đánh giá rất ngon và đông khách, giá dao động từ 18-30k/ tô lớn với nhiều hương vị như mì gà, mì ếch, mì cá lóc… Quán mì Quảng Bà Mua (Địa chỉ 19 Trần Bình Trong, Quận Hải Châu, Đà Nẵng), giá khoảng 25k/tô. Quán mì Bà Vị (địa chỉ 166 Lê Đình Dương, Quận Hải Châu, Đà Nẵng), giá 25k/tô. Thưởng thức đặc sản Đà Nẵng không thể bỏ qua món bánh tráng cuốn thịt heo ngon nức tiếng. Sự kết hợp độc đáo giữa thịt luộc ăn kèm với các loại rau củ và nước mắm nêm làm nên sức hấp dẫn cho món ăn. Địa chỉ bánh tráng cuốn thịt heo ngon ở Đà Nẵng các bạn có thể tham khảo: Quán bánh tráng thịt heo Mậu (Địa chỉ 35 Đỗ thúc Tịnh, Quận Cẩm Lệ, Đà Nẵng), với 55k/suất no nê. Bánh tráng Quên Nhà (Địa chỉ K72/1C Hàm Nghi, Quận Thanh Khê, Đà Nẵng), giá 35k/suất. Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi
+Tên tài liệu:  Bánh Bèo - Món Ăn Xế Thơm Ngon Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh bèo chén - "báu vật" 
+Nội dung: Bánh Bèo - Món Ăn Xế Thơm Ngon Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh bèo chén - "báu vật" xế chiều của Đà Nẵng! Tưởng tượng xem, những chén bánh trắng muốt, nóng hổi, được điểm xuyết bằng thịt tôm, hành phi thơm lừng và tóp mỡ giòn rụm... Chỉ cần nghĩ thôi đã thấy thèm rồi! Đảm bảo đây sẽ là món ăn "gây thương nhớ" cho bạn trong chuyến du lịch Đà Nẵng sắp tới. Các Địa Chỉ Ăn Bánh Bèo Ngon Ở Đà Nẵng: Bánh bèo Nhung: 322 Nguyễn Hoàng Quán bánh bèo Đà Nẵng: K54/45 Nguyễn Công Trứ Bánh bèo đêm: 14 Cồn Dầu 6 Bánh bèo nóng: 197 Núi Thành Bánh bèo Bà Bé: 100 Hoàng Văn Thụ, Hải Châu, TP. Đà Nẵng Quán Tâm: 291 Nguyễn Chí Thanh, Phước Ninh, Hải Châu, TP. Đà Nẵng
+Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: . Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi. Để thưởng thức món ăn này ngon đúng chuẩn, các bạn có thể tới quán trên đường Hùng Vương hoặc đường Trần Cao Vân rất ngon, rẻ từ 20k/bát. Bún bò Huế bà Thương đã có 20 năm nằm trên đường Trần Quốc Toản (gần ngã tư đường Yên Bái và Trần Quốc Toản)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Art in Paradise Đà Nẵng nằm ở đâu?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ảo tàng nằm tại Lô C2-10 Trần Nhân Tông, quận Sơn Trà, Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Art in Paradise Đà Nẵng nằm tại Lô C2‑10, đường Trần Nhân Tông, phường Thọ Quang, quận Sơn Trà, thành phố Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>The answer correctly states the location of Art in Paradise Đà Nẵng as Lô C2‑10, đường Trần Nhân Tông, phường Thọ Quang, quận Sơn Trà, Đà Nẵng, which matches the address provided in the context. No discrepancies or fabricated information are present.</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>The answer provides the exact address of Art in Paradise Đà Nẵng, directly answering the location question.</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>The context contains a document that lists the exact address of Art in Paradise Đà Nẵng, matching the answer precisely. The other documents are either redundant or partially relevant, but the key information is present and directly supports the answer.</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>The context explicitly states the address of Art in Paradise Da Nang as "Lô C2-10 Trần Nhân Tông, quận Sơn Trà, Đà Nẵng," which matches the ground truth location.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Art in Paradise Da Nang Bảo tàng tranh 3D nổi tiếng quốc tế với hơn 150 bức tranh sống động, chia th
+Nội dung: Art in Paradise Da Nang Bảo tàng tranh 3D nổi tiếng quốc tế với hơn 150 bức tranh sống động, chia thành 9 khu vực chủ đề như Safari, Ai Cập cổ đại, Thế giới tưởng tượng, Đại dương… Du khách có thể thoải mái tạo dáng và chụp ảnh sáng tạo. Địa chỉ: Lô C2-10 Trần Nhân Tông, quận Sơn Trà, Đà Nẵng Giờ mở cửa: Hằng ngày 9:00–18:00 Điện thoại: +84 (0)911 641 100
+Tên tài liệu:  Bảo tàng 3D Art In Paradise Bảo tàng 3D Art In Paradise trưng bày hàng trăm bức tranh 3D sống động,
+Nội dung: Bảo tàng 3D Art In Paradise Bảo tàng 3D Art In Paradise trưng bày hàng trăm bức tranh 3D sống động, mang đến không gian nghệ thuật đa chiều. Đây là địa điểm thú vị để du khách vừa chiêm ngưỡng tác phẩm vừa thoải mái tạo dáng, chụp ảnh độc lạ.
+Tên tài liệu: Bà Nà Hills (bổ sung để đủ top 10) Đà Nẵng có rất nhiều địa điểm du lịch vui chơi cả ở tro
+Nội dung: . Địa chỉ: phường Phước Mỹ, Q. Sơn Trà, TP. Đà Nẵng.  Chùa Linh Ứng Từ thành phố Đà Nẵng, có thể nhìn thấy bức tượng Quan Âm trắng muốt cao 67m, tọa trên đài sen rộng 35m của chùa Linh Ứng tại bán đảo Sơn Trà. Đây không chỉ là ngôi chùa linh thiêng mà còn là điểm tham quan nổi bật, thu hút rất nhiều khách du lịch hằng năm. Địa chỉ: bán đảo Sơn Trà, Đà Nẵng.  Cung văn hóa thiếu nhi Đà Nẵng Đây là điểm check-in nổi tiếng của giới trẻ, nổi bật với những bức tường được trang trí độc đáo, nhiều hình thù màu sắc khác nhau, tạo nên background cực chất để chụp ảnh. Địa chỉ: 2 Phan Đăng Lưu, Hòa Cường Bắc, Hải Châu, Đà Nẵng.  Bảo tàng 3D Trick Eye Tại bảo tàng 3D Trick Eye, du khách có thể chiêm ngưỡng hàng loạt tác phẩm nghệ thuật 3D sống động, hóa thân thành nhân vật cổ tích, khám phá khu rừng bí ẩn hay lăng mộ Ai Cập cổ đại. Đây là nơi vui chơi, giải trí hấp dẫn cho cả người lớn và trẻ nhỏ. Giá vé tham khảo: 130.000 VNĐ/người lớn, 90.000 VNĐ/trẻ em (1m – 1m3). Địa chỉ: Art in Paradise Đà Nẵng, Lô C2-10 đường Trần Nhân Tông, phường Thọ Quang, quận Sơn Trà, Đà Nẵng.  Suối khoáng Thần Tài Nằm trong khu du lịch sinh thái Bà Nà Núi Chúa, suối khoáng Thần Tài mang cảnh sắc thiên nhiên xinh đẹp, thích hợp nghỉ dưỡng. Du khách có thể trải nghiệm tắm bùn, tắm rượu vang, tắm khoáng nóng và nhiều dịch vụ thư giãn khác. Giá vé tham khảo: 400.000 VNĐ/người lớn, 200.000 VNĐ/trẻ em (cao từ 1m – 1m4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bún Mắm Liêm ở Đà Nẵng có đặc điểm gì về hương vị?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bún Mắm Liêm có hương vị mắm nêm nặng mùi, nhưng đậm đà và rất ngon khi ăn kèm thịt heo quay, rau sống, đậu phộng.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bún mắm Liêm ở Đà Nẵng có hương vị đậm đà, không quá nồng, với vị cay nhẹ đặc trưng khiến ngay cả những người e ngại mùi mắm cũng cảm thấy hấp dẫn. Đây là một hương vị khó quên, hòa quyện cùng các topping phong phú như thịt heo quay giòn, đậu phộng rang và rau thơm.</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the description in the context: it states that Bún mắm (specifically the variant referred to as Liêm) has a rich, not overly strong flavor with a mild spiciness, and highlights the same toppings (roasted pork, peanuts, herbs) mentioned in the source. The only minor discrepancy is the use of the term "Liêm" instead of "nêm," but this is likely a synonymous reference to the same sauce type. No information is fabricated or contradicted by the context.</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>The answer directly describes the flavor profile of Bún Mắm Liêm in Da Nang, mentioning its richness, mild spiciness, and the combination with toppings, which directly addresses the question about its taste characteristics.</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>The provided context contains multiple passages that explicitly describe Bún mắm nêm in Đà Nẵng as having a rich, not overly strong flavor with a mild spiciness, and lists toppings such as crispy pork, roasted peanuts, and fresh herbs. These details directly support the answer’s claims about flavor profile and toppings, making the context highly relevant and precise.</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>The context contains all the key facts from the ground truth: it describes the mắm nêm as strong and fragrant ("thơm nồng"), rich and savory, and notes that the dish is served with pork, fresh herbs, and peanuts. Thus it covers the essential details needed to answer the question.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Bún mắm – hương vị khó quên trên con đường Trần Kế Xương, Đà Nẵng Nhắc đến ẩm thực miền Trung, người
+Nội dung: Bún mắm – hương vị khó quên trên con đường Trần Kế Xương, Đà Nẵng Nhắc đến ẩm thực miền Trung, người ta thường nghĩ ngay đến vị cay nồng “thiếu ớt không sống nổi”. Nhưng bên cạnh đó, một nét đặc trưng khác làm nên dấu ấn nơi này chính là các loại mắm – niềm tự hào của người dân ven biển, đặc biệt là tại Đà Nẵng. Trên con đường Trần Kế Xương, chỉ cần đặt chân đến đầu ngõ, du khách sẽ lập tức bị chinh phục bởi mùi mắm nêm thơm nồng lan tỏa. Hương vị ấy quyện trong không khí khiến chiếc bụng đói cồn cào cũng phải “rục rịch” đòi thưởng thức. Và món ăn níu chân biết bao thực khách ở đây chính là bún mắm nêm – đặc sản trứ danh của Đà Nẵng. Hương vị đậm đà, topping phong phú Một tô bún mắm đầy đủ gồm bún tươi, thịt heo quay giòn rụm, đậu phộng rang, rau thơm, hành phi và tất nhiên, linh hồn của món ăn chính là mắm nêm. Mắm nêm ở Đà Nẵng đặc biệt ở chỗ vừa đậm đà, vừa dễ ăn, không quá nồng, khiến cả những người e ngại mùi mắm cũng phải xuýt xoa. Giá mỗi tô dao động từ 000 – 3000 đồng, phù hợp cho mọi du khách. Điểm nhấn không thể bỏ qua chính là thịt heo quay: lớp da vàng giòn tan, phần thịt mềm mọng nước hòa quyện cùng mắm nêm, tạo nên hương vị khó quên. Các quán trên con đường này cũng rất chú trọng vệ sinh, khu vực chế biến gọn gàng, và từng tô bún đều được bày biện đẹp mắt, thể hiện sự chăm chút của người chủ quán. Con đường “thơm nhất” Đà Nẵng Không chỉ người dân địa phương, mà cả du khách trong và ngoài nước đều yêu thích bún mắm trên con đường Trần Kế Xương
+Tên tài liệu: 1 Bún Mắm Nêm Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Với khí hậu nắng nóng của Đà Nẵng, bún mắm nêm
+Nội dung: 1 Bún Mắm Nêm Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Với khí hậu nắng nóng của Đà Nẵng, bún mắm nêm là món ăn giải nhiệt được nhiều người yêu thích. Sự kết hợp giữa bún, thịt heo quay giòn rụm, rau sống tươi mát và nước mắm nêm đậm đà tạo nên một hương vị "rất gì và này nọ". Nếu bạn là tín đồ của các món ăn cay nồng, đừng bỏ qua món bún mắm nêm "nặng đô" này nhé! Các Địa Chỉ Bán Bún Mắm Nêm Ngon Ở Đà Nẵng: Bún mắm nêm Bi Mĩ: chợ Cồn Bún mắm dì Xem: bờ hồ Hàm Nghi Bún mắm heo quay: 43-45 Phan Thanh Bún mắm Ngọc Đà Nẵng: 20 Đoàn Thị Điểm, Hải Châu, TP. Đà Nẵng Bún mắm bà Thuyên Đà Nẵng: K424/03 Lê Duẫn, Thanh Khê, TP. Đà Nẵng
+Tên tài liệu: Mắm ruốc Dì Cẩn Loại mắm nêm nổi tiếng của Đà Nẵng, hương vị đậm đà, cay nhẹ, rất đặc trưng. Làm nên
+Nội dung: Mắm ruốc Dì Cẩn Loại mắm nêm nổi tiếng của Đà Nẵng, hương vị đậm đà, cay nhẹ, rất đặc trưng. Làm nên linh hồn của nhiều món cuốn. Giá tham khảo: 7000 VNĐ/hũ 500g.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Quán bánh xèo nổi tiếng nhất ở Đà Nẵng là quán nào?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bánh Xèo Bà Dưỡng trên đường Hoàng Diệu nổi tiếng nhất Đà Nẵng, với bánh giòn, béo và nem lụi nướng thơm.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Quán bánh xèo nổi tiếng nhất ở Đà Nẵng là Quán Bà Dưỡng (280/23 Hoàng Diệu).</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies Quán Bà Dưỡng as the most famous bánh xèo shop in Đà Nẵng, which is explicitly stated in all provided context excerpts. No contradictory information is present, so the answer is fully faithful.</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>The answer directly identifies the most famous bánh xèo shop in Đà Nẵng, matching the question exactly.</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>The context contains multiple excerpts that explicitly mention "Bánh Xèo Bà Dưỡng (280/23 Hoàng Diệu)" as a famous location, directly supporting the answer. While the excerpts also include general information about bánh xèo, the key detail is present and clear, making the context highly relevant.</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>The context includes the location (Bánh Xèo Bà Dưỡng on Hoàng Diệu) and its fame as a well‑known spot in Da Nang, but it does not mention the specific description of the dish being crispy, fatty and fragrant nem lụi. Thus two of the three key facts are recalled, giving a partial recall score of about 0.67.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Bánh xèo Đà Nẵng nổi bật với màu vàng nghệ, rán trên chảo nóng cho vỏ giòn rụm. Nhân bánh gồm thịt h
+Nội dung: Bánh xèo Đà Nẵng nổi bật với màu vàng nghệ, rán trên chảo nóng cho vỏ giòn rụm. Nhân bánh gồm thịt heo, tôm, hành tây, giá đỗ và nấm. Khi ăn, thực khách xé nhỏ, cuốn cùng rau sống và bánh tráng, chấm với nước sốt đậu phộng béo ngậy. Quán Bà Dưỡng (280/23 Hoàng Diệu) là địa chỉ lâu đời nổi tiếng.
+Tên tài liệu: Bánh Xèo Đà Nẵng là loại bánh nhỏ, giòn rụm, nhân đầy tôm, thịt, giá đỗ và hành lá, ăn kèm rau sống,
+Nội dung: Bánh Xèo Đà Nẵng là loại bánh nhỏ, giòn rụm, nhân đầy tôm, thịt, giá đỗ và hành lá, ăn kèm rau sống, bánh tráng cùng loại nước chấm đặc biệt pha từ gan, lạc và mè. Bánh Xèo Bà Dưỡng (280/23 Hoàng Diệu) và Bánh Xèo Cô Mười (Châu Thị Vĩnh Tế) là những địa chỉ trứ danh, giá từ 000 – 000 VND mỗi chiếc.
+Tên tài liệu: Bánh xèo, nem lụi và bánh bột lọc Một trải nghiệm đặc trưng Đà Nẵng là bánh xèo và nem lụi, ăn kèm n
+Nội dung: Bánh xèo, nem lụi và bánh bột lọc Một trải nghiệm đặc trưng Đà Nẵng là bánh xèo và nem lụi, ăn kèm nước chấm đậm đà từ gan, lạc và gia vị. Bánh xèo Bà Dưỡng là địa chỉ nổi tiếng với không gian giản dị, dịch vụ nhanh và hương vị truyền thống. Ngoài ra, các loại bánh Huế như bánh bèo, bánh nậm, bánh bột lọc cũng rất được ưa chuộng, trong đó Bánh bèo Bà Bé là nơi nổi tiếng để thử nhiều loại bánh với giá bình dân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pizza 4P’s ở Đà Nẵng có món đặc trưng nào được khách ưa thích?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pizza 4P’s nổi bật với pizza nửa–nửa như Burrata Parma Ham Margherita và Bò tỏi xì dầu, cùng mì cua sốt kem cà chua.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Hiện tại không có thông tin về món đặc trưng được khách ưa thích tại Pizza 4P’s.</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>The provided context does not mention any specific signature dish at Pizza 4P’s, so the answer correctly states that there is no information available. This is fully faithful to the given text.</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by stating that there is currently no information about a signature dish liked by customers at Pizza 4P’s in Da Nẵng. While it does not provide a specific dish, it is a relevant response to the query.</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>The context mentions Pizza 4P’s but does not provide any specific dish or customer preference information. Therefore it does not directly support the answer, though it does not contradict it. The precision is low.</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>The context only mentions the location of Pizza 4P’s in Hoàng Văn Thụ and that it is popular among young people, but it does not provide any of the specific dishes (half‑and‑half pizzas like Burrata Parma Ham Margherita and Beef garlic soy sauce, or crab noodle with tomato cream sauce) that are highlighted in the ground truth. Therefore, the context covers almost none of the key facts needed.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Món chay và thực đơn quốc tế Ẩm thực chay ở Đà Nẵng cũng rất đa dạng. Roots nổi bật với mô hình farm
+Nội dung: Món chay và thực đơn quốc tế Ẩm thực chay ở Đà Nẵng cũng rất đa dạng. Roots nổi bật với mô hình farm-to-table bền vững, phục vụ salad, burger, toast và món chay sáng tạo. Kurumi lại nổi tiếng với các món tráng miệng chay như bánh Snickers. Chay Corner mang đến không gian gia đình thân thiện, phục vụ bánh bao, há cảo chay cùng nhiều món Việt. Ngoài ra, ẩm thực quốc tế cũng rất sôi động: C. Tao Chinese Restaurant phục vụ dimsum chuẩn vị, Bravo Pizzeria gây ấn tượng với pizza lò củi, và Pizza 4P’s ở Hoàng Văn Thụ luôn là điểm đến quen thuộc của giới trẻ. Với thịt nướng Hàn Quốc, có thể ghé Golden Meat House, còn nếu muốn không gian thư giãn, Sơn Trà Retreat Garden Lounge là nơi kết hợp món Việt và món Âu.
+Tên tài liệu: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún 
+Nội dung: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún chả cá, bánh tráng cuốn thịt heo, hải sản tươi sống, chè xoa xoa hạt lựu… Mỗi món ăn là một nét văn hóa đặc trưng của vùng đất miền Trung nắng gió.
+Tên tài liệu: BBQ Việt Nam ở Đà Nẵng đặc biệt nổi tiếng, nhất là ở Quán Huế Ngon trên đường Trần Quốc Toản. Thực k
+Nội dung: BBQ Việt Nam ở Đà Nẵng đặc biệt nổi tiếng, nhất là ở Quán Huế Ngon trên đường Trần Quốc Toản. Thực khách có thể chọn nhiều nguyên liệu được ướp sẵn như mực, bạch tuộc, ếch, tôm, thịt heo, thịt bò, rồi nướng trực tiếp trên bếp than. Không khí náo nhiệt và hương thơm nồng nàn khiến trải nghiệm này càng trở nên hấp dẫn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bánh mì Bà Lan ở Đà Nẵng được đánh giá ngon nhờ điểm gì đặc biệt?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bánh mì Bà Lan có vỏ giòn ruột xốp, nhân pate, jambon, chả lụa và sốt mayo, là một trong những bánh mì ngon nhất Việt Nam.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bánh mì Bà Lan được yêu thích vì vỏ bánh giòn tan, bên trong đầy chả bò, chả heo, chả quế và thịt nguội, kết hợp cùng chút ớt, húng ghế, ngò, hành lá và muối tiêu, tạo nên hương vị “bùng nổ” đặc biệt.</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the details given in the context: it mentions the crispy crust, the fillings (chả bò, chả heo, chả quế, thịt nguội), and the added spices (ớt, húng ghế, ngò, hành lá, muối tiêu) that create a "bùng nổ" flavor. All these points are directly supported by the source text, so the answer is fully faithful.</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>The answer directly explains the special qualities that make Bánh mì Bà Lan tasty—its crispy crust, rich fillings, and flavorful spice blend—addressing the question about what makes it special.</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>The provided context contains the exact details mentioned in the answer—vỏ bánh giòn tan, chả bò, chả heo, chả quế, thịt nguội, ớt, húng ghế, ngò, hành lá, muối tiêu, and the "bùng nổ" flavor—making it highly precise and directly supportive of the answer.</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>The context gives a detailed description of Bánh mì Bà Lan in Đà Nẵng, highlighting its crispy crust, fillings (chả bò, chả heo, chả quế, thịt nguội) and seasoning (ớt, húng ghế, ngò, hành lá, muối tiêu) that make it taste exceptional. This directly answers the question about what makes it special in Đà Nẵng. The ground‑truth facts (pate, jambon, chả lụa, mayo) are not mentioned, but they are not required for the specific question. Thus the context covers all key facts needed for the answer, earning a high recall score.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: 3 Bánh Mì Bà Lan Đà Nẵng mon-ngon-da-nang Nguồn ảnh: Foody Bánh mì Đà Nẵng ngon là chuyện không phải
+Nội dung: 3 Bánh Mì Bà Lan Đà Nẵng mon-ngon-da-nang Nguồn ảnh: Foody Bánh mì Đà Nẵng ngon là chuyện không phải bàn cãi. Thế nhưng bạn phải thưởng thức bánh mì của tiệm Bà Lan thì mới gọi là “đúng điệu”. Vỏ bánh mì được nước giòn tan, bên trong là chả bò, chả heo, chả quế và thịt nguội. Thêm chút ớt, húng ghế, ngò, hành lá và muối tiêu vào thì hương vị mới thực sự “bùng nổ”. Quán mở cửa từ 15h30 đến 23h00 mỗi ngày và khá đông khách nên #teamKlook chú ý đến sớm nhé.  Địa Chỉ Bánh Mì Bà Lan Ở Đà Nẵng: 62 Trương Nữ Vương, Hải Châu Một Số Quán Bánh Mì Ngon Ở Đà Nẵng Khác Bạn Nên Ghé Thử: Bánh mì thịt nướng Phước Nguyên: THCS Kim Đồng (14h - 18h), 70 Nguyễn Trãi (18h - 22h) Bánh mì Yến: 485 Hoàng Diệu Bánh mì Ông Tý: 272 Hùng Vương
+Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn tham khảo Mì Quảng: Được biết đến là món ăn nổi tiếng ở Đà Nẵng, với nhiều hương vị khác nhau như: Mì Quảng tôm, gà, chả cua, lươn… ăn kèm với bánh tráng nướng, đậu phộng rang… Để thưởng thức mì Quảng ngon tại Đà Nẵng, các bạn có thể tham khảo một số địa chỉ: Quán mì Quảng Thi (địa chỉ 251 Hoàng Diệu, Quận Hải Châu, Đà Nẵng). Mì được đánh giá rất ngon và đông khách, giá dao động từ 18-30k/ tô lớn với nhiều hương vị như mì gà, mì ếch, mì cá lóc… Quán mì Quảng Bà Mua (Địa chỉ 19 Trần Bình Trong, Quận Hải Châu, Đà Nẵng), giá khoảng 25k/tô. Quán mì Bà Vị (địa chỉ 166 Lê Đình Dương, Quận Hải Châu, Đà Nẵng), giá 25k/tô. Thưởng thức đặc sản Đà Nẵng không thể bỏ qua món bánh tráng cuốn thịt heo ngon nức tiếng. Sự kết hợp độc đáo giữa thịt luộc ăn kèm với các loại rau củ và nước mắm nêm làm nên sức hấp dẫn cho món ăn. Địa chỉ bánh tráng cuốn thịt heo ngon ở Đà Nẵng các bạn có thể tham khảo: Quán bánh tráng thịt heo Mậu (Địa chỉ 35 Đỗ thúc Tịnh, Quận Cẩm Lệ, Đà Nẵng), với 55k/suất no nê. Bánh tráng Quên Nhà (Địa chỉ K72/1C Hàm Nghi, Quận Thanh Khê, Đà Nẵng), giá 35k/suất. Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi
+Tên tài liệu:  Bánh Bèo - Món Ăn Xế Thơm Ngon Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh bèo chén - "báu vật" 
+Nội dung: Bánh Bèo - Món Ăn Xế Thơm Ngon Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh bèo chén - "báu vật" xế chiều của Đà Nẵng! Tưởng tượng xem, những chén bánh trắng muốt, nóng hổi, được điểm xuyết bằng thịt tôm, hành phi thơm lừng và tóp mỡ giòn rụm... Chỉ cần nghĩ thôi đã thấy thèm rồi! Đảm bảo đây sẽ là món ăn "gây thương nhớ" cho bạn trong chuyến du lịch Đà Nẵng sắp tới. Các Địa Chỉ Ăn Bánh Bèo Ngon Ở Đà Nẵng: Bánh bèo Nhung: 322 Nguyễn Hoàng Quán bánh bèo Đà Nẵng: K54/45 Nguyễn Công Trứ Bánh bèo đêm: 14 Cồn Dầu 6 Bánh bèo nóng: 197 Núi Thành Bánh bèo Bà Bé: 100 Hoàng Văn Thụ, Hải Châu, TP. Đà Nẵng Quán Tâm: 291 Nguyễn Chí Thanh, Phước Ninh, Hải Châu, TP. Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Các quán cà phê trà chiều ở Đà Nẵng mang lại trải nghiệm gì đặc biệt cho du khách?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Du khách có thể ngắm mưa, thưởng thức cà phê, bánh ngọt, và buổi tối nghe nhạc sống cùng cocktail hoặc bia.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Các quán cà phê trà chiều ở Đà Nẵng như Slow Breezee, 7AM Coffee, Meet + Coffee &amp; Tea, Nam House và Kaia Garden đều tạo ra một không gian xanh mát, yên tĩnh và đầy thẩm mỹ. Bạn có thể ngồi thưởng thức các loại trà, cà phê pha chế tỉ mỉ, trà sữa, trà trái cây hoặc những đồ uống dân dã như nước sấu, mơ ngâm, dâu tằm trong môi trường được trang trí bằng cây xanh, gỗ và các góc chụp ảnh đẹp. Những không gian này thích hợp để đọc sách, làm việc, thư giãn hoặc chụp ảnh “check‑in”, mang lại cảm giác thư thái, gần gũi với thiên nhiên và trải nghiệm địa phương độc đáo.</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the descriptions in the context: each café is portrayed as a green, calm, aesthetically pleasing space suitable for reading, working, relaxing, and photo‑check‑in, with a variety of drinks including specialty coffee, tea, and local beverages. The answer does not introduce any unsupported claims and fully aligns with the provided information.</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by listing specific Da Nang afternoon tea cafés and describing the unique experiences they offer—green, quiet, aesthetic spaces, a variety of drinks, opportunities for reading, working, relaxing, and photo‑taking, all of which are relevant to tourists. The content is focused and provides concrete details, making it highly relevant.</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>The context contains a detailed document that lists the same coffee shops mentioned in the answer and describes their green, tranquil atmospheres and beverage offerings, directly supporting the answer. The other documents are irrelevant but do not detract from the precision of the relevant portion.</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>The context mentions coffee and some beverage options, but it does not include the key facts from the ground truth such as watching rain, enjoying sweet cakes, live music, cocktails, or beer. Therefore only a small portion of the required information is recalled.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Chợ đêm Sơn Trà Địa chỉ: Mai Hắc Đế, An Hải Trung, Sơn Trà, Đà Nẵng. Đây là một trong những khu chợ
+Nội dung: Chợ đêm Sơn Trà Địa chỉ: Mai Hắc Đế, An Hải Trung, Sơn Trà, Đà Nẵng. Đây là một trong những khu chợ đêm sôi động nhất của thành phố. Du khách có thể dạo bộ tham quan, hòa mình vào không khí trẻ trung, vui nhộn, thưởng thức những món ăn đặc sản Đà Thành hoặc mua sắm các món đồ lưu niệm nhỏ xinh với giá cả phải chăng.
+Tên tài liệu: Nightlife ở Đà Nẵng Đời sống về đêm ở Đà Nẵng đa dạng và sôi động, từ những rooftop bar sang trọng, 
+Nội dung: Nightlife ở Đà Nẵng Đời sống về đêm ở Đà Nẵng đa dạng và sôi động, từ những rooftop bar sang trọng, lounge tinh tế, quán bar thân thiện của cộng đồng expat cho đến các nightclub sôi động. Khách du lịch có thể hòa mình cùng người địa phương để thưởng thức nhạc EDM, house, trance, funk, hay những bản rock cổ điển được các ban nhạc sống trình diễn. Đồ uống ở Đà Nẵng nhìn chung khá rẻ so với nhiều thành phố khác, từ cocktail, bia địa phương cho đến rượu whisky lâu năm hay vang thượng hạng. Bạn có thể chọn thưởng thức thể thao, nhâm nhi đồ uống nhẹ nhàng hay “quẩy” tới sáng – tất cả đều có trong danh sách các điểm vui chơi đêm nổi bật sau đây.
+Tên tài liệu: Lên đồ check-in loạt quán cà phê xanh mát tại Đà Nẵng Không chỉ nổi tiếng với biển xanh, cát trắng, 
+Nội dung: Lên đồ check-in loạt quán cà phê xanh mát tại Đà Nẵng Không chỉ nổi tiếng với biển xanh, cát trắng, nắng vàng, Đà Nẵng còn hấp dẫn du khách bởi những quán cà phê mang không gian xanh mát, thư giãn và phù hợp để check-in. Dưới đây là 5 điểm đến gợi ý.  Slow Breezee Địa chỉ: Đường Ông Ích Khiêm Quán mang phong cách tối giản, sử dụng tông màu gỗ và cây xanh tạo nên không gian yên tĩnh, thanh lịch. Đây là nơi lý tưởng để đọc sách, làm việc hoặc thư giãn. Đồ uống đặc trưng gồm cà phê pha chế tỉ mỉ, trà hoa và nước ép trái cây.  7AM Coffee Địa chỉ: Đường Nguyễn Thiện Thuật Không gian mở, tràn ngập ánh sáng tự nhiên, thiết kế hiện đại và gần gũi. Quán nổi bật với espresso, cappuccino cùng các món ăn sáng như bánh mì, salad, thích hợp cho du khách ghé buổi sáng.  Meet + Coffee &amp; Tea Địa chỉ: Đường Trần Quý Cáp Quán kết hợp nét hiện đại và cổ điển, điểm nhấn là không gian xanh tươi mát cùng nhiều góc chụp ảnh đẹp. Menu đa dạng từ cà phê đậm đà đến trà sữa, trà trái cây, được pha chế tỉ mỉ.  Nam House Địa chỉ: Đường Lê Hồng Phong Nam House nằm trong một căn nhà xưa, trang trí nội thất cổ điển đậm văn hóa Việt Nam. Đây là nơi gợi nhớ không khí hoài niệm với cà phê phin truyền thống và các loại đồ uống dân dã như nước sấu, mơ ngâm, dâu tằm.  Kaia Garden Địa chỉ: Đường Lý Tự Trọng Thiết kế như một khu vườn xanh mát, tràn ngập cây cối và hoa lá, mang đến cảm giác gần gũi với thiên nhiên</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Quán Bodhicitta ở Đà Nẵng phục vụ món ăn theo phong cách nào?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bodhicitta phục vụ ẩm thực Việt Nam chay và thuần chay, thay đổi món theo ngày.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>The answer correctly states that it lacks information about the requested topic, which is consistent with the provided context that does not mention Bodhicitta or its food style. Therefore, it is fully faithful to the context.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>The answer does not address the question about the food style served by Bodhicitta restaurant; it merely states lack of information, making it irrelevant.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>The provided context discusses general cuisine in Da Nang but contains no information about Bodhicitta restaurant or its food style. Therefore it does not support the answer, which correctly states lack of information.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>The context contains only general descriptions of Da Nang cuisine and does not mention Bodhicitta or its vegetarian menu. Therefore it fails to recall the key fact that Bodhicitta serves Vietnamese vegetarian and vegan food.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún 
+Nội dung: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún chả cá, bánh tráng cuốn thịt heo, hải sản tươi sống, chè xoa xoa hạt lựu… Mỗi món ăn là một nét văn hóa đặc trưng của vùng đất miền Trung nắng gió.
+Tên tài liệu: Ẩm thực đa dạng tại Đà Nẵng Đà Nẵng không chỉ nổi bật bởi cảnh quan biển và núi, mà còn là một “thiê
+Nội dung: Ẩm thực đa dạng tại Đà Nẵng Đà Nẵng không chỉ nổi bật bởi cảnh quan biển và núi, mà còn là một “thiên đường ẩm thực” được chính Gordon Ramsay ca ngợi. Thành phố mang đến một bức tranh phong phú từ hải sản, BBQ, mì Quảng, bánh xèo cho đến những món chay hiện đại. Người dân và du khách, bất kể tầng lớp, đều có thể cùng ngồi trên ghế nhựa nhỏ bên vỉa hè, thưởng thức những tô mì, bún hay đĩa bánh dân dã nhưng giàu hương vị.
+Tên tài liệu:  Ăn uống như thế nào ở đỉnh Bàn Cờ? Dịch vụ ăn uống ở bán đảo Sơn Trà khá ngon và giá rẻ, các bạn có
+Nội dung: Ăn uống như thế nào ở đỉnh Bàn Cờ? Dịch vụ ăn uống ở bán đảo Sơn Trà khá ngon và giá rẻ, các bạn có thể thưởng thức những món ăn ngon và nổi tiếng như: những món nướng than, xào giòn, hay rang muối ngon của các loại hải sản  tươi sống như cá chình, cá mú, cá lăng, cá chim, cá đuối, tôm hùm, tôm càng, tôm tích, tôm sú, bạch tuộc, ba ba, ốc đỏ, ốc hương, vòi voi, mực lá, cua gạch, ghẹ và các loại hải sản có theo mùa. Ở bán đảo Sơn Trà, rau rừng thường mọc hoang quanh triền núi, khá phong phú với hơn chục loại như rau dớn, rau bứa, rau sưng, rau cách, mã đề, rau sâm, me rừng…Các món rau rừng còn được dùng như những gia vị không thể thiếu cho các món hấp, canh chua…Hay thưởng thức rượu dừa đặc sản nơi đây.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Nhà hàng Ngũ Phố ở Đà Nẵng nổi tiếng với món gì?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nhà hàng Ngũ Phố nổi tiếng với món chả cá Lã Vọng, cá tẩm nghệ nướng ăn kèm thì là, bún và mắm tôm.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Quán Ngũ Phố nổi tiếng với món chả cá Lã Vọng.</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>The answer correctly states that Ngũ Phố is famous for chả cá Lã Vọng, which is explicitly mentioned in the provided context. No information is omitted or contradicted, making the answer fully faithful.</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>The answer directly states the dish that the Ngũ Phố restaurant is famous for, matching the question’s request.</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>The first document explicitly states that Ngũ Phố is famous for chả cá Lã Vọng, directly supporting the answer. The other documents are unrelated but do not detract from the relevance of the key information.</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>The context contains all key facts from the ground truth: it mentions Ngũ Phố, the signature dish chả cá Lã Vọng, the turmeric‑marinated fish, the accompaniment of bún, and the use of mắm tôm. No essential detail is missing.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Ngũ Phố Quán này nổi tiếng với món chả cá Lã Vọng – đặc sản Hà Nội với cá tẩm nghệ nướng ăn kèm thì
+Nội dung: Ngũ Phố Quán này nổi tiếng với món chả cá Lã Vọng – đặc sản Hà Nội với cá tẩm nghệ nướng ăn kèm thì là. Món được chế biến ngay tại bàn, ăn kèm bún, lạc rang, rau mùi và nước chấm pha từ mắm tôm, chanh, tỏi, ớt. Đây là món ít gặp ngoài Hà Nội, nhưng ở Ngũ Phố, bạn có thể thưởng thức đúng chuẩn. Địa chỉ: 219 Trần Phú, Phước Ninh, Hải Châu, Đà Nẵng. Giờ mở cửa: 10:30–14:30, 16:30–21:30. Gợi ý món: Chả cá.
+Tên tài liệu: 9/ Chợ đêm Sơn Trà – địa chỉ ăn đêm nổi tiếng Đà Nẵng Chợ đêm Sơn Trà dù không quy mô mà sầm uất như
+Nội dung: 9/ Chợ đêm Sơn Trà – địa chỉ ăn đêm nổi tiếng Đà Nẵng Chợ đêm Sơn Trà dù không quy mô mà sầm uất như chợ đêm Helio nhưng Cuồng nhận thấy gian hàng ẩm thực ở chợ đêm Sơn Trà Đà Nẵng cũng khá phong phú. Hàng trăm món ăn vặt, từ những món đậm đà hương vị địa phương đến món Thái, món Hàn, Nhật rất hấp dẫn. Còn gì tuyệt bằng khi dạo quanh chợ, mua vài món đồ rồi ghé vào thưởng thức vài món ngon, giá thành rẻ thôi nên yên tâm nhé. Mà được cái mở cửa đến tận 12h đêm, còn chợ đêm Helio thì đến 22h00 các hàng quán đã bắt đầu cất dọn đồ rồi. Địa chỉ: đoạn đường Lý Nam Đế – Mai Hắc Đế (dưới chân cầu rồng) Giờ mở cửa: Từ 18h – 24h
+Tên tài liệu: 1 Thìa Gỗ Thìa Gỗ là một trong những nhà hàng Đà Nẵng yêu thích của du khách nước ngoài, nổi bật với
+Nội dung: 1 Thìa Gỗ Thìa Gỗ là một trong những nhà hàng Đà Nẵng yêu thích của du khách nước ngoài, nổi bật với ẩm thực Việt mang phong cách gia đình nhưng tinh tế hơn bình thường. Họ có nhiều món truyền thống, nhưng nổi tiếng nhất là bánh xèo và chả giò. Chả giò ở đây giòn rụm, nhẹ, gần như tan ngay khi cắn, có thể chọn nhân bò, hải sản hoặc chay. Bánh xèo to như ở Sài Gòn, vỏ giòn và nhẹ nhưng hơi nhiều dầu. Ngoài ra còn có cơm chiên, rau muống xào, bún bò Nam Bộ. Đây là quán đạt giải Traveler’s Choice với hơn 700 đánh giá 5 sao trên TripAdvisor. Địa chỉ: 53 Phan Thúc Duyện, Bắc Mỹ Phú, Ngũ Hành Sơn, Đà Nẵng. Giờ mở cửa: 10:00–22:00. Gợi ý món: Chả giò, bánh xèo, cơm chiên, bún bò Nam Bộ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Tại sao Tượng Cá Chép Hóa Rồng ở Đà Nẵng thu hút khách du lịch?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vì là biểu tượng mới của Đà Nẵng, thể hiện khát vọng thịnh vượng, đẹp nhất khi ngắm ban đêm bên sông Hàn.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tượng Cá Chép Hóa Rồng thu hút khách du lịch vì nó là biểu tượng mới của Đà Nẵng, lấy cảm hứng từ tượng Merlion của Singapore và nằm ngay bên bờ đông sông Hàn, tạo nên một khung cảnh lý tưởng để du khách tham quan và chụp hình. Hình dáng đầu rồng, thân cá chép không chỉ độc đáo về mặt kiến trúc mà còn mang ý nghĩa khát khao một cuộc sống thịnh vượng, sung túc. Khi ánh đèn rực rỡ vào ban đêm, tượng tỏa sáng rực màu sắc, khiến khung cảnh trở nên huyền bí và thu hút hơn nữa. Ngoài ra, vị trí trung tâm, gần cầu Tình Yêu, giúp du khách dễ dàng ghé thăm và khám phá các địa điểm xung quanh.</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects all key facts from the context: it cites the Merlion inspiration, the location on the east bank of the Han River, the dragon‑fish design, the symbolism of prosperity, the nighttime illumination, and the proximity to the Love Bridge. No fabricated or contradictory information is present.</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by listing multiple reasons why the Dragon Fish Statue attracts tourists, including its symbolic significance, architectural uniqueness, lighting effects, and convenient location. It stays focused on the topic and provides a comprehensive explanation.</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>The provided context contains all key points mentioned in the answer: inspiration from Singapore’s Merlion, status as a new symbol of Da Nang, location on the east bank of the Han River, attraction for tourists, unique dragon‑fish design, symbolic meaning of prosperity, illumination at night, and proximity to Love Bridge. The information is concise and directly supports the answer, with no irrelevant or noisy content. Hence a high precision score of 0.95 is appropriate.</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>The context includes all the key facts from the ground truth: it identifies the statue as a new symbol of Da Nang, notes its representation of a desire for prosperity, and states that it is most beautiful to view at night by the Han River.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Tượng cá chép hóa rồng Địa chỉ: Đường Trần Hưng Đạo, An Hải Tây, Sơn Trà, Đà Nẵng. Được lấy cảm hứn
+Nội dung: Tượng cá chép hóa rồng Địa chỉ: Đường Trần Hưng Đạo, An Hải Tây, Sơn Trà, Đà Nẵng. Được lấy cảm hứng từ tượng Sư tử biển Merlion ở Singapore, tượng cá chép hóa rồng là biểu tượng mới của thành phố. Nằm bên bờ đông sông Hàn, nơi đây thu hút đông đảo du khách đến tham quan và chụp hình.
+Tên tài liệu: Tượng cá chép hóa rồng Đà Nẵng Ngoài việc nó là 1 địa điểm du lịch Đà Nẵng chụp ảnh bao ảo ra thì tư
+Nội dung: Tượng cá chép hóa rồng Đà Nẵng Ngoài việc nó là 1 địa điểm du lịch Đà Nẵng chụp ảnh bao ảo ra thì tượng cá chép hoá rồng Đà Nẵng còn mang nhiều ý nghĩa lắm. Bên cạnh ý nghĩa về mặt kiến trúc, tượng Cá chép hóa rồng còn là biểu tượng của sự khát khao về một cuộc sống thịnh vượng và phồn vinh. Ghé thăm biểu tượng mới của du lịch Đà Nẵng này, du khách đi khám phá Đà Nẵng còn có cơ hội khám phá những địa điểm thú vị xung quanh đó. Tượng có hình dáng đầu rồng, thân cá chép truyền tải mong muốn như “cá chép hóa rồng” càng thịnh vượng, càng sung túc. Địa điểm du lịch Đà Nẵng này nằm ngay trung tâm Đà Nẵng luôn nha các bạn và thời điểm đẹp nhất để ngắm tượng Cá chép hóa rồng là vào ban đêm. Ban đầu cuồng tưởng rằng địa điểm du lịch Đà Nẵng chỉ đẹp lúc còn trời nắng thôi nhưng mà đúng thật là khi ánh đèn sáng rực đủ màu sắc sẽ khiến khung cảnh càng huyền bí hơn.  Địa chỉ: ngay cầu tình yêu Đà Nẵng
+Tên tài liệu:  Cầu Rồng Địa chỉ: P. An Hải Tây, Q. Sơn Trà, TP. Đà Nẵng. Đưa vào hoạt động năm 2013, điểm tham qua
+Nội dung: Cầu Rồng Địa chỉ: P. An Hải Tây, Q. Sơn Trà, TP. Đà Nẵng. Đưa vào hoạt động năm 2013, điểm tham quan Đà Nẵng cầu Rồng là một trong những địa điểm du lịch mới ở Đà Nẵng hấp dẫn du khách. Với thiết kế độc đáo mang hình dáng con rồng bắc qua sông Hàn thơ mộng, cầu Rồng là cây cầu thứ 7 tạo nên biểu tượng “thành phố của những cây cầu”. Đến đây vào các ngày cuối tuần, bạn còn xem được cảnh rồng phun lửa, phun nước sống động.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Vọng Hải Đài ở Ngũ Hành Sơn có điểm gì đặc biệt về tầm nhìn?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Từ Vọng Hải Đài, du khách có thể quan sát toàn cảnh biển, sông Cổ Cò và cả Cù Lao Chàm xa xa.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Vọng Hải Đài nằm trên đỉnh Ngũ Hành Sơn, nhờ vị trí cao nên du khách có thể quan sát bao quát một vùng trời biển bao la, nhìn thấy Cù Lao Chàm về phía Đông Nam, cùng với con sông Cổ Cò uốn quanh, sông Hàn chảy vào vịnh Đà Nẵng, và các danh lam thắng cảnh lân cận như bãi biển Mỹ Khê, biển Mỹ An. Đây là điểm đặc biệt về tầm nhìn của Vọng Hải Đài.</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the context: Vọng Hải Đài is located on the peak of Ngũ Hành Sơn, and its high position allows visitors to view a wide expanse of sea, see Cù Lao Chàm to the southeast, the winding Cổ Cò River, the Hàn River flowing into Da Nang Bay, and nearby attractions such as Mỹ Khê and Mỹ An beaches. No details are omitted or fabricated, so the answer is highly faithful.</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>The answer directly describes the special panoramic view from Vọng Hải Đài, mentioning its high position and the specific sights visible, which directly addresses the question about what makes its view special.</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>The third document about Vọng Hải Đài contains the exact details mentioned in the answer, confirming its location, panoramic view, and specific sights visible. The other documents are unrelated but do not contradict the answer. Thus the context is highly relevant and concise for supporting the answer.</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>The context contains the key facts from the ground truth: it states that from Vọng Hải Đài visitors can see the sea, the Cổ Cò river, and Cù Lao Chàm in the distance. All three elements are explicitly mentioned, so the recall is very high.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Ngoại thành Đà Nẵng có nhiều địa điểm đẹp đáng để khám phá như bán đảo Sơn Trà, núi Ngũ Hành Sơn, rạ
+Nội dung: Ngoại thành Đà Nẵng có nhiều địa điểm đẹp đáng để khám phá như bán đảo Sơn Trà, núi Ngũ Hành Sơn, rạn Nam Ô và đèo Hải Vân. Đây đều là những điểm đến gắn liền với thiên nhiên hùng vĩ, hoang sơ và nhiều trải nghiệm thú vị.
+Tên tài liệu: 1 Vọng Giang Đài Vọng Giang Đài hay gọi là đài ngắm sông nằm phía sườn Tây Nam của ngọn Thủy Sơn, là
+Nội dung: 1 Vọng Giang Đài Vọng Giang Đài hay gọi là đài ngắm sông nằm phía sườn Tây Nam của ngọn Thủy Sơn, là một điểm cao nhìn về sông Cẩm lệ, Cổ Cò và có thể quan sát toàn cảnh các núi trong quần thể Ngũ Hành Sơn, đường dẫn lên Vọng Giang Đài nằm đối diện khu nhà thờ Tổ của chùa Tam Thai, lối lên hẹp với những bậc đá tự nhiên hơi quanh co. Đài ngắm sông có chu vi rộng khoảng 07m, chính giữa là một tấm bia cổ bằng đá Trà Kiệu cao khoảng 02m, rộng 01m và được dựng lên một đế đá lớn, trên bia có khắc 03 chữ Hán đọc là Vọng Giang Đài và hàng chữ nhỏ nằm bên cạnh ghi ngày tháng dựng bia “Minh Mạng thập bát niên thất nguyệt cát nhật” (tức Minh Mạng ngày 18 tháng 7 ngày rằm năm 1837).  Đứng tại Vọng Giang Đài du khách sẽ được thỏa sức ngắm nhìn bao quát cảnh vật bên dưới, Làng đá mỹ nghệ nằm quanh chân các ngọn núi, xa xa là dòng Cổ Cò uốn khúc quanh co cùng đồng ruộng, bãi bồi tự nhiên đậm nét vùng quê, xa hơn nữa là dãy Trường Sơn điệp trùng hùng vĩ… tạo nên một bức tranh thiên nhiên xinh đẹp. Hiện nay, đài ngắm sông này đã được xây dựng nhà tứ giác vừa để che mưa nắng cho du khách đứng ngắm cảnh vừa để bảo vệ tấm bia.
+Tên tài liệu:  Vọng Hải Đài Vọng Hải Đài toạ lạc tại đỉnh núi Ngũ Hành Sơn, Đà nẵng là nơi xưa kia vua Minh Mạng đ
+Nội dung: Vọng Hải Đài Vọng Hải Đài toạ lạc tại đỉnh núi Ngũ Hành Sơn, Đà nẵng là nơi xưa kia vua Minh Mạng đến chùa Non Nước hành hương đã sử dụng nơi đây để nghỉ ngơi và ngắm nhìn khung cảnh tươi đẹp hữu tình. Với cảnh đẹp này, nhà vua đã ngự phong là Vọng Giang Đài và cho xây dựng bia ghi danh. Đứng tại nơi đây, du khách có thể quan sát bao quát cả một vùng trời biển bao la, bát ngát và nhìn thấy được Cù Lao Chàm về phía Đông Nam. Trên đỉnh Vọng hải Đài, nhìn xa xa là con sông cổ Cò ngày xưa uốn quanh chảy về phía Bắc và hoà vào dòng sông Hàn xinh đẹp chảy về vịnh Đà Nẵng và ra biển ở Cảng Tiên Sa. Trên đường đi con sông đã giúp cho người dân xung quanh một nguồn nước dồi dào để phục vụ đời sống, trồng cây, nông nghiệp, nuôi trồng thuỷ sản…Ngày nay khi lên núi Ngũ Hành Sơn, dừng chân tại Vọng Hải Đài, ngắm nhìn trời biển bao la, nhiều danh lam thắng cảnh đã được ghi vào tạp chí du lịch danh tiếng như bãi biển Mỹ Khê, biển Mỹ An,… hoà quyện vào không gian non nước cùng công viên lịch sử Ngũ Hành Sơn. Khi du lịch Ngũ Hành Sơn, trên Đài Vọng Hải, bạn sẽ cảm nhận được địa linh, khu vực tôn thờ các vị thần tiên, phật cứu nhân độ thế, với khung cảnh thanh tịnh, du khách sẽ có thể tránh xa được cuộc sống đầy bon chen và bộn bề lo âu, bạn hãy thử đi một lần sẽ thấy rõ hơn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Làm thế nào để di chuyển giữa các địa điểm du lịch trong trung tâm Đà Nẵng dễ dàng nhất?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Có thể di chuyển bằng xe máy thuê, Grab hoặc taxi vì các điểm du lịch nằm gần nhau trong bán kính 5–7 km.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Để di chuyển nhanh chóng giữa các điểm du lịch nằm gần nhau ở trung tâm Đà Nẵng, cách tiện lợi nhất là thuê xe máy. Xe máy là phương tiện phổ biến nhất, giúp bạn tiết kiệm chi phí và tự do lựa chọn thời gian, lộ trình. Ở khu trung tâm, bạn có thể thuê xe số chỉ từ 1.000 đ/ngày hoặc xe tay ga khoảng 140.000 đ/ngày, rất phù hợp để khám phá mọi ngóc ngách của thành phố. Nếu bạn ưu tiên sự thoải mái và không muốn tự lái, taxi cũng là lựa chọn nhanh chóng, nhưng chi phí sẽ cao hơn. Xe buýt là lựa chọn giá rẻ, nhưng cần chờ khoảng 15‑20 phút mỗi chuyến, nên không thực sự “dễ dàng” như xe máy. Vì vậy, thuê xe máy là cách di chuyển dễ dàng và linh hoạt nhất trong trung tâm Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the provided documents: it cites motorbike rental as the most flexible and cost‑effective option for moving between nearby tourist spots, mentions the rental prices (1,000 đ for a manual bike and 140,000 đ for a scooter), notes that taxis are quicker but more expensive, and states that buses are cheap but involve longer waiting times. All these points are directly supported by the context. The only minor deviation is the phrasing that motorbike is the "most convenient" option, whereas the context describes it as popular and flexible but does not explicitly rank it as the most convenient. This slight wording difference does not materially affect faithfulness, so the answer is considered highly faithful.</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by listing practical transportation options (motorbike rental, taxi, bus) and explaining why motorbike is the most convenient for moving between tourist spots in central Da Nang. It stays focused on the topic and provides useful details, making it highly relevant.</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>The context documents provide detailed information about transportation options in Da Nang, including motorbike rental prices, taxi convenience and cost, and bus wait times. This directly supports the answer’s recommendation that renting a motorbike is the most convenient and flexible way to move between tourist spots in central Da Nang, while also acknowledging taxis and buses as alternatives. The context is concise, relevant, and aligns well with the answer, warranting a high precision score.</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>The context covers the key facts that tourist spots are close (within a few kilometers) and that you can use motorbike rentals and taxis for travel. It does not mention Grab, which is part of the ground truth, so the recall is high but not complete.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Di chuyển ở Đà Nẵng bằng phương tiện gì? Sau khi đã đến Đà Nẵng, việc đi lại trong thành phố rất dễ
+Nội dung: Di chuyển ở Đà Nẵng bằng phương tiện gì? Sau khi đã đến Đà Nẵng, việc đi lại trong thành phố rất dễ dàng vì các điểm du lịch nằm gần nhau. Một số phương tiện phổ biến: Taxi: tiện lợi, nhanh chóng nhưng chi phí khá cao. Phù hợp khi đi gia đình hoặc nhóm đông. Xe máy: phổ biến nhất với giới trẻ, vừa tiết kiệm chi phí vừa chủ động thời gian, địa điểm. Xích lô: ít người chọn nhưng là trải nghiệm hoài cổ, thong dong ngắm cảnh phố phường. Thuê ô tô: phù hợp nhóm hoặc gia đình đông người, nhưng chi phí cao và cần người rành đường. Xe buýt: nhiều tuyến, giá rẻ, hoạt động cả ngày. Tuy nhiên, mất thời gian chờ (15 – 20 phút/chuyến).
+Tên tài liệu: Di chuyển tại Đà Nẵng : Nói về phương tiện di chuyển tại Đà Nẵng thì đối với các bạn đi tour du lịch
+Nội dung: Di chuyển tại Đà Nẵng : Nói về phương tiện di chuyển tại Đà Nẵng thì đối với các bạn đi tour du lịch Đà Nẵng trọn gói như tour du lịch Đà Nẵng 3 ngày 2 đêm hay du lịch Đà Nẵng 4 ngày 3 đêm thì đã có sẵn ô tô. Riêng các bạn đi du lịch Đà Nẵng tự túc sẽ có nhiều lựa chọn.  Với các bạn trẻ cùng nhau đi du lịch Đà Nẵng tự túc có thể chọn phương án di chuyển bằng xe máy. Tại Đà Nẵng có rất nhiều điểm cho thuê xe máy đặt biệt là khu vực trung tâm hoặc bạn có thể nhờ khách sạn đặt dùm. Giá thuê xe máy tại Đà Nẵng chỉ từ 1000đ/ngày đối với xe số và 140.000đ/ngày đối với xe tay ga. Vậy là các bạn có thể vi vu khám phá mọi ngóc ngách của Đà thành. Riêng các bạn đi du lịch Đà Nẵng tự túc theo nhóm gia đình thì nên chọn phương án thuê ô tô hay đặt tour Đà Nẵng 1 ngày. Giá dịch vụ du lịch tại Đà Nẵng đều được niêm yết và công bố rõ ràng nên các bạn hoàn toàn có thể yên tâm khi sử dụng.
+Tên tài liệu: Di chuyển tại Đà Nẵng:  CHI PHÍ ĐI LẠI TẠI ĐÀ NẴNG: thuê xe máy tham quan tại Đà NẴng 3 ngày 80.000đ
+Nội dung: Di chuyển tại Đà Nẵng:  CHI PHÍ ĐI LẠI TẠI ĐÀ NẴNG: thuê xe máy tham quan tại Đà NẴng 3 ngày 80.000đ/ngày + 200.000đ xăng. Tổng chi 440.000đ/2 người. Tính ra mỗi người chỉ với 2000đ là có thể khám phá hết các ngóc ngách của thành phố Đà Nẵng rồi Đường ở Đà Nẵng rộng, đẹp, thoáng dễ đi. Chỉ có đường lên Sơn Trà, hoặc đường đi đèo Hải Vân có đoạn dốc, bạn nên thuê xe số để đảm bảo an toàn trong chuyến du lịch Đà Nẵng 3 ngày 2 đêm này nhé. Hoặc thuê một chiếc xe tay ga máy mới, thật khỏe. Thuê xe máy tại Đà NẴng bạn có thể tự do đi đến bất cứ nơi nào mình thích. Những thời điểm mình thích nhất ở Đà Nẵng như: ngắm bình minh trên biển, hay hoàng hôn trên đỉnh đèo Hải Vân, ngắm thành phố về ban đêm trên đỉnh Sơn Trà… không thể thuê ô tô riêng để đi được. Có nhiều điểm tham qua tại Đà Nẵng khó tìm, ô tô không thể đưa bạn đi được. Ví dụ đỉnh Bàn Cờ ở núi Sơn Trà, nếu thuê ô tô họ sẽ không đưa bạn đi vì đường dốc, còn đi taxi sẽ tốn kém. Hay lên đỉnh đèo Hải Vân, xe ô tô sẽ không đưa bạn đi lên được góc cao hơn cả Hải Vân quan, những chỗ ngắm cảnh đẹp nhất của Đà Nẵng xe ô tô sẽ không lên được… Tốt nhất bạn nên nói với chủ cho thuê xe máy tại Đà Nẵng là sẽ đi những nơi như thế, họ sẽ tư vấn và lựa chọn xe phù hợp cho bạn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Từ trung tâm Đà Nẵng đến bán đảo Sơn Trà có thể đi bằng phương tiện nào thuận tiện nhất?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Du khách có thể đi xe máy hoặc taxi, mất khoảng 20–30 phút để đến bán đảo Sơn Trà.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>The answer states that it cannot provide an answer due to lack of information, yet the context contains detailed transportation options for Da Nang, including motorbike rental, car hire, bus, Grab, taxi, and train routes. The answer does not reflect any of this information and therefore is not faithful to the provided context.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>The answer admits it cannot provide any information, offering no guidance on transportation options. It does not address the question at all, making it completely irrelevant.</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>The provided context discusses general transportation options in Da Nang but does not mention the Son Tra Peninsula or give any specific guidance for traveling from the city center to that location. Therefore it does not support the answer, which simply states a lack of information.</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>The context mentions that visitors can use motorbike or taxi to travel within Da Nang, but it does not provide the specific travel time of 20–30 minutes to Sơn Trà. Therefore, it partially recalls the ground truth facts.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Phương tiện di chuyển tại Đà Nẵng Khi đến Đà Nẵng, bạn có thể thuê xe máy (100.000 – 150.000 VNĐ/ng
+Nội dung: Phương tiện di chuyển tại Đà Nẵng Khi đến Đà Nẵng, bạn có thể thuê xe máy (100.000 – 150.000 VNĐ/ngày) để chủ động vi vu; thuê ô tô tự lái (khoảng 800.000 VNĐ/ngày) nếu đi cùng gia đình hoặc nhóm đông; di chuyển bằng xe buýt (000 – 3000 VNĐ/lượt từ Đà Nẵng đi Hội An, Tam Kỳ); hoặc chọn Grab, taxi với sự tiện lợi nhưng giá cao hơn.
+Tên tài liệu: Phương tiện đi Đà Nẵng Để đến được Đà Nẵng các bạn có thể lựa chọn 1 trong 3 cách sau . Tùy điều kiệ
+Nội dung: Phương tiện đi Đà Nẵng Để đến được Đà Nẵng các bạn có thể lựa chọn 1 trong 3 cách sau . Tùy điều kiện kinh tế , sở thích , nhu cầu...bạn ưng cái nào thì chọn cái đó thôi Tàu hỏa từ Sài Gòn đi Đà Nẵng: Có nhiều loại vé tàu hỏa Sài Gòn đi Đà Nẵng như vé ghế cứng, vé tàu hỏa Sài Gòn đi đà nẵng ghế cứng điều hòa, vé vé tàu hỏa Sài Gòn đi đà nẵng ghế mềm, vé vé tàu hỏa Sài Gòn đi đà nẵng ghế mềm đều hòa, vé vé tàu hỏa Sài Gòn đi đà nẵng giường nằm mềm điều hòa,… Mỗi loại vé có một mức giá khác nhau. Trong đó giá vé tàu hỏa vé tàu hỏa Sài Gòn đi đà nẵng rẻ nhất là loại vé ghế cứng với 7000Đ/2 chiều / 1 khách. Thời gian di chuyển bằng tàu hỏa từ Sài Gòn đến Đà Nẵng 19 tiếng đồng hồ. Nghe có vẻ rẻ nhưng chưa chắc rẻ bởi thời gian di chuyển quá lâu mà giá vé tàu hỏa Sài Gòn đi Đà Nẵng chưa bao gồm chi phí ăn uống. Nhưng bù lại dọc đường có thể ngắm cảnh cũng vui vui. Để mua vé tàu hỏa vé tàu hỏa Sài Gòn đi đà nẵng bạn có thể mua trực tuyến qua website của tổng công ty đường sắt việt nam. Xe Giường Nằm Sài Gòn Đà Nẵng Xe khách giường nằm Sài Gòn đi Đà Nẵng có giá dao động khoảng  8600.000Đ/2 chiều/1 khách. Cũng giống như phương án đi du lịch Đà Nẵng bằng tàu hỏa nhưng có vẻ thoải mái hơn nhiều vì được nằm trên xe máy lạnh trong suốt quảng đường. Tuy nhiên thời gian di chuyển từ Sài Gòn đến Đà Nẵng cũng lâu không kém. Mất 17 tiếng đồng hồ mỗi lượt. Tính ra đi về mất hết 2 ngày di chuyển đến Đà Nẵng
+Tên tài liệu: Hướng dẫn đường đi đến Bà Nà Hills từ Đà Nẵng Đến Bà Nà Hills bằng xe ô tô Đây là phương tiện nhanh 
+Nội dung: Hướng dẫn đường đi đến Bà Nà Hills từ Đà Nẵng Đến Bà Nà Hills bằng xe ô tô Đây là phương tiện nhanh chóng và an toàn nhất. Bạn có thể chọn đi taxi, grab hoặc thuê xe có người lái. Nhưng với taxi thì thường sẽ tốn kém nhất bởi giá taxi ở Đà Nẵng thuộc top cao nhất cả nước, nên nếu có đi taxi thì nhớ mặc cả giá trọn gói, đừng tính theo km nhé. Giá cho một chiều từ Đà Nẵng đến Bà Nà với xe đưa đón, giá trọn gói 2 chiều cũng chỉ ở mức 650k cho xe 4 chỗ. Grab có dao động từ 600.000 VNĐ đến 700.000 VNĐ tùy điểm đón. Di chuyển đến Bà Nà Hills bằng Xe máy Nếu bạn là mẫu người ưa tự do, thích khám phá và dễ bị say xe ô tô thì đi xe máy quả là một lựa chọn tuyệt vời. Bởi trên đường đi bạn được thỏa sức ngắm nhìn khung cảnh thiên nhiên nơi đây. Nhưng mọi người lưu ý nên xuất phát sớm, và nghiên cứu kỹ đường đi. Bạn có thể thuê xe máy tại các địa chỉ thuê xe máy trong trung tâm thành phố Đà Nẵng để tiện cho việc đi lại cũng như tham quan thêm các địa điểm khác nữa! Giá thuê xe máy ở Đà Nẵng lại khá rẻ, chỉ khoảng 150.000đ/ 1 xe ga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mì Quảng Ếch Bếp Trang ở 212 Bạch Đằng, Đà Nẵng có giá bao nhiêu một tô và đặc trưng hương vị ra sao?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mì Quảng Ếch Bếp Trang có giá khoảng 30.000 – 50.000 VNĐ/tô, sợi mì dai mềm, nước dùng đậm đà từ xương và thịt ếch, ăn kèm rau sống, bánh tráng nướng, đậu phộng.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mì Quảng Ếch Bếp Trang (212 Bạch Đằng) có giá khoảng 30.000 – 50.000 VNĐ mỗi tô. Đặc trưng của món này là sợi mì dai mềm, nước dùng đậm đà từ xương, tôm, gà hoặc cá lóc, ăn kèm rau sống, bánh tráng nướng và đậu phộng.</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the context: it states the price range of 30,000–50,000 VNĐ per bowl and describes the dish as having soft, chewy rice noodles, a rich broth made from bone, shrimp, chicken or catfish, served with fresh herbs, grilled rice paper, and peanuts. All of these details are directly supported by the first document in the context.</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>The answer directly addresses both parts of the question: it gives the price range for a bowl at the specified location and describes the dish’s flavor profile and key ingredients, matching the user’s request.</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>The context contains multiple documents that directly mention the price range (30,000–50,000 VNĐ) for Mì Quảng Ếch Bếp Trang and describe the noodle texture, broth, and accompanying ingredients. While some additional documents provide other price points or unrelated details, the core information needed to support the answer is present and clearly relevant, resulting in a high precision score.</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>The context includes the price range (30–50k VNĐ/tô), the soft, chewy noodles, the rich broth from bones, and the typical accompaniments (fresh herbs, grilled rice paper, peanuts). It omits the specific mention that the broth also contains frog meat, which is a key detail in the ground truth. Thus, most but not all facts are recalled.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Mì Quảng Biểu tượng ẩm thực Đà Nẵng, sợi mì dai mềm, nước dùng đậm đà từ xương, tôm, gà hoặc cá lóc
+Nội dung: Mì Quảng Biểu tượng ẩm thực Đà Nẵng, sợi mì dai mềm, nước dùng đậm đà từ xương, tôm, gà hoặc cá lóc. Ăn kèm rau sống, bánh tráng nướng, đậu phộng. Giá: 30.000 – 50.000 VNĐ/tô. Địa chỉ: Mì Quảng Ếch Bếp Trang (212 Bạch Đằng), Mì Quảng Bà Bích (1 Đặng Dung), Mì Quảng Cô Sáu (397 Trần Hưng Đạo).
+Tên tài liệu: Mì Quảng được xem như “tình yêu sét đánh” của nhiều thực khách. Sợi mì gạo vàng óng, ăn kèm rau sống
+Nội dung: Mì Quảng được xem như “tình yêu sét đánh” của nhiều thực khách. Sợi mì gạo vàng óng, ăn kèm rau sống, giá đỗ, hoa chuối thái, trứng cút và bánh tráng giòn rụm. Tất cả hòa quyện cùng nước dùng béo bùi từ lạc, thêm thịt gà, heo hay tôm. Đây là lựa chọn hoàn hảo cho bữa trưa tại Đà Nẵng. Bạn có thể ghé Mì Quảng Bà Vị tại 166 Lê Đình Dương.
+Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn tham khảo Mì Quảng: Được biết đến là món ăn nổi tiếng ở Đà Nẵng, với nhiều hương vị khác nhau như: Mì Quảng tôm, gà, chả cua, lươn… ăn kèm với bánh tráng nướng, đậu phộng rang… Để thưởng thức mì Quảng ngon tại Đà Nẵng, các bạn có thể tham khảo một số địa chỉ: Quán mì Quảng Thi (địa chỉ 251 Hoàng Diệu, Quận Hải Châu, Đà Nẵng). Mì được đánh giá rất ngon và đông khách, giá dao động từ 18-30k/ tô lớn với nhiều hương vị như mì gà, mì ếch, mì cá lóc… Quán mì Quảng Bà Mua (Địa chỉ 19 Trần Bình Trong, Quận Hải Châu, Đà Nẵng), giá khoảng 25k/tô. Quán mì Bà Vị (địa chỉ 166 Lê Đình Dương, Quận Hải Châu, Đà Nẵng), giá 25k/tô. Thưởng thức đặc sản Đà Nẵng không thể bỏ qua món bánh tráng cuốn thịt heo ngon nức tiếng. Sự kết hợp độc đáo giữa thịt luộc ăn kèm với các loại rau củ và nước mắm nêm làm nên sức hấp dẫn cho món ăn. Địa chỉ bánh tráng cuốn thịt heo ngon ở Đà Nẵng các bạn có thể tham khảo: Quán bánh tráng thịt heo Mậu (Địa chỉ 35 Đỗ thúc Tịnh, Quận Cẩm Lệ, Đà Nẵng), với 55k/suất no nê. Bánh tráng Quên Nhà (Địa chỉ K72/1C Hàm Nghi, Quận Thanh Khê, Đà Nẵng), giá 35k/suất. Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mì Quảng Bà Bích ở 1 Đặng Dung, Đà Nẵng có điểm gì khác so với Mì Quảng Cô Sáu?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mì Quảng Bà Bích mang hương vị truyền thống, nước dùng nhẹ hơn, trong khi Mì Quảng Cô Sáu ở 397 Trần Hưng Đạo có thêm topping đặc biệt như trứng, tôm, thịt heo.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>The answer correctly states that it cannot provide a comparison because the provided context does not contain any information about differences between Mì Quảng Bà Bích and Mì Quảng Cô Sáu. This is faithful to the given text.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>The answer admits it cannot provide information, offering no comparison or relevant content. It does not address the question at all.</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>The provided context lists the addresses of Mì Quảng Bà Bích and Mì Quảng Cô Sáu but does not describe any differences between them. Therefore, it does not support the answer, which correctly states that the information is insufficient.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>The provided context lists addresses and general descriptions of Mì Quảng but does not mention the specific flavor differences: that Mì Quảng Bà Bích has a traditional, lighter broth, nor that Mì Quảng Cô Sáu includes toppings such as eggs, shrimp, and pork. Therefore the key facts needed to answer the question are missing.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Mì Quảng Biểu tượng ẩm thực Đà Nẵng, sợi mì dai mềm, nước dùng đậm đà từ xương, tôm, gà hoặc cá lóc
+Nội dung: Mì Quảng Biểu tượng ẩm thực Đà Nẵng, sợi mì dai mềm, nước dùng đậm đà từ xương, tôm, gà hoặc cá lóc. Ăn kèm rau sống, bánh tráng nướng, đậu phộng. Giá: 30.000 – 50.000 VNĐ/tô. Địa chỉ: Mì Quảng Ếch Bếp Trang (212 Bạch Đằng), Mì Quảng Bà Bích (1 Đặng Dung), Mì Quảng Cô Sáu (397 Trần Hưng Đạo).
+Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn tham khảo Mì Quảng: Được biết đến là món ăn nổi tiếng ở Đà Nẵng, với nhiều hương vị khác nhau như: Mì Quảng tôm, gà, chả cua, lươn… ăn kèm với bánh tráng nướng, đậu phộng rang… Để thưởng thức mì Quảng ngon tại Đà Nẵng, các bạn có thể tham khảo một số địa chỉ: Quán mì Quảng Thi (địa chỉ 251 Hoàng Diệu, Quận Hải Châu, Đà Nẵng). Mì được đánh giá rất ngon và đông khách, giá dao động từ 18-30k/ tô lớn với nhiều hương vị như mì gà, mì ếch, mì cá lóc… Quán mì Quảng Bà Mua (Địa chỉ 19 Trần Bình Trong, Quận Hải Châu, Đà Nẵng), giá khoảng 25k/tô. Quán mì Bà Vị (địa chỉ 166 Lê Đình Dương, Quận Hải Châu, Đà Nẵng), giá 25k/tô. Thưởng thức đặc sản Đà Nẵng không thể bỏ qua món bánh tráng cuốn thịt heo ngon nức tiếng. Sự kết hợp độc đáo giữa thịt luộc ăn kèm với các loại rau củ và nước mắm nêm làm nên sức hấp dẫn cho món ăn. Địa chỉ bánh tráng cuốn thịt heo ngon ở Đà Nẵng các bạn có thể tham khảo: Quán bánh tráng thịt heo Mậu (Địa chỉ 35 Đỗ thúc Tịnh, Quận Cẩm Lệ, Đà Nẵng), với 55k/suất no nê. Bánh tráng Quên Nhà (Địa chỉ K72/1C Hàm Nghi, Quận Thanh Khê, Đà Nẵng), giá 35k/suất. Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi
+Tên tài liệu: Mì Quảng được xem như “tình yêu sét đánh” của nhiều thực khách. Sợi mì gạo vàng óng, ăn kèm rau sống
+Nội dung: Mì Quảng được xem như “tình yêu sét đánh” của nhiều thực khách. Sợi mì gạo vàng óng, ăn kèm rau sống, giá đỗ, hoa chuối thái, trứng cút và bánh tráng giòn rụm. Tất cả hòa quyện cùng nước dùng béo bùi từ lạc, thêm thịt gà, heo hay tôm. Đây là lựa chọn hoàn hảo cho bữa trưa tại Đà Nẵng. Bạn có thể ghé Mì Quảng Bà Vị tại 166 Lê Đình Dương.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Quán Bún mắm nêm Liêm ở 41 Đoàn Thị Điểm, Đà Nẵng phục vụ món ăn đặc trưng nào?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quán mắm Liêm nổi tiếng với bún mắm nêm — món bún trộn mắm nêm, thịt heo quay, chả bò, rau sống, đậm đà và cay thơm nồng.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Quán Bún mắm nêm Liêm (41 Đoàn Thị Điểm, Đà Nẵng) phục vụ món Bún mắm nêm – bún ăn kèm mắm nêm đậm vị, thịt heo quay, chả bò và rau sống.</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the context: Quán mắm Liêm at 41 Đoàn Thị Điểm serves Bún mắm nêm with mắm nêm, thịt heo quay, chả bò, and rau sống. This matches the description in the first document, so the answer is fully faithful.</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>The answer directly states that the restaurant serves Bún mắm nêm, which is the signature dish asked for in the question.</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>The context contains a document that explicitly lists Quán mắm Liêm at 41 Đoàn Thị Điểm and describes its menu as Bún mắm nêm with mắm nêm, thịt heo quay, chả bò, and rau sống. This directly supports the answer. Minor noise comes from additional unrelated entries, but overall the context is highly relevant.</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>The context includes the exact dish name (bún mắm nêm), the key ingredients (thịt heo quay, chả bò, rau sống), the flavor description (đậm đà, cay thơm nồng), and the address (41 Đoàn Thị Điểm). All facts from the ground truth are present, so recall is complete.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Bún mắm nêm Dân dã, đậm vị với mắm nêm, thịt heo quay, chả bò, rau sống. Mắm cay the, thơm nồng. Gi
+Nội dung: Bún mắm nêm Dân dã, đậm vị với mắm nêm, thịt heo quay, chả bò, rau sống. Mắm cay the, thơm nồng. Giá: 000 – 40.000 VNĐ/phần. Địa chỉ: Quán mắm Liêm (41 Đoàn Thị Điểm), Bún mắm Ngọc (20 Đoàn Thị Điểm), Quán mắm Vân (23/14 Trần Kế Xương).
+Tên tài liệu: Đà Nẵng còn nổi tiếng với Bún mắm nêm, món bún ăn cùng mắm nêm đậm đà, thêm thịt heo luộc, nem, chả 
+Nội dung: Đà Nẵng còn nổi tiếng với Bún mắm nêm, món bún ăn cùng mắm nêm đậm đà, thêm thịt heo luộc, nem, chả hoặc thịt nướng. Quán Bún mắm nêm Dì Liên (52 Trần Bình Trọng) và Bún mắm nêm Vân (Trần Kế Xương) là hai địa chỉ quen thuộc.
+Tên tài liệu: Món ngon nên thưởng thức khi đến Đà Nẵng Mì Quảng: Món đặc sản trứ danh, ăn kèm bánh tráng và rau số
+Nội dung: Món ngon nên thưởng thức khi đến Đà Nẵng Mì Quảng: Món đặc sản trứ danh, ăn kèm bánh tráng và rau sống. Bún chả cá: Nước dùng thanh, chả cá thơm dai, đậm chất miền Trung. Bánh tráng cuốn thịt heo: Cuốn thịt, rau sống, chấm mắm nêm đậm đà. Bánh xèo – nem lụi: Vỏ giòn, nem thơm, nước chấm béo ngon khó cưỡng. Hải sản tươi sống: Ghé các quán ven biển để thưởng thức tôm, cua, ốc tươi. Bún mắm nêm: Mắm nêm đặc trưng, ăn cùng thịt luộc, nem, rau. Chè xoa xoa hạt lựu: Món tráng miệng mát lạnh, ngọt dịu, ăn giải nhiệt. Nơi lưu trú khi đến du lịch Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ở Đà Nẵng, quán nào nổi tiếng nhất với gỏi cá Nam Ô và địa chỉ ở đâu?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Gỏi cá Nam Ô nổi tiếng tại quán Cô Hồng (38 Lê Hồng Phong) và quán Thanh Hương (1029 Nguyễn Lương Bằng), đặc trưng bởi cá trích tươi trộn rau rừng, đậu phộng và nước chấm cay mặn.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Một số quán nổi tiếng với gỏi cá Nam Ô ở Đà Nẵng gồm:
+- **Gỏi cá Đông Đông** – 928 Nguyễn Lương Bằng  
+- **Gỏi cá Vinh** – 960 Nguyễn Lương Bằng  
+- **Gỏi cá Nam Ô A Sinh** – 130 Huỳnh Thúc Kháng  
+- **Quán Gỏi Nam Ô** – 972 Nguyễn Lương Bằng, quận Liên Chiểu, TP. Đà Nẵng  
+- **Quán Gỏi Cá Thanh Hương** – 1029 Nguyễn Lương Bằng, quận Liên Chiểu, TP. Đà Nẵng  
+Đây là các địa chỉ được nhắc đến trong thông tin hiện có.</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>The answer correctly lists the restaurants and addresses mentioned in the context, but it does not identify which one is the most famous, as the question specifically asks for the most renowned spot. Therefore it is partially faithful but incomplete.</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>The answer lists several restaurants that serve Nam Ô fish salad in Da Nang, but it does not identify which one is the most famous or provide a clear recommendation. It partially addresses the location aspect but fails to answer the core question about the most famous spot.</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>The context contains the exact restaurant names and addresses that match the answer, but also includes unrelated information about other dishes, slightly reducing precision.</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>The context contains the address of Quán Gỏi Cá Thanh Hương (1029 Nguyễn Lương Bằng) and mentions some ingredients such as đậu phộng, but it does not mention Quán Cô Hồng (38 Lê Hồng Phong) or the full description of cá trích tươi trộn rau rừng and nước chấm cay mặn. Therefore only about half of the key facts from the ground truth are present.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Mì Quảng và bún chả cá Nu Đồ là nơi nổi tiếng với mì Quảng – món ăn biểu tượng của Đà Nẵng. Đầu bếp 
+Nội dung: Mì Quảng và bún chả cá Nu Đồ là nơi nổi tiếng với mì Quảng – món ăn biểu tượng của Đà Nẵng. Đầu bếp Tuyết mang đến hương vị đầy sáng tạo, sợi mì vàng mềm, kết hợp nhiều topping như trứng, hoa chuối, lạc rang và bánh tráng giòn. Ngoài ra, Bún chả cá Hờn với nước dùng vàng óng từ nghệ, cà chua, thơm và rau củ đã trở thành món ăn quen thuộc suốt hơn 30 năm. Nếu nhớ hương vị phở, bạn có thể ghé Phở Việt Kiều, nơi phục vụ thực đơn đa dạng, thân thiện với du khách quốc tế. Với mì kéo thủ công, Ân Ký Mì Gia nổi bật với mì wonton, sủi cảo và bánh bao, mở cửa từ 6h sáng, có menu tiếng Anh rõ ràng.
+Tên tài liệu:  Gỏi cá Nam Ô Gỏi cá Nam Ô thường được làm từ cá trích đã lược bỏ xương, trộn đều cùng gừng, riềng, 
+Nội dung: Gỏi cá Nam Ô Gỏi cá Nam Ô thường được làm từ cá trích đã lược bỏ xương, trộn đều cùng gừng, riềng, tỏi băm nhuyễn. Sau đó, món ăn được thêm chút thính cho dậy vị, cuốn với bánh tráng, rau sống và quyện cùng một loại nước chấm đặc biệt. Với hương vị tươi mới, lạ miệng, gỏi cá Nam Ô sẽ là một trong món ngon khiến bạn thương nhớ sau hành trình du lịch Đà Nẵng.
+Tên tài liệu: 1 Gỏi Cá Nam Ô Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Gỏi cá Nam Ô, món ngon "độc quyền" của làng c
+Nội dung: 1 Gỏi Cá Nam Ô Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Gỏi cá Nam Ô, món ngon "độc quyền" của làng chài Nam Ô, sẽ khiến du khách dễ dàng "thương nhớ". Cá trích tươi rói, được ướp theo công thức gia truyền, không hề có mùi tanh mà lại đậm đà hương vị miền biển. Cuốn miếng cá cùng rau sống trong bánh tráng, chấm vào chén nước mắm mè đậu phộng đặc biệt, #teamKlook sẽ có được trải nghiệm "bùng nổ vị giác đích thực". Đây cũng là "mồi nhậu" quen thuộc của nhiều thực thần địa phương. Các Địa Chỉ Bán Gỏi Cá Nam Ô Ngon Ở Đà Nẵng: Gỏi cá Đông Đông: 928 Nguyễn Lương Bằng Gỏi cá Vinh: 960 Nguyễn Lương Bằng Gỏi cá Nam Ô A Sinh: 130 Huỳnh Thúc Kháng Quán Gỏi Nam Ô: 972 Nguyễn Lương Bằng, quận Liên Chiểu, TP. Đà Nẵng Quán Gỏi Cá Thanh Hương – 1029 Nguyễn Lương Bằng, quận Liên Chiểu, TP. Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Bánh tráng cuốn thịt heo Đại Lộc ở 97 Trưng Nữ Vương có gì nổi bật so với những quán khác?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bánh tráng cuốn thịt heo Đại Lộc nổi bật với thịt hai đầu da thái mỏng, bánh tráng dẻo và nước chấm mắm nêm thơm ngon khó quên.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Bánh tráng cuốn thịt heo ở quán Đại Lộc (97 Trưng Nữ Vương) nổi bật với miếng thịt heo “hai đầu da” được thái mỏng, vừa mềm vừa có lớp bì béo ngậy, cuốn cùng rau sống tươi mát trong lớp bánh tráng mềm dẻo và chấm mắm nêm thơm ngon. Giá mỗi phần dao động từ 50.000‑200.000 VNĐ, mang lại hương vị đậm đà, hấp dẫn so với các quán khác.</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>The answer accurately describes the key features highlighted in the context: the use of "hai đầu da" pork, thin slicing, the presence of fat layer, fresh vegetables, and the use of mắm nêm, as well as the price range of 50,000–200,000 VNĐ. These details are directly supported by the first document. However, the answer incorrectly refers to the establishment as "quán Đại Lộc" instead of the correct name "Quán Mậu". Additionally, the claim that the dish offers a more intense flavor compared to other restaurants is an inference not explicitly stated in the context. Overall, the answer is largely faithful but contains a minor factual error and an unsupported comparative claim, warranting a score of 0.85.</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>The answer directly describes the distinctive features of the bánh tráng cuốn thịt heo at Đại Lộc, such as the thinly sliced pork with fatty skin, fresh greens, soft rice paper, and flavorful dipping sauce, and compares its taste and price to other shops. This directly addresses the question about what makes it stand out, making it highly relevant.</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>The context contains multiple passages that describe the "hai đầu da" pork, its thin slicing, the fresh vegetables, the soft rice paper, the flavorful dipping sauce, and the price range of 50,000–200,000 VNĐ. It also mentions the location 97 Trưng Nữ Vương (Quán Đại Lộc) and compares it to other restaurants. While some parts of the context refer to other venues, the core details directly support the answer, making the precision fairly high but not perfect.</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>The context contains all the key facts from the ground truth: it mentions the thin sliced pork with two heads, the soft rice paper, the fragrant mắm nêm dipping sauce, and the location at Đại Lộc 97 (Quán Mậu).</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Bánh tráng cuốn thịt heo Thịt heo hai đầu da thái mỏng, ăn cùng rau sống, cuốn bánh tráng, chấm mắm
+Nội dung: Bánh tráng cuốn thịt heo Thịt heo hai đầu da thái mỏng, ăn cùng rau sống, cuốn bánh tráng, chấm mắm nêm. Giá: 50.000 – 200.000 VNĐ/phần. Địa chỉ: Quán Mậu (35 Đỗ Thúc Tịnh), Đại Lộc 97 (148 Trưng Nữ Vương).
+Tên tài liệu:  Bánh Tráng Cuốn Thịt Heo - Đậm Đà Hương Vị Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh tráng cuốn 
+Nội dung: Bánh Tráng Cuốn Thịt Heo - Đậm Đà Hương Vị Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh tráng cuốn thịt heo thì ở đâu cũng có, nhưng đến Đà Nẵng, bạn sẽ được thưởng thức một "phiên bản nâng cấp" khiến vị giác phải "rung rinh". Bí quyết nằm ở miếng thịt heo "hai đầu da" - vừa mềm, vừa mỏng, lại có thêm lớp bì béo ngậy, chút mỡ chạy dọc theo thớ thịt, nhìn thôi đã thấy hấp dẫn! Cuốn miếng thịt thơm lừng cùng rau sống tươi mát trong lớp bánh tráng mềm dẻo, chấm vào chén mắm nêm "thần thánh" với tỏi ớt cay nồng, bạn sẽ cảm nhận được sự hòa quyện hoàn hảo của các hương vị, đấy. Ăn Bánh Tráng Cuốn Thịt Heo Ngon Ở Đà Nẵng Tại: Bánh tráng cuốn thịt heo Bi Mĩ: Chợ Cồn Quán Đại Lộc: 97 Trưng Nữ Vương Bánh tráng thịt heo Bà Hường: 126 Duy Tân Quán Trần: 4 Lê Duẩn, quận Hải Châu, TP. Đà Nẵng Quán Mậu: 35 Đỗ Thức Tịnh, quận Cẩm Lệ, TP. Đà Nẵng
+Tên tài liệu: Bánh tráng cuốn thịt heo và nhà hàng đa phong cách Bánh tráng cuốn thịt heo là lựa chọn tuyệt vời tr
+Nội dung: Bánh tráng cuốn thịt heo và nhà hàng đa phong cách Bánh tráng cuốn thịt heo là lựa chọn tuyệt vời trong những ngày nắng nóng. Thịt heo luộc thái mỏng cuốn cùng rau sống, xoài xanh, dưa leo, ăn kèm mắm nêm đậm đà. Nếu đi nhóm đông, bạn có thể chọn Bếp Cuốn Đà Nẵng, Nhà hàng Madame Lân hoặc Quán Huế Ngon, nơi vừa phục vụ cuốn, vừa có BBQ, lẩu và hải sản.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mộc Quán ở 26 Tô Hiến Thành, Đà Nẵng nổi tiếng với loại hải sản nào?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mộc Quán nổi tiếng với hải sản tươi như tôm nướng, mực nướng, cua rang me, ghẹ hấp bia, giá từ 100.000 – 500.000 VNĐ/kg.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mộc Quán (26 Tô Hiến Thành) nổi tiếng với các món hải sản như tôm nướng, mực nướng, cua rang me và ghẹ hấp bia.</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>The answer accurately lists the seafood items (tôm nướng, mực nướng, cua rang me, ghẹ hấp bia) that are explicitly mentioned in the context as being served at Mộc Quán (26 Tô Hiến Thành). It does not add any unsupported information, so it is fully faithful to the provided text.</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies several seafood dishes that Mộc Quán is known for, directly addressing the question about its famous seafood. It provides relevant information, though it lists multiple items instead of a single one, which is acceptable for the query.</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>The context explicitly lists the same seafood dishes (tôm nướng, mực nướng, cua rang me, ghẹ hấp bia) and mentions Mộc Quán at 26 Tô Hiến Thành, directly supporting the answer. No irrelevant or noisy information is present.</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>The context lists all the seafood items mentioned in the ground truth (tôm nướng, mực nướng, cua rang me, ghẹ hấp bia), includes the price range (100,000–500,000 VNĐ/kg), and specifies the location (Mộc Quán, 26 Tô Hiến Thành). Therefore it fully covers the key facts needed.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Hải sản Đà Nẵng Tôm nướng, mực nướng, cua rang me, ghẹ hấp bia… tươi ngon từ biển Mỹ Khê, Sơn Trà. 
+Nội dung: Hải sản Đà Nẵng Tôm nướng, mực nướng, cua rang me, ghẹ hấp bia… tươi ngon từ biển Mỹ Khê, Sơn Trà. Giá: 100.000 – 500.000 VNĐ/kg. Địa chỉ: Mộc Quán (26 Tô Hiến Thành), Năm Đảnh (139/59/38 Trần Quang Khải), Mỹ Hạnh (3-5 Võ Nguyên Giáp).
+Tên tài liệu:  Hải sản Đến thành phố biển xinh đẹp Đà Nẵng thì tất nhiên bạn không thể bỏ qua các món hải sản tươi
+Nội dung: Hải sản Đến thành phố biển xinh đẹp Đà Nẵng thì tất nhiên bạn không thể bỏ qua các món hải sản tươi ngon vừa được đánh bắt ngoài khơi như: tôm, cua, ghẹ, mực, bề bề, ốc vòi voi, chip chip… Các loại hải sản được quán ăn, nhà hàng chế biến thành nhiều món ngon hấp dẫn cho bữa tối của bạn như: hấp xả, xào tỏi, luộc, nấu lẩu, rang me…
+Tên tài liệu: Đã đến thành phố biển, không thể bỏ qua hải sản. Ở các quán ven biển, bạn chọn hải sản tươi sống từ 
+Nội dung: Đã đến thành phố biển, không thể bỏ qua hải sản. Ở các quán ven biển, bạn chọn hải sản tươi sống từ bể, cân ký và chế biến tại chỗ. Nghêu hấp sả, cua rim me, hay hàu nướng mỡ hành đều là lựa chọn hoàn hảo. Hải sản Bé Mặn (đường Võ Nguyên Giáp) là một trong những quán nổi tiếng. Nếu muốn trải nghiệm cao cấp, bạn có thể đến Nhà hàng Nén để thử thực đơn 5 món chế biến sáng tạo từ nguyên liệu bản địa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Bánh Xèo Bà Dưỡng có gì khiến du khách yêu thích?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Bánh Xèo Bà Dưỡng có vỏ bánh giòn, nhân tôm thịt thơm béo, ăn kèm rau sống và nước chấm đặc biệt, là quán bánh xèo nổi tiếng nhất Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Bánh Xèo Bà Dưỡng được du khách yêu thích nhờ vỏ bánh vàng nghệ giòn rụm, nhân phong phú gồm thịt heo, tôm, hành tây, giá đỗ và nấm. Khi ăn, thực khách có thể xé nhỏ, cuốn cùng rau sống và bánh tráng, chấm với nước sốt đậu phộng béo ngậy. Địa chỉ lâu đời, nổi tiếng này mang lại trải nghiệm truyền thống đặc trưng của Đà Nẵng, khiến món ăn trở nên hấp dẫn và đáng nhớ.</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information provided in the context: Bánh Xèo Bà Dưỡng is praised for its yellow‑turmeric, crispy crust, rich filling of pork, shrimp, onion, bean sprouts, and mushrooms, served with a peanut sauce, and is described as a long‑standing, famous establishment that offers a traditional Da Nang experience. No unsupported or contradictory statements are present.</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by listing the qualities that make Bánh Xèo Bà Dưỡng popular among tourists—its crispy golden crust, rich filling, traditional preparation, and memorable experience—thereby providing a focused and relevant response.</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>The context contains multiple documents that directly describe Bánh Xèo Bà Dưỡng’s golden, crispy crust, rich filling (meat, shrimp, onions, bean sprouts, mushrooms), the way it is eaten (torn, wrapped with greens and rice paper, dipped in peanut sauce), and its long‑standing reputation in Da Nang. This information matches the answer almost word‑for‑word, making the context highly precise and directly supportive.</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>The context includes all the key facts from the ground truth: it describes Bánh Xèo Bà Dưỡng’s crispy crust, the presence of shrimp and pork in the filling, the accompaniment of fresh greens, and a special sauce (specifically a gan‑lạc‑mè blend). It also identifies the shop as a famous, well‑known spot in Da Nang. The only minor omission is the exact phrase “nổi tiếng nhất Đà Nẵng,” which is implied but not explicitly stated. Therefore the recall is very high, around 0.9.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Bánh xèo là một món ăn truyền thống của Việt Nam và cũng là món ăn yêu thích của nhiều du khách quốc
+Nội dung: Bánh xèo là một món ăn truyền thống của Việt Nam và cũng là món ăn yêu thích của nhiều du khách quốc tế. Bánh xèo phổ biến nhất ở miền Trung và miền Nam. Tên gọi “bánh xèo” được đặt khi chế biến, lúc bột gạo được đổ vào chảo dầu nóng, tạo ra tiếng xèo xèo rất vui tai. Ở mỗi vùng miền, bánh xèo có kích cỡ, nhân, nước chấm và rau ăn kèm khác nhau. Nhiều người thích ăn bánh xèo bằng cách cuộn nó với rau, nhưng một số nơi lại dùng bánh tráng để cuộn. Bánh xèo nên được thưởng thức khi còn nóng hổi và vỏ bánh còn giòn. Sự kết hợp giữa các nguyên liệu mộc mạc và tay nghề khéo léo của đầu bếp đã tạo nên hương vị đặc biệt cho món ăn này. Các địa điểm được gợi ý: Bánh xèo 46A: 46A Đinh Công Tráng, Phường Tân Định, Quận 1, TP.HCM Bánh khọt Cô Ba Vũng Tàu: 40B Trần Cao Vân, Phường Võ Thị Sáu, Quận 3, TP.HCM Bánh xèo Ngọc Sơn: 103 Ngô Quyền, Phường 11, Quận 5, TP.HCM
+Tên tài liệu: Bánh xèo Đà Nẵng nổi bật với màu vàng nghệ, rán trên chảo nóng cho vỏ giòn rụm. Nhân bánh gồm thịt h
+Nội dung: Bánh xèo Đà Nẵng nổi bật với màu vàng nghệ, rán trên chảo nóng cho vỏ giòn rụm. Nhân bánh gồm thịt heo, tôm, hành tây, giá đỗ và nấm. Khi ăn, thực khách xé nhỏ, cuốn cùng rau sống và bánh tráng, chấm với nước sốt đậu phộng béo ngậy. Quán Bà Dưỡng (280/23 Hoàng Diệu) là địa chỉ lâu đời nổi tiếng.
+Tên tài liệu: Bánh Xèo Đà Nẵng là loại bánh nhỏ, giòn rụm, nhân đầy tôm, thịt, giá đỗ và hành lá, ăn kèm rau sống,
+Nội dung: Bánh Xèo Đà Nẵng là loại bánh nhỏ, giòn rụm, nhân đầy tôm, thịt, giá đỗ và hành lá, ăn kèm rau sống, bánh tráng cùng loại nước chấm đặc biệt pha từ gan, lạc và mè. Bánh Xèo Bà Dưỡng (280/23 Hoàng Diệu) và Bánh Xèo Cô Mười (Châu Thị Vĩnh Tế) là những địa chỉ trứ danh, giá từ 000 – 000 VND mỗi chiếc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chè Liên có món chè đặc trưng nào khiến thực khách yêu thích?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Chè Liên nổi tiếng với chè sầu riêng ngọt béo, gồm sầu riêng, đậu xanh, thạch và nước cốt dừa, giá khoảng 30.000 – 40.000 VNĐ/ly.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chè Liên nổi tiếng với món chè sầu riêng Thái, với hương vị đậm đà khiến thực khách rất yêu thích.</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies "Chè sầu riêng Thái" as a signature item that is highlighted in the context as a popular choice at Chè Liên. The context explicitly mentions this variety and its appeal, so the answer is largely faithful to the provided information.</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>The answer directly identifies a signature dessert (Thai durian chè) that customers love, which directly addresses the question about Chè Liên’s popular dish.</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>The context contains a document that mentions "Chè sầu riêng Thái" and a shop named "Chè Thái Liên", which likely refers to the same establishment. However, it does not explicitly state "Chè Liên" as the name of the shop, so the support for the answer is moderate but not fully precise.</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>The context mentions the shop name (Cô Liên) and references a durian tea with thạch and coconut milk, but it does not include the full ingredient list (sầu riêng, đậu xanh, thạch, nước cốt dừa), the description of it being "ngọt béo", nor the price range of 30,000–40,000 VND per cup. Therefore only a small portion of the ground‑truth facts is recalled.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún 
+Nội dung: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún chả cá, bánh tráng cuốn thịt heo, hải sản tươi sống, chè xoa xoa hạt lựu… Mỗi món ăn là một nét văn hóa đặc trưng của vùng đất miền Trung nắng gió.
+Tên tài liệu: Chè Chè là món ăn được làm từ nhiều nguyên liệu khác nhau như đậu, hạt sen, gạo nếp, các loại củ, qu
+Nội dung: Chè Chè là món ăn được làm từ nhiều nguyên liệu khác nhau như đậu, hạt sen, gạo nếp, các loại củ, quả... kết hợp với nước đường ngọt thanh, dừa nạo và đá. Chè không chỉ là một món ăn giải khát mà còn là một nét đặc trưng của văn hóa ẩm thực Việt Nam. Món ăn sáng tạo, phong phú hơn cả Với sự đa dạng của các loại nguyên liệu và cách chế biến, mỗi loại chè mang một hương vị riêng, phản ánh đặc trưng của từng vùng miền. Du khách có thể dễ dàng tìm thấy nhiều quán chè ngon ở Thành phố Hồ Chí Minh và thưởng thức món ăn dân dã, truyền thống này.
+Tên tài liệu: 2 Chè Sầu Riêng - Đặc Sản "Kén Người Ăn" Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bạn là "fan cứng"
+Nội dung: 2 Chè Sầu Riêng - Đặc Sản "Kén Người Ăn" Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bạn là "fan cứng" của trái cây "nữ hoàng"? Vậy thì đừng bỏ lỡ cơ hội thưởng thức các món chè sầu riêng đặc sắc tại đây. Từ chè sầu riêng Thái với hương vị đậm đà, chè sầu riêng tàu hũ mềm mịn đến chè sầu riêng thạch cốt dừa thanh mát, mỗi món đều là trải nghiệm đáng nhớ. Tuy nhiên, món ngon Đà Nẵng này lại chống chỉ định với những người nhạy cảm với mùi sầu riêng hay đường huyết cao. Các Địa Chỉ Bán Chè Sầu Riêng Ngon Ở Đà Nẵng: Quán Cô Liên: 189 Hoàng Diệu, Nam Dương, Hải Châu, TP. Đà Nẵng Chè Thái Liên: 175 Hải Phòng, quận Thanh Khê, TP. Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quán Cô Vân nổi tiếng với món ăn gì</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Quán Cô Vân nổi tiếng với kem bơ — bơ dầm mịn kết hợp kem vani, topping dừa khô, giá 20.000 – 30.000 VNĐ/ly.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>The answer states that it cannot answer due to lack of information, but the context does not mention Quán Cô Vân at all. Therefore the answer is not faithful to the provided context.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information about the dish Quán Cô Vân is famous for, merely stating a lack of data. It is completely irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>The provided context contains no information about Quán Cô Vân or its signature dish, so it does not support the answer.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>The context contains no mention of Quán Cô Vân or its signature dish (kem bơ). Therefore it fails to recall any of the key facts from the ground truth.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Mì Quảng và bún chả cá Nu Đồ là nơi nổi tiếng với mì Quảng – món ăn biểu tượng của Đà Nẵng. Đầu bếp 
+Nội dung: Mì Quảng và bún chả cá Nu Đồ là nơi nổi tiếng với mì Quảng – món ăn biểu tượng của Đà Nẵng. Đầu bếp Tuyết mang đến hương vị đầy sáng tạo, sợi mì vàng mềm, kết hợp nhiều topping như trứng, hoa chuối, lạc rang và bánh tráng giòn. Ngoài ra, Bún chả cá Hờn với nước dùng vàng óng từ nghệ, cà chua, thơm và rau củ đã trở thành món ăn quen thuộc suốt hơn 30 năm. Nếu nhớ hương vị phở, bạn có thể ghé Phở Việt Kiều, nơi phục vụ thực đơn đa dạng, thân thiện với du khách quốc tế. Với mì kéo thủ công, Ân Ký Mì Gia nổi bật với mì wonton, sủi cảo và bánh bao, mở cửa từ 6h sáng, có menu tiếng Anh rõ ràng.
+Tên tài liệu: Quán Vân - địa chỉ nộm bò khô ngon Hà Nội
+Nội dung: Quán Vân - địa chỉ nộm bò khô ngon Hà Nội: Địa chỉ: 16B Đường Thành, Cửa Đông, Hoàn Kiếm, Hà Nội. Giờ mở cửa: 14h30 – 19h00. Giá tham khảo: 35.000 VNĐ. Nộm bò khô nổi tiếng Hà Nội thì không thể bỏ qua quán Vân - Đường Thành. Nằm ngay giữa phố cổ, khách Tây đến khách ta tấp nập ra vào thưởng thức. Quán nộm vỉa hè đã có hàng chục năm, hương vị ngày càng trở lên hấp dẫn hơn. Đặc biệt là nước chấm nộm, chua thanh, ngọt vừa vô cùng lôi cuốn.
+Tên tài liệu: Quán Sâm Cây Si nổi tiếng với món cá cuộn thịt
+Nội dung: Quán Sâm Cây Si nổi tiếng với món cá cuộn thịt: Quán này nằm trong con ngõ ẩm thực Trung Yên (Hoàn Kiếm, Hà Nội). Đây chỉ là quán bún vỉa hè, không gian khá khiêm tốn với một khu vực trong nhà khoảng 10m2 và quầy bếp, bàn ăn nhỏ đặt kế bức tường cũ nhưng rất đông khách. Quán do bà Sâm mở bán và dần truyền lại cho các con. Quán nằm cạnh một cây si lâu năm nay nên khách hay gọi là bún cá Sâm Cây Si. Ở đây nổi tiếng với món cá cuốn thịt, được chủ quán chế biến theo công thức riêng, học từ Huế. Phần vỏ là cá quả thái lát mỏng, phần nhân là thịt xay nhuyễn với mộc nhĩ. Sau khi chiên, phần vỏ vàng ươm, giòn rụm, phần nhân đậm đà, giữ được độ ẩm. Thực khách gọi, chủ quán mới chiên cho nóng, phục vụ cùng nước chấm chua ngọt. Bún cá có nước dùng thanh, ninh từ xương cá, thêm hỗn hợp dứa, cà chua. Tô bún đầy đặn, cá được chiên vàng giòn, ăn kèm rau xanh theo mùa. Quán mở cửa từ 7 - 17h hàng ngày. Bún tại quán có giá 45.000 - 50.000 đồng/bát.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tré Bà Đệ ở 81 Hải Phòng, Đà Nẵng là món ăn gì và thường được mua làm gì?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tré Bà Đệ làm từ thịt heo và tai heo gói lá chuối, vị chua nhẹ thơm, thường được mua làm đặc sản mang về làm quà.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Tré Bà Đệ (địa chỉ 81 Hải Phòng, Quận Hải Châu, Đà Nẵng) là món tré – một loại nem truyền thống của Đà Nẵng, được làm từ thịt heo nạc, ba chỉ (có cả da heo), tẩm ướp gia vị rồi gói trong lá chuối và ủ vài ngày. Người dân thường mua tré để ăn vặt, thưởng thức hương vị giòn rụm, cay nồng, và cũng thường mang về làm quà lưu niệm, tặng người thân, bạn bè sau chuyến du lịch.</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects all details provided in the context: the address 81 Hải Phòng, Quận Hải Châu, Đà Nẵng; the dish being a traditional nem (tré) made from pork loin and belly (including skin); marinated, wrapped in banana leaf, fermented for a few days; its crunchy, spicy flavor; and its common use as a snack and souvenir gift. No information is fabricated or omitted that would alter the meaning.</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>The answer accurately identifies Tré Bà Đệ as a traditional nem dish from 81 Hải Phòng, Đà Nẵng, describes its ingredients and preparation, and explains that it is commonly bought as a snack, souvenir, or gift, directly addressing both parts of the question.</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>The first two documents directly describe Tré Bà Đệ’s location, ingredients, preparation, and typical uses as a snack and souvenir, which fully support the answer. The third document is unrelated but does not detract from the relevance of the supporting context.</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>The context includes the main ingredients (pork and pork ear wrapped in banana leaf) and notes that it is often bought as a souvenir gift, covering most of the ground‑truth facts. However, it does not mention the dish’s slightly sour, fragrant flavor, which is a key detail in the ground truth. Therefore the recall is high but not perfect.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Tré bà Đệ Món tré nức tiếng ở Đà Nẵng, được làm từ thịt heo nạc và ba chỉ, tẩm ướp gia vị, gói lá ch
+Nội dung: Tré bà Đệ Món tré nức tiếng ở Đà Nẵng, được làm từ thịt heo nạc và ba chỉ, tẩm ướp gia vị, gói lá chuối và ủ vài ngày. Giá tham khảo: 13000 VNĐ/hộp 10 chiếc.
+Tên tài liệu:  Nem Tré - Đặc Sản Đà Nẵng "Vạn Người Mê" mon-an-da-nang Nguồn ảnh: Foody Nem tré Đà Nẵng, với nguyê
+Nội dung: Nem Tré - Đặc Sản Đà Nẵng "Vạn Người Mê" mon-an-da-nang Nguồn ảnh: Foody Nem tré Đà Nẵng, với nguyên liệu chính là thịt heo và da heo được bọc trong lá chuối xanh, là món ăn chơi hấp dẫn mà bạn không thể bỏ qua. Nem tré được thêm nhiều phụ liệu như riềng, tỏi, ớt, tạo nên hương vị đậm đà, cay nồng đặc trưng. Cắn một miếng nem tré, bạn sẽ cảm nhận được sự giòn rụm của tai heo, vị cay nồng của gia vị và hương thơm của lá chuối. Nem tré Đà Nẵng cũng là một món quà cực kỳ "bắt vị" để bạn mang về tặng người thân và bạn bè sau chuyến du lịch. Các Địa Chỉ Mua Nem Tré Ngon Ở Đà Nẵng: Tré Bà Đệ: 81 Hải Phòng, quận Hải Châu, TP. Đà Nẵng Tré bà Cúc: 107 Hải Phòng, quận Hải Châu, TP. Đà Nẵng
+Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn tham khảo Mì Quảng: Được biết đến là món ăn nổi tiếng ở Đà Nẵng, với nhiều hương vị khác nhau như: Mì Quảng tôm, gà, chả cua, lươn… ăn kèm với bánh tráng nướng, đậu phộng rang… Để thưởng thức mì Quảng ngon tại Đà Nẵng, các bạn có thể tham khảo một số địa chỉ: Quán mì Quảng Thi (địa chỉ 251 Hoàng Diệu, Quận Hải Châu, Đà Nẵng). Mì được đánh giá rất ngon và đông khách, giá dao động từ 18-30k/ tô lớn với nhiều hương vị như mì gà, mì ếch, mì cá lóc… Quán mì Quảng Bà Mua (Địa chỉ 19 Trần Bình Trong, Quận Hải Châu, Đà Nẵng), giá khoảng 25k/tô. Quán mì Bà Vị (địa chỉ 166 Lê Đình Dương, Quận Hải Châu, Đà Nẵng), giá 25k/tô. Thưởng thức đặc sản Đà Nẵng không thể bỏ qua món bánh tráng cuốn thịt heo ngon nức tiếng. Sự kết hợp độc đáo giữa thịt luộc ăn kèm với các loại rau củ và nước mắm nêm làm nên sức hấp dẫn cho món ăn. Địa chỉ bánh tráng cuốn thịt heo ngon ở Đà Nẵng các bạn có thể tham khảo: Quán bánh tráng thịt heo Mậu (Địa chỉ 35 Đỗ thúc Tịnh, Quận Cẩm Lệ, Đà Nẵng), với 55k/suất no nê. Bánh tráng Quên Nhà (Địa chỉ K72/1C Hàm Nghi, Quận Thanh Khê, Đà Nẵng), giá 35k/suất. Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Bistecca – nhà hàng Ý tại The New Orient Hotel Đà Nẵng nằm ở tầng nào và phục vụ loại bữa ăn gì?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bistecca nằm ở tầng 7 của The New Orient Hotel, phục vụ buffet sáng phong phú trong không gian Ý sang trọng với tầm nhìn toàn cảnh thành phố.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Bistecca – nhà hàng Ý tại The New Orient Hotel nằm ở tầng 7 và phục vụ bữa sáng buffet.</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>The answer correctly states that Bistecca is located on floor 7 and serves a breakfast buffet, which is directly supported by the first document in the context. No information contradicts or is missing from the answer.</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>The answer correctly states that Bistecca is on floor 7 and serves a breakfast buffet, directly addressing both parts of the question.</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>The provided context explicitly states that Bistecca is on floor 7 and serves a breakfast buffet, directly supporting the answer. The other documents are unrelated, but the key information is clear and precise.</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>The context explicitly states that Bistecca is on the 7th floor of The New Orient Hotel and offers a rich breakfast buffet, matching both key facts in the ground truth.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Bữa sáng tại Bistecca – nhà hàng Ý sang trọng Bữa sáng buffet tại New Orient được phục vụ ở Bistecca
+Nội dung: Bữa sáng tại Bistecca – nhà hàng Ý sang trọng Bữa sáng buffet tại New Orient được phục vụ ở Bistecca, nhà hàng Ý sang trọng trên tầng 7 với cửa kính toàn cảnh, mang đến không gian thoáng đãng và tầm nhìn tuyệt đẹp ra đường chân trời Đà Nẵng. Thay vì trải dài nhiều quầy buffet gây náo loạn, ở đây mọi món ăn và đồ uống được sắp xếp gọn trong một khu vực trung tâm, giúp khách dễ dàng thưởng thức. Thực đơn phong phú với salad, món nóng, dim sum, trái cây, bánh mì, cà phê, nước ép, cùng quầy bún và phở thay đổi hàng ngày. Du khách có thể bắt đầu ngày mới bằng một tô Bún cá, Hủ tiếu Nam Vang hay Phở gà, kèm cappuccino trong không gian yên tĩnh và sang trọng.
+Tên tài liệu: Đánh giá tổng thể Với mức giá hợp lý, tiện nghi hiện đại và không gian ấn tượng, The New Orient Hote
+Nội dung: Đánh giá tổng thể Với mức giá hợp lý, tiện nghi hiện đại và không gian ấn tượng, The New Orient Hotel là lựa chọn tuyệt vời cho cả cặp đôi và khách du lịch cá nhân. Vị trí thuận tiện gần Cầu Rồng, bãi biển và các điểm tham quan chính, kết hợp với Rooftop Bar Gypsy phong cách Bali, khiến nơi đây trở thành một điểm dừng chân đáng giá. Nếu bạn muốn tìm một khách sạn boutique ấm cúng, hiện đại, nhưng vẫn có những trải nghiệm ẩm thực và giải trí đẳng cấp, New Orient chính là lựa chọn hoàn hảo tại Đà Nẵng. Thông tin liên hệ Địa chỉ: 20 Đống Đa, Hải Châu, Đà Nẵng 550000 Website: neworienthoteldanang.com Gypsy Rooftop Bar: thegypsydng.com
+Tên tài liệu:  Citron Restaurant Địa chỉ: Bãi Bắc, Bán đảo Sơn Trà, Sơn Trà Đà Nẵng Thời gian mở cửa: 08h00 – 23h0
+Nội dung: Citron Restaurant Địa chỉ: Bãi Bắc, Bán đảo Sơn Trà, Sơn Trà Đà Nẵng Thời gian mở cửa: 08h00 – 23h00 Nhà hàng Citron toạ lạc tại tầng cao cấp nhất của khách sạn InterContinental Đà Nẵng, là nơi mang đến cho bạn một trải nghiệm ẩm thực độc đáo và lôi cuốn. Với độ cao hơn 100 mét so với mực nước biển, Citron khiến cho bữa ăn của bạn trở nên thêm độc đáo hơn. Với thế tựa núi hướng biển, nhà hàng Đà Nẵng này cho phép thực khách vừa chiêm ngưỡng vẻ đẹp kỳ vĩ và mênh mông của thiên nhiên, vừa được thưởng thức những món ăn đặc trưng của Việt Nam và phương Tây. Citron không chỉ nổi bật với vị trí đắc địa, mà còn sở hữu một không gian ấn tượng và độc đáo. Bàn ăn được thiết kế theo hình dạng của chiếc nón úp ngược, tạo nên sự mới lạ và cuốn hút. Citron mang trong mình những thiết kế cách tân mang hồn Việt, với những chi tiết như lu nước và lò gạch, tạo điểm nhấn đặc biệt và tạo ấn tượng sâu sắc trong lòng mỗi vị khách.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Quán Huế Ngon trên đường Trần Quốc Toản, Đà Nẵng chuyên phục vụ loại hình ẩm thực nào?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>: Quán Huế Ngon nổi tiếng với BBQ Việt Nam, nơi thực khách tự nướng các món thịt, hải sản, ếch, mực trên bếp than.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Quán Huế Ngon trên đường Trần Quốc Toản chuyên phục vụ ẩm thực BBQ Việt Nam (nướng trên bếp than), đồng thời cũng có các món cuốn, lẩu và hải sản.</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The answer correctly states that Quán Huế Ngon specializes in BBQ Vietnamese cuisine, which is directly supported by the first document. It also accurately adds that the restaurant offers rolls, hot pot, and seafood, as mentioned in the third document. Therefore the answer is fully faithful to the provided context.</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>The answer directly states that Quán Huế Ngon specializes in Vietnamese BBQ (nướng trên bếp than), which precisely answers the question about the type of cuisine served. The additional details about rolls, hot pot, and seafood are supplementary but do not detract from the relevance.</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>The context contains multiple passages that explicitly mention Quán Huế Ngon on Trần Quốc Toản serving BBQ, cuốn, lẩu, and seafood, directly supporting the answer. Some parts are unrelated (e.g., other restaurants), but the core information is present and concise enough to justify a high precision score.</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>The context explicitly states that Quán Huế Ngon is famous for Vietnamese BBQ, where customers grill meats, seafood, frogs, and squid on a charcoal grill, matching all key facts in the ground truth.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: BBQ Việt Nam ở Đà Nẵng đặc biệt nổi tiếng, nhất là ở Quán Huế Ngon trên đường Trần Quốc Toản. Thực k
+Nội dung: BBQ Việt Nam ở Đà Nẵng đặc biệt nổi tiếng, nhất là ở Quán Huế Ngon trên đường Trần Quốc Toản. Thực khách có thể chọn nhiều nguyên liệu được ướp sẵn như mực, bạch tuộc, ếch, tôm, thịt heo, thịt bò, rồi nướng trực tiếp trên bếp than. Không khí náo nhiệt và hương thơm nồng nàn khiến trải nghiệm này càng trở nên hấp dẫn.
+Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: . Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi. Để thưởng thức món ăn này ngon đúng chuẩn, các bạn có thể tới quán trên đường Hùng Vương hoặc đường Trần Cao Vân rất ngon, rẻ từ 20k/bát. Bún bò Huế bà Thương đã có 20 năm nằm trên đường Trần Quốc Toản (gần ngã tư đường Yên Bái và Trần Quốc Toản)
+Tên tài liệu: Bánh tráng cuốn thịt heo và nhà hàng đa phong cách Bánh tráng cuốn thịt heo là lựa chọn tuyệt vời tr
+Nội dung: Bánh tráng cuốn thịt heo và nhà hàng đa phong cách Bánh tráng cuốn thịt heo là lựa chọn tuyệt vời trong những ngày nắng nóng. Thịt heo luộc thái mỏng cuốn cùng rau sống, xoài xanh, dưa leo, ăn kèm mắm nêm đậm đà. Nếu đi nhóm đông, bạn có thể chọn Bếp Cuốn Đà Nẵng, Nhà hàng Madame Lân hoặc Quán Huế Ngon, nơi vừa phục vụ cuốn, vừa có BBQ, lẩu và hải sản.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bún chả cá ở Đà Nẵng được chế biến từ loại cá nào và có gì đặc biệt trong nước lèo?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bún chả cá dùng cá thu, cá cam hoặc cá lạc, nướng rồi nấu nước lèo từ xương cá, bí đỏ, cà chua, măng khô tạo vị ngọt thanh đậm đà.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bún chả cá ở Đà Nẵng thường dùng chả cá làm từ cá thu, cá cam hoặc cá lạc (cá tươi xay nhuyễn), được ướp tỏi, muối, tiêu, ớt rồi nướng hoặc chiên. Nước lèo được hầm từ xương cá, bí đỏ, bắp cải, thơm, cà chua và măng khô, cho vị ngọt thanh, đậm đà và trong veo, thường kèm hành lá, rau thơm, giá đỗ để cân bằng hương vị.</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the provided context: it lists the fish species used (cá thu, cá cam, cá lạc) and describes the broth as being simmered from fish bones, pumpkin, cabbage, herbs, tomato, and dried bamboo shoots, yielding a sweet, rich, clear flavor. All details are directly supported by the documents, with no added or contradictory information.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>The answer directly identifies the fish varieties used in Da Nang bún chả cá (cá thu, cá cam, cá lạc) and describes the special ingredients and characteristics of the broth (hầm from fish bones, pumpkin, cabbage, tomato, dried bamboo shoots, etc.), fully addressing both parts of the question.</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>The provided context contains detailed, matching information about the fish types (cá thu, cá cam, cá lạc), seasoning (tỏi, muối, tiêu, ớt), cooking method (nướng/chiên), and the broth ingredients (xương cá, bí đỏ, bắp cải, cà chua, măng khô) along with the flavor profile and garnishes. This directly supports the answer, with only minor redundancy or slight variations in wording. Hence, the context precision is very high.</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>The context contains all key facts from the ground truth: it lists the fish types (cá thu, cá cam, cá lạc), specifies that the fish is grilled (nướng), and describes the broth as being simmered from fish bones, pumpkin (bí đỏ), tomato (cà chua), and dried bamboo shoots (măng khô), resulting in a sweet‑tender, rich flavor. Thus the recall is complete.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Bún chả cá Đà Nẵng Bún chả cá Đà Nẵng gây ấn tượng đặc biệt với du khách ở nước dùng ngọt đậm đà vị
+Nội dung: Bún chả cá Đà Nẵng Bún chả cá Đà Nẵng gây ấn tượng đặc biệt với du khách ở nước dùng ngọt đậm đà vị rau củ, vị cay của ớt, vị mặn đặc trưng của mắm ruốc và vị ngon của những lát chả cá hấp, chiên. Thưởng thức một tô bún cá nóng hổi thơm ngon sẽ là gợi ý tuyệt vời cho bữa sáng trước khi bắt đầu hành trình du lịch Đà Nẵng.
+Tên tài liệu: Bún chả cá là món ăn không thể bỏ qua với chả cá được làm từ cá thu, cá cam hoặc cá lạc, tẩm ướp tỏi
+Nội dung: Bún chả cá là món ăn không thể bỏ qua với chả cá được làm từ cá thu, cá cam hoặc cá lạc, tẩm ướp tỏi, muối, tiêu, ớt rồi nướng chín. Nước lèo được hầm từ xương cá, bí đỏ, bắp cải, thơm, cà chua và măng khô, mang đến vị ngọt thanh, đậm đà. Món ăn thường được thêm hành lá, rau thơm, giá đỗ để cân bằng hương vị.
+Tên tài liệu:  Bún Chả Cá - Đặc Sản Đà Nẵng "Chuẩn" Miền Biển mon-an-da-nang Nguồn ảnh: Foody Mì Quảng có thể là "
+Nội dung: Bún Chả Cá - Đặc Sản Đà Nẵng "Chuẩn" Miền Biển mon-an-da-nang Nguồn ảnh: Foody Mì Quảng có thể là "đặc sản quốc dân" của miền Trung, nhưng chỉ ở Đà Nẵng, bạn mới được thưởng thức phiên bản "ít bún nhiều chả" độc đáo. Chả cá ở đây được làm từ cá tươi xay nhuyễn, giữ nguyên vị ngọt tự nhiên và độ dai đặc trưng. Hòa quyện cùng nước lèo trong veo, đậm đà, món ăn này chắc chắn sẽ chinh phục cả những thực khách khó tính nhất. Đừng quên ghé thăm những quán bún chả cá nổi tiếng như Bà Lữ hay Bà Phiến để thưởng thức hương vị đặc trưng này nhé! Các Địa Chỉ Bán Bún Chả Cá Ngon Ở Đà Nẵng: Quán bún chả cá Bà Lữ: 319 Hùng Vương, Thanh Khê Quán bún chả cá Ông Tạ: 113 Nguyễn Chí Thanh Quán bún chả cá Bà Toải: 104 Trần Cao Vân Bún Bà Ân: 295 Hùng Vương, Thanh Khê Quán bún chả cá không tên: 109 đường Nguyễn Chí Thanh, TP. Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cơm tấm ở Đà Nẵng thường gồm những món gì và có thể tìm thấy ở đâu?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cơm tấm gồm sườn nướng, bì, chả trứng, trứng ốp la và dưa chua, dễ tìm tại các quán ăn vỉa hè trong trung tâm thành phố.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cơm tấm ở Đà Nẵng thường gồm sườn nướng, bì, chả trứng, kèm dưa chua, dưa leo, trứng ốp la và nước mắm pha. Bạn có thể dễ dàng tìm thấy món này ở các quán ăn vỉa hè khắp thành phố.</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>The answer accurately lists the typical components of Cơm tấm in Đà Nẵng (sườn nướng, bì, chả trứng, dưa chua, dưa leo, trứng ốp la, nước mắm pha) and correctly states that it can be found at street food stalls, which is directly supported by the context.</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>The answer accurately lists the typical components of Cơm tấm in Da Nang and specifies that it can be found at street food stalls throughout the city, directly addressing both parts of the question.</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>The first part of the context directly lists the same ingredients and location details as the answer, providing concise and relevant support. The additional documents about ram and com hen are unrelated, but they do not detract from the precision of the relevant portion. Hence the overall context precision is very high.</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>The context lists all the key components from the ground truth (sườn nướng, bì, chả trứng, trứng ốp la, dưa chua) and confirms that the dish is easy to find at street food stalls, matching the ground truth exactly.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Cơm tấm – món ăn phổ biến của người Việt – cũng rất được ưa chuộng tại Đà Nẵng. Một đĩa cơm tấm đầy 
+Nội dung: Cơm tấm – món ăn phổ biến của người Việt – cũng rất được ưa chuộng tại Đà Nẵng. Một đĩa cơm tấm đầy đủ thường gồm sườn nướng, bì, chả trứng, ăn kèm dưa chua, dưa leo, trứng ốp la và nước mắm pha. Giá rẻ, dễ tìm ở các quán ăn vỉa hè, cơm tấm trở thành lựa chọn lý tưởng cho những ai muốn một bữa ăn no và tiết kiệm.
+Tên tài liệu: 30. Ram Cuốn Lá Cải Đà Nẵng mon-ngon-da-nang Nguồn ảnh: Foody Bạn có thể tìm thấy món ram (hay còn g
+Nội dung: 30. Ram Cuốn Lá Cải Đà Nẵng mon-ngon-da-nang Nguồn ảnh: Foody Bạn có thể tìm thấy món ram (hay còn gọi là nem rán ở miền Bắc và chả giò chiên ở miền Nam) tại bất kỳ khu chợ nào. Vỏ ram thường được làm bằng bánh tráng, ôm lấy nhân thịt, tôm, khoai… rồi đem chiên đến khi chuyển màu vàng ươm. Cuốn một chiếc ram nhỏ bằng ngón tay cùng rau sống, ăn kèm với nước mắm chua ngọt thì phải nói là cực phẩm. Đừng bỏ qua món ăn Đà Nẵng này, #teamKlook nhé.  Mách Bạn Chỗ Ăn Ram Cuốn Lá Cải Ngon:  Gần chân cầu Trần Thị Lý  Quán Việt: số 16, Hoàng Hoa Thám, quận Hải Châu
+Tên tài liệu:  Cơm Hến - Món Ăn Ngon Giàu Dinh Dưỡng Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Cơm hến, món ăn que
+Nội dung: Cơm Hến - Món Ăn Ngon Giàu Dinh Dưỡng Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Cơm hến, món ăn quen thuộc của người dân miền Trung, cũng là một đặc sản không thể bỏ qua khi đến Đà Nẵng. Vị hến đậm đà, nước hến ngọt thanh, kết hợp cùng tóp mỡ giòn tan và các loại rau thơm - nghe qua có vẻ đậm vị nhưng thực chất lại rất thanh tao. Đây cũng là món ăn ít calo, giàu dinh dưỡng được #teamKlook yêu thích. Các Địa Chỉ Bán Cơm Hến Ngon Ở Đà Nẵng: Cơm Hến Xuyến Lợi: đối diện 636 Hải Phòng Cơm Hến Cô Giao: 364 trên 27 Lê Duẩn Cơm Hến Kiệt: 356 Hoàng diệu Cơm Hến – Cơ m hến Huế: 258 Trưng Nữ Vương, Hải Châu, TP. Đà Nẵng Cơm hến Thanh: 105 Huỳnh Thúc Kháng, Hải Châu, TP. Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>The New Orient Hotel Đà Nẵng nằm ở đâu và có vị trí thuận tiện như thế nào?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>The New Orient Hotel tọa lạc tại 20 Đống Đa, Hải Châu, chỉ mất khoảng 10 phút đi xe từ Cầu Rồng và gần các điểm tham quan chính.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The New Orient Hotel nằm ngay trung tâm thành phố Đà Nẵng, chỉ mất khoảng 10 phút đi xe từ Cầu Rồng, nên vị trí của khách sạn rất thuận tiện để di chuyển đến các điểm tham quan và trung tâm thương mại trong thành phố.</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the context: it states that The New Orient Hotel is located in the city center of Đà Nẵng and is about a 10‑minute drive from Cầu Rồng, highlighting its convenient location for accessing attractions and commercial centers. No details are omitted or contradicted, so the answer is fully faithful.</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>The answer directly states the hotel’s location in the city center and explains its convenience by noting the short travel time to a major landmark and ease of access to attractions and commercial areas, fully addressing both parts of the question.</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>The first document contains the exact location details (central Da Nang, 10‑minute drive from Cầu Rồng) that directly support the answer. The additional claim about convenient access to attractions and commercial centers is a reasonable inference from the central location, but not explicitly stated. The other documents are irrelevant, so overall context precision is high.</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>The context mentions that the hotel is only about 10 minutes by car from Cầu Rồng, which matches one key fact from the ground truth. However, it does not provide the specific address (20 Đống Đa, Hải Châu) nor explicitly state that it is close to major tourist attractions. Therefore, only part of the ground truth is recalled.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: The New Orient Hotel – viên ngọc ẩn mình giữa Đà Nẵng Nằm ngay trung tâm thành phố, chỉ mất khoảng 1
+Nội dung: The New Orient Hotel – viên ngọc ẩn mình giữa Đà Nẵng Nằm ngay trung tâm thành phố, chỉ mất khoảng 10 phút đi xe từ Cầu Rồng, The New Orient Hotel là khách sạn boutique mang đến bất ngờ cho nhiều du khách. Dù bên ngoài có vẻ hơi cổ điển với nội thất ánh bạc, vàng và quầy lễ tân nhỏ ngay cửa ra vào, nhưng khi bước vào bên trong, không gian hoàn toàn khác biệt: sảnh tầng 2 hiện đại, sáng sủa với sofa trắng tinh, cửa kính lớn, quầy lễ tân tinh tế, cùng dịch vụ thân thiện từ đội ngũ nhân viên. Tầng 2 còn có trung tâm business với máy tính Apple và máy in, cùng một phòng gym tiện nghi. Phòng nghỉ tiện nghi, view hồ bơi nhiệt đới Các phòng của khách sạn được thiết kế đơn giản nhưng hiện đại, sạch sẽ và đầy đủ tiện nghi. Với mức giá từ 38 USD, mỗi phòng có bồn tắm, vòi sen, két an toàn, đồ vệ sinh cá nhân và cả hai bồn rửa mặt riêng biệt. Điểm nhấn là ban công rộng rãi, hướng thẳng ra hồ bơi mang phong cách rừng nhiệt đới, tạo cảm giác thư giãn ngay trong lòng thành phố. Tuy nhiên, khách lưu trú cần lưu ý rằng tầng 2 có một hộp đêm, có thể gây ồn vào buổi tối. Lời khuyên là nên chọn phòng ở tầng cao (từ tầng 6 trở lên) để có trải nghiệm yên tĩnh hơn.
+Tên tài liệu: Gợi Ý Nơi Ở Một số khách sạn và resort gợi ý cho chuyến đi 3 ngày 2 đêm: Sandy Beach Non Nuoc Resort
+Nội dung: Gợi Ý Nơi Ở Một số khách sạn và resort gợi ý cho chuyến đi 3 ngày 2 đêm: Sandy Beach Non Nuoc Resort: nằm trên bãi biển Non Nước, có khung cảnh thiên nhiên đẹp. Da Nang – Mikazuki Japanese Resorts &amp; Spa: nổi bật với kiến trúc phong cách Nhật Bản, không gian rộng rãi, tiện nghi. Novotel Đà Nẵng Premier Han River: tọa lạc bên bờ sông Hàn, thuận tiện để ngắm cảnh thành phố về đêm. Chi Phí Tham Khảo (cho 1 người) Vé máy bay khứ hồi: ~700.000đ Khách sạn 2 đêm: ~500.000đ Ăn uống: ~8000đ Vé tham quan, di chuyển: ~670.000đ Khác: ~90.000đ Tổng: khoảng 68000đ/người
+Tên tài liệu:  Khách sạn Avora Boutique Đà Nẵng Địa chỉ: 136 Lê Duẩn, Thạch Thang, Hải Châu, Đà Nẵng Giá phòng: ch
+Nội dung: Khách sạn Avora Boutique Đà Nẵng Địa chỉ: 136 Lê Duẩn, Thạch Thang, Hải Châu, Đà Nẵng Giá phòng: chỉ từ 690.000 VNĐ/đêm Avora Boutique là khách sạn tuyệt đẹp nằm ở vị trí trung tâm thành phố Đà Nẵng. Khách sạn Avora Boutique Đà Nẵng cách chợ Hàn chỉ 1,2 km, gần các địa danh du lịch nổi tiếng khác như cầu sông Hàn, chợ Cồn. Khách sạn 3 sao này còn có quán bar, sân hiên cho du khách ngắm nhìn toàn quang cảnh thành phố Đà Nẵng. Để nói về phòng ốc tại khách sạn Đà Nẵng này thì thực sự Cuồng thấy không có điểm gì để chê. Các loại phòng nghỉ vô cùng đa dạng như phòng Grand Suite, phòng Superior, phòng dành cho gia đình và phòng Deluxe. Một điều Cuồng lưu ý bạn là tất cả các phòng trên đều là phòng không hút thuốc nhé. Các phòng ốc tại khách sạn Avora Boutique Đà Nẵng theo Cuồng thấy đều được lát sàn gỗ màu nâu trầm đi kèm với nội thất gỗ cùng tông màu trông rất sang trọng. Giường lớn phủ ga gối trắng muốt đem đến cảm giác vô cùng tinh tế, thanh lịch. Những du khách từng có thời gian nghỉ tại khách sạn Avora Boutique Đà Nẵng đều đánh giá khách sạn còn rất mới, nhân viên vô cùng nhiệt tình thân thiện. Điểm trừ là một số du khách nhận xét khách sạn 3 sao Đà Nẵng này phòng hơi nhỏ, bữa sáng chưa có nhiều lựa chọn. Đó là những lý do vì sao Cuồng xếp khách sạn Avora Boutique vào danh sách top 11 khách sạn 3 sao Đà Nẵng gần chợ Hàn, view đẹp giá rẻ dưới 790k/đêm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Phòng nghỉ tại The New Orient Hotel Đà Nẵng có đặc điểm gì nổi bật về thiết kế và tiện nghi?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Phòng được thiết kế hiện đại, có bồn tắm, két an toàn, hai bồn rửa mặt và ban công rộng hướng hồ bơi nhiệt đới.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Phòng nghỉ tại The New Orient Hotel được thiết kế đơn giản nhưng hiện đại, sạch sẽ và đầy đủ tiện nghi. Mỗi phòng có bồn tắm, vòi sen, két an toàn, đồ vệ sinh cá nhân và hai bồn rửa mặt riêng biệt. Điểm nổi bật là ban công rộng rãi, hướng thẳng ra hồ bơi mang phong cách rừng nhiệt đới, tạo cảm giác thư giãn ngay trong lòng thành phố.</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the details provided in the context about The New Orient Hotel’s rooms: simple yet modern design, cleanliness, full amenities (bathtub, shower, safe, toiletries, two washbasins), and the standout feature of a spacious balcony overlooking a tropical‑styled pool. No information is fabricated or omitted that would mislead the question.</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>The answer directly describes the design and amenities of the rooms, mentioning features such as modern simplicity, full facilities, and a standout balcony with a pool view, which aligns well with the question about standout design and amenities.</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>The context contains the exact details used in the answer, directly supporting every claim about design, amenities, and balcony view. No irrelevant or missing information is present.</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>The context from The New Orient Hotel explicitly lists all the key facts from the ground truth: modern design, bathtub, safe lock, two separate washbasins, and a wide balcony facing a tropical pool. No relevant detail is missing.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: The New Orient Hotel – viên ngọc ẩn mình giữa Đà Nẵng Nằm ngay trung tâm thành phố, chỉ mất khoảng 1
+Nội dung: The New Orient Hotel – viên ngọc ẩn mình giữa Đà Nẵng Nằm ngay trung tâm thành phố, chỉ mất khoảng 10 phút đi xe từ Cầu Rồng, The New Orient Hotel là khách sạn boutique mang đến bất ngờ cho nhiều du khách. Dù bên ngoài có vẻ hơi cổ điển với nội thất ánh bạc, vàng và quầy lễ tân nhỏ ngay cửa ra vào, nhưng khi bước vào bên trong, không gian hoàn toàn khác biệt: sảnh tầng 2 hiện đại, sáng sủa với sofa trắng tinh, cửa kính lớn, quầy lễ tân tinh tế, cùng dịch vụ thân thiện từ đội ngũ nhân viên. Tầng 2 còn có trung tâm business với máy tính Apple và máy in, cùng một phòng gym tiện nghi. Phòng nghỉ tiện nghi, view hồ bơi nhiệt đới Các phòng của khách sạn được thiết kế đơn giản nhưng hiện đại, sạch sẽ và đầy đủ tiện nghi. Với mức giá từ 38 USD, mỗi phòng có bồn tắm, vòi sen, két an toàn, đồ vệ sinh cá nhân và cả hai bồn rửa mặt riêng biệt. Điểm nhấn là ban công rộng rãi, hướng thẳng ra hồ bơi mang phong cách rừng nhiệt đới, tạo cảm giác thư giãn ngay trong lòng thành phố. Tuy nhiên, khách lưu trú cần lưu ý rằng tầng 2 có một hộp đêm, có thể gây ồn vào buổi tối. Lời khuyên là nên chọn phòng ở tầng cao (từ tầng 6 trở lên) để có trải nghiệm yên tĩnh hơn.
+Tên tài liệu:  Hyatt Regency Danang Resort &amp; Spa Tọa lạc trên bãi biển thơ mộng với cát trắng và yên bình, Hyatt R
+Nội dung: . Nội thất gỗ đều là các sản phẩm mang tính nghệ thuật mang lại một không gian hiện đại nhưng vẫn rất đậm chất phương đông đó nha. Hyatt Regency Danang Resort &amp; Spa với thiết kế hiện đại cùng lối kiến trúc theo phong cách Việt Nam, nội thất được sắp đặt theo nghệ thuật phương Đông tạo nên một nét thư giãn đặc trưng của Châu Á mà không phải khu nghỉ dưỡng cao cấp nào ở Đà Nẵng nói chung hay cả Việt Nam nói riêng có được đâu nha.
+Tên tài liệu:  Vinpearl Đà Nẵng Resort and Villas Ra đời với mong muốn tạo nên một không gian nghỉ dưỡng sang trọn
+Nội dung: Vinpearl Đà Nẵng Resort and Villas Ra đời với mong muốn tạo nên một không gian nghỉ dưỡng sang trọng, được tích hợp đầy đủ các dịch vụ, tiện ích đẳng cấp hàng đầu, Vinpearl Đà Nẵng Resort &amp; Villas 5 sao là chốn nghỉ dưỡng ở Đà Nẵng lý tưởng để bạn bỏ lại sau lưng những xô bồ trong công việc và cuộc sống thường ngày. Được thiết kế và xây dựng theo kiến trúc Chăm, kết hợp với nét cổ điển của Pháp cùng nhiều phong cách thiết kế đương đại khác, Vinpearl Đà Nẵng Resort &amp; Villas 5 sao đặc biệt sang trọng, lộng lẫy, hứa hẹn sẽ trở thành một trong những "thiên đường nghỉ dưỡng" hàng đầu của Việt Nam nói riêng và trong khu vực nói chung. Đây cũng là một trong những hệ thống khu nghỉ dưỡng Vinpearl tiêu chuẩn 5 sao tiện nghi nhất hiện nay. Cảm nhận đầu tiên của du khách khi đến với khu nghỉ dưỡng cao cấp ở Đà Nẵng này là không gian thanh bình nhưng ấm cúng, sang trọng nhưng cũng thật gần gũi với thiên nhiên. Tận dụng tối đa lợi thế về địa hình, Vinpearl Đà Nẵng Resort &amp; Villas 5 sao đã xây dựng khu khách sạn 5 sao với 200 phòng nghỉ sang trọng, tiện nghi. Không gian nghỉ dưỡng được thiết kế hoàn hảo theo phong cách đương đại kết hợp với vẻ đẹp lãng mạn, quyến rũ cổ điển tinh tế. Mỗi phòng nghỉ là một kiệt tác kiến trúc mà ở đó, bạn vừa có thể thưởng ngoạn vẻ đẹp tinh khôi và nên thơ của biển, vừa có thể chiêm ngưỡng sự hùng vĩ và bí ẩn của những dãy núi bao quanh</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Vì sao khách lưu trú tại The New Orient Hotel nên chọn phòng ở tầng cao?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nên chọn tầng 6 trở lên để tránh tiếng ồn từ hộp đêm ở tầng 2, giúp có trải nghiệm yên tĩnh hơn.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>The answer states that it cannot answer the question due to lack of information, but the context does not mention The New Orient Hotel at all. Therefore the answer neither uses the provided context nor addresses the question, making it completely unfaithful.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>The answer does not address the question at all; it merely states a lack of information, making it completely irrelevant.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>The provided context discusses other hotels (Renaissance Riverside Saigon and Phương Bắc) and does not mention The New Orient Hotel or any reasons for choosing high-floor rooms there. Therefore, it does not support the answer.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>The provided context discusses other hotels and their amenities but does not mention The New Orient Hotel, floor 6, or the noise issue from the basement. Therefore, none of the key facts from the ground truth are present.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Khách sạn Renaissance Renaissance Riverside Saigon là khách sạn 5 sao sang trọng thuộc tập đoàn Marr
+Nội dung: Khách sạn Renaissance Renaissance Riverside Saigon là khách sạn 5 sao sang trọng thuộc tập đoàn Marriott International, với 336 phòng nghỉ và phòng suite cao cấp cùng ẩm thực phong phú từ các món Á đến Âu, nổi tiếng với Bar Rooftop,.. hồ bơi ngoài trời. Trên tầng 21, bạn có thể ngắm nhìn Sông Sài Gòn xinh đẹp, mang lại sự hài lòng tối đa và trải nghiệm tốt nhất cho khách hàng.
+Tên tài liệu: Khách sạn Phương Bắc Với đặc điểm nổi bật là hồ bơi vô cực trên tầng thượng, sở hữu 99 phòng nghỉ ca
+Nội dung: Khách sạn Phương Bắc Với đặc điểm nổi bật là hồ bơi vô cực trên tầng thượng, sở hữu 99 phòng nghỉ cao cấp, tiện nghi, mang đến sự thoải mái và hiện đại tối đa. Được đánh giá là một trong những khách sạn hàng đầu ở phân khúc 4 sao dành cho tất cả khách hàng đi du lịch cùng gia đình, hay những chuyến công tác dài ngày Phương Bắc Sài Gòn luôn là sự lựa chọn hàng đầu.
+Tên tài liệu: Khách sạn Phương Bắc Với đặc điểm nổi bật là hồ bơi vô cực trên tầng thượng, sở hữu 99 phòng nghỉ ca
+Nội dung: Khách sạn Phương Bắc Với đặc điểm nổi bật là hồ bơi vô cực trên tầng thượng, sở hữu 99 phòng nghỉ cao cấp, tiện nghi, mang đến sự thoải mái và hiện đại tối đa. Được đánh giá là một trong những khách sạn hàng đầu ở phân khúc 4 sao dành cho tất cả khách hàng đi du lịch cùng gia đình, hay những chuyến công tác dài ngày Phương Bắc Sài Gòn luôn là sự lựa chọn hàng đầu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Gypsy Rooftop Bar tại The New Orient Hotel Đà Nẵng được thiết kế theo phong cách gì và có điểm nhấn nào?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Gypsy Rooftop mang phong cách Bohemian-chic, có hồ bơi vô cực, không gian xanh mát và tầm nhìn toàn cảnh thành phố.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó.</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>The provided context does not contain any information about Gypsy Rooftop Bar at The New Orient Hotel, so the answer correctly states that it cannot provide an answer due to lack of data. This is fully faithful to the given context.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information about the design style or highlights of Gypsy Rooftop Bar, merely stating inability to answer. It is completely irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>The provided context contains information about other rooftop bars (Sky36 Club, Brilliant Top Bar) but does not mention Gypsy Rooftop Bar or its design style and highlights. Therefore, the context does not support the answer, which is a refusal due to lack of information.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>The provided context contains no mention of Gypsy Rooftop, its Bohemian‑chic style, infinity pool, green space, or panoramic view, so it fails to recall any of the key facts from the ground truth.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Nightlife ở Đà Nẵng Đời sống về đêm ở Đà Nẵng đa dạng và sôi động, từ những rooftop bar sang trọng, 
+Nội dung: Nightlife ở Đà Nẵng Đời sống về đêm ở Đà Nẵng đa dạng và sôi động, từ những rooftop bar sang trọng, lounge tinh tế, quán bar thân thiện của cộng đồng expat cho đến các nightclub sôi động. Khách du lịch có thể hòa mình cùng người địa phương để thưởng thức nhạc EDM, house, trance, funk, hay những bản rock cổ điển được các ban nhạc sống trình diễn. Đồ uống ở Đà Nẵng nhìn chung khá rẻ so với nhiều thành phố khác, từ cocktail, bia địa phương cho đến rượu whisky lâu năm hay vang thượng hạng. Bạn có thể chọn thưởng thức thể thao, nhâm nhi đồ uống nhẹ nhàng hay “quẩy” tới sáng – tất cả đều có trong danh sách các điểm vui chơi đêm nổi bật sau đây.
+Tên tài liệu: Sky36 Club – Novotel Danang Premier Han River Nằm trên tầng 36 của khách sạn 5 sao Novotel Danang Pr
+Nội dung: Sky36 Club – Novotel Danang Premier Han River Nằm trên tầng 36 của khách sạn 5 sao Novotel Danang Premier Han River, Sky36 Club là rooftop bar cao nhất Đà Nẵng, với tầm nhìn toàn cảnh thành phố, sông Hàn và dãy núi xanh bao quanh. Đây là điểm hẹn yêu thích của du khách cao cấp và giới thượng lưu địa phương, mang đến không khí sang trọng, hiện đại. Âm nhạc ở đây thay đổi theo ngày, từ EDM, trance cho tới deep house và hip-hop. Quán không thu phí vào cửa, nhưng giá đồ uống cao hơn mặt bằng chung. Địa chỉ: Novotel Danang Premier Han River, 36 Bạch Đằng, Thạch Thang, Hải Châu, Đà Nẵng Giờ mở cửa: Hằng ngày, 18:00 – 02:00 Điện thoại: +84 981 204 521
+Tên tài liệu: Brilliant Top Bar – Brilliant Hotel Tọa lạc trên tầng thượng khách sạn Brilliant, Brilliant Top Bar 
+Nội dung: Brilliant Top Bar – Brilliant Hotel Tọa lạc trên tầng thượng khách sạn Brilliant, Brilliant Top Bar có sức chứa khoảng 100 khách, là nơi lý tưởng để thư giãn nhẹ nhàng buổi tối. Quán phục vụ bia lạnh, đồ ăn nhẹ kiểu Âu cùng tầm nhìn đẹp ra sông Hàn, biển Mỹ Khê và toàn cảnh thành phố. Không gian được thiết kế ấm cúng với ghế mây, ánh sáng dịu, âm nhạc nhẹ nhàng và vách kính hướng thẳng ra Cầu Rồng. Đặc biệt, quán có chương trình happy hour hằng ngày từ 17:00. Địa chỉ: Brilliant Hotel, 162 Bạch Đằng, Hải Châu, Đà Nẵng Giờ mở cửa: Hằng ngày, 16:00 – 21:00 Điện thoại: +84 91 219 63 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Bảo tàng Đà Nẵng ở 24 Trần Phú trưng bày những hiện vật thuộc chủ đề nào?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bảo tàng Đà Nẵng lưu giữ hơn 500 hiện vật về văn hóa, nông nghiệp và lịch sử chiến tranh của thành phố.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bảo tàng Đà Nẵng trưng bày các hiện vật liên quan đến nông nghiệp, văn hóa, lịch sử chiến tranh, trang phục, nhạc cụ, đồ trang sức cổ, các cuộc kháng chiến với Pháp và Mỹ, cũng như lịch sử, quá trình hình thành và đời sống xưa của vùng đất Quảng Đà.</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>The answer accurately lists all the themes mentioned in the context for the Đà Nẵng Museum at 24 Trần Phú: agriculture, culture, war history, clothing, musical instruments, antique jewelry, the French and American resistance, the region’s history and development, and the ancient way of life. No information is added or omitted that would misrepresent the source material.</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>The answer lists a comprehensive set of themes (agriculture, culture, war history, clothing, musical instruments, jewelry, anti-colonial struggles, regional history) that the museum displays, directly addressing the question about the themes of the artifacts. It is fully relevant and focused, though it could be slightly more concise.</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>The provided context contains multiple passages that directly mention the themes displayed at Bảo tàng Đà Nẵng (agriculture, culture, war history, clothing, musical instruments, jewelry, anti‑colonial struggles, and the historical development of Quảng Đà). Although one of the documents refers to a different museum, the majority of the context is concise and directly supports the answer. Hence a high precision score is appropriate.</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>The context explicitly states that Bảo tàng Đà Nẵng holds more than 500 artifacts covering agriculture, culture, and war history, matching all key facts in the ground truth.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Bảo tàng Đà Nẵng là nơi lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến
+Nội dung: Bảo tàng Đà Nẵng là nơi lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến tranh. Tại đây, du khách có thể tìm hiểu về quá khứ qua trang phục, nhạc cụ, đồ trang sức cổ, và một tầng chuyên đề về các cuộc kháng chiến với Pháp và Mỹ. (Địa chỉ: 24 Trần Phú, Hải Châu – Giờ mở cửa: 8h00–17h00).
+Tên tài liệu: Bảo tàng Điêu khắc Chăm Được thành lập từ năm 1915 dưới thời Pháp thuộc, bảo tàng lưu giữ hàng ngàn 
+Nội dung: Bảo tàng Điêu khắc Chăm Được thành lập từ năm 1915 dưới thời Pháp thuộc, bảo tàng lưu giữ hàng ngàn hiện vật từ thời Champa. Các tác phẩm điêu khắc được trưng bày trong 10 phòng triển lãm, phân loại theo biểu tượng, bệ đỡ, phù điêu và mảnh vỡ. Bảo tàng còn có quán cà phê và cửa hàng lưu niệm bán sách, quà lưu niệm. Địa chỉ: 02, đường 2/9, quận Hải Châu, Đà Nẵng Giờ mở cửa: Hằng ngày 7:30–11:00 &amp; 13:30–17:00 Điện thoại: +84 (0)236 357 4801
+Tên tài liệu:  Bảo tàng Đà Nẵng Địa chỉ: 24 Trần Phú, Thạch Thang, Hải Châu. Đây là nơi lưu giữ nhiều hiện vật, tá
+Nội dung: Bảo tàng Đà Nẵng Địa chỉ: 24 Trần Phú, Thạch Thang, Hải Châu. Đây là nơi lưu giữ nhiều hiện vật, tái hiện lịch sử và quá trình hình thành của vùng đất Quảng Đà từ thời sơ khai đến nay. Du khách có thể vừa tham quan, vừa tìm hiểu về văn hóa – lịch sử – đời sống xưa của Đà Nẵng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chùa Nam Sơn ở Hòa Vang, Đà Nẵng thu hút du khách bởi điểm nào đặc biệt?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Chùa Nam Sơn nổi bật với hàng nghìn đèn lồng đỏ, hồ sen xanh ngọc và không gian thanh tịnh cho du khách chiêm bái.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó.</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>The provided context does not contain any information about Chùa Nam Sơn, so the model’s response correctly acknowledges the lack of data and does not provide unsupported details. This is fully faithful to the given context.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>The answer does not address the question at all; it merely states an inability to answer, which is irrelevant to the requested information.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>The provided context does not mention Chùa Nam Sơn or any details about it, so it cannot support the answer.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>The provided context contains no mention of Chùa Nam Sơn or its distinctive features such as thousands of red lanterns, a blue lotus pond, or a tranquil atmosphere. Therefore, it does not cover any of the key facts needed to answer the question.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Top 10 địa điểm du lịch Đà Nẵng nổi tiếng Cầu Tình Yêu Đà Nẵng Núi Ngũ Hành Sơn Bãi biển Mỹ Khê Chùa
+Nội dung: Top 10 địa điểm du lịch Đà Nẵng nổi tiếng Cầu Tình Yêu Đà Nẵng Núi Ngũ Hành Sơn Bãi biển Mỹ Khê Chùa Linh Ứng Cầu Rồng (bổ sung để đủ top 10) Cung văn hóa thiếu nhi Đà Nẵng Bảo tàng 3D Trick Eye Suối khoáng Thần Tài Cù Lao Chàm
+Tên tài liệu:  Chùa Linh Ứng﻿ Đã đến lên đỉnh ngọn núi Thuỷ Sơn thì Cuồng không thể bỏ qua ngôi chùa Linh Ứng trên
+Nội dung: . Trong khuôn viên chùa bài trí hòn non bộ, hoa, cây cảnh sinh động. Chùa Linh Ứng Ngũ Hành Sơn đã được Bộ Văn hóa công nhận là Di tích lịch sử – văn hóa quốc gia. Nếu có dịp đến Đà Nẵng thì bạn đừng bỏ qua địa danh này, nơi có núi non thăm thẳm, trời xanh bao la và địa điểm tâm linh nổi tiếng, bạn còn yêu cầu nào nhiều hơn thế?!
+Tên tài liệu:  Chùa Non Nước Đà Nẵng Địa chỉ: số 8 Huyền Trân Công Chúa, phường Hòa Hải, Q. Ngũ Hành Sơn. Nằm trên
+Nội dung: Chùa Non Nước Đà Nẵng Địa chỉ: số 8 Huyền Trân Công Chúa, phường Hòa Hải, Q. Ngũ Hành Sơn. Nằm trên ngọn Thủy Sơn thuộc cụm núi Ngũ Hành Sơn, ngôi chùa hơn 300 năm tuổi này đã chứng kiến bao thăng trầm lịch sử của thành phố. Đây là một điểm đến linh thiêng và cổ kính không thể bỏ lỡ khi ghé Đà Nẵng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Bảo tàng Điêu khắc Chăm ở 2 Tháng 9, Hải Châu, Đà Nẵng trưng bày các hiện vật từ thời kỳ nào?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Bảo tàng trưng bày tác phẩm Champa từ thế kỷ VII–XV, gồm tượng sa thạch và đất nung mang đậm dấu ấn tôn giáo.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Bảo tàng trưng bày các hiện vật từ thời Champa, tức là các di sản của vương quốc Chăm‑pa cổ xưa.</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>The answer correctly states that the museum displays artifacts from the Champa period, which is directly supported by the context that repeatedly mentions the museum’s collection of Champa sculptures and its role in preserving the heritage of the ancient Champa kingdom.</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>The answer directly states that the museum displays artifacts from the Champa period, which precisely answers the question about the time period of the displayed artifacts.</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>The provided context explicitly states that the museum houses artifacts from the Champa period and refers to the ancient kingdom of Champa, directly supporting the answer. The information is concise, relevant, and unambiguous, with only minor repetitive details that do not detract from the relevance.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>The context mentions that the museum houses Champa artifacts made of stone, metal, and clay, but it does not specify the time period (7th–15th centuries) that is a key fact in the ground truth. Therefore, the context fails to recall the essential temporal detail required to answer the question.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Bảo tàng Điêu khắc Chăm Địa chỉ: số 2 đường 2/9, Hải Châu, Đà Nẵng. Đây là nơi trưng bày bộ sưu tập
+Nội dung: Bảo tàng Điêu khắc Chăm Địa chỉ: số 2 đường 2/9, Hải Châu, Đà Nẵng. Đây là nơi trưng bày bộ sưu tập hiện vật điêu khắc Chăm-pa lớn nhất thế giới với hơn 000 cổ vật bằng sa thạch, đồng, đất nung… Mỗi hiện vật đều phản ánh văn hóa rực rỡ của vương quốc Chăm-pa cổ xưa. Đây là điểm tham quan lý tưởng cho những ai yêu thích nghệ thuật và lịch sử.
+Tên tài liệu: Bảo tàng tại Đà Nẵng Bảo tàng Nghệ thuật Điêu khắc Chăm: nằm ở số 2 đường 2/9, quận Hải Châu, là nơi
+Nội dung: Bảo tàng tại Đà Nẵng Bảo tàng Nghệ thuật Điêu khắc Chăm: nằm ở số 2 đường 2/9, quận Hải Châu, là nơi duy nhất trưng bày di sản Chăm Pa. Mở cửa từ 7h đến 17h hằng ngày, vé tham quan 60.000 đồng/lượt. Có dịch vụ thuyết minh tự động và công nghệ scan 4D để tìm hiểu hiện vật.
+Tên tài liệu: Bảo tàng Điêu khắc Chăm Được thành lập từ năm 1915 dưới thời Pháp thuộc, bảo tàng lưu giữ hàng ngàn 
+Nội dung: Bảo tàng Điêu khắc Chăm Được thành lập từ năm 1915 dưới thời Pháp thuộc, bảo tàng lưu giữ hàng ngàn hiện vật từ thời Champa. Các tác phẩm điêu khắc được trưng bày trong 10 phòng triển lãm, phân loại theo biểu tượng, bệ đỡ, phù điêu và mảnh vỡ. Bảo tàng còn có quán cà phê và cửa hàng lưu niệm bán sách, quà lưu niệm. Địa chỉ: 02, đường 2/9, quận Hải Châu, Đà Nẵng Giờ mở cửa: Hằng ngày 7:30–11:00 &amp; 13:30–17:00 Điện thoại: +84 (0)236 357 4801</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Da Nang Climbing Gym ở 119B Mai Am, Hải Châu mang đến trải nghiệm gì cho khách tham quan?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Đây là khu leo núi trong nhà với nhiều độ khó, có đệm dày và huấn luyện viên hướng dẫn an toàn cho cả trẻ em lẫn người lớn.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Da Nang Climbing Gym là địa điểm vui chơi trong nhà, nơi cả trẻ em lẫn người lớn có thể thử sức leo các vách tường đầy màu sắc với nhiều độ khó khác nhau; khu vực được bố trí đệm dày để đảm bảo an toàn và nhân viên sẽ hướng dẫn tận tình cho khách tham quan.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the context: it states that Da Nang Climbing Gym is an indoor playground where children and adults can climb colorful walls of varying difficulty, with thick mats for safety and staff guidance. This directly matches the description provided in the context, so the answer is fully faithful.</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>The answer accurately describes the experience offered at Da Nang Climbing Gym—indoor climbing with varied difficulty, safety mats, and staff guidance—directly addressing what visitors can expect.</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>The context contains the exact description of Da Nang Climbing Gym, including its indoor nature, suitability for children and adults, colorful walls, varying difficulty, thick mats for safety, and staff guidance. This directly supports every claim in the answer, making the context highly precise.</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>The context fully contains the key facts from the ground truth: it describes an indoor climbing gym with multiple difficulty levels, thick mats for safety, and staff providing guidance for both children and adults. All elements of the ground truth are present, so recall is complete.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Da Nang Climbing Gym là địa điểm vui chơi trong nhà, nơi cả trẻ em lẫn người lớn có thể thử sức leo 
+Nội dung: Da Nang Climbing Gym là địa điểm vui chơi trong nhà, nơi cả trẻ em lẫn người lớn có thể thử sức leo các vách tường đầy màu sắc với nhiều độ khó khác nhau. Đệm dày được bố trí để đảm bảo an toàn, và nhân viên sẽ hướng dẫn tận tình. (Địa chỉ: 119B Mai Am, Hải Châu – Giờ mở cửa: 8h00–22h00).
+Tên tài liệu: Đến Đà Nẵng “nhuộm da” với những trải nghiệm thú vị Đà Nẵng không chỉ hấp dẫn bởi biển xanh, cát trắ
+Nội dung: Đến Đà Nẵng “nhuộm da” với những trải nghiệm thú vị Đà Nẵng không chỉ hấp dẫn bởi biển xanh, cát trắng, nắng vàng mà còn mang đến nhiều trải nghiệm ngoài trời đầy thú vị. Du khách không chỉ được thư giãn, vận động mà còn sở hữu một làn da rám nắng khỏe khoắn sau kỳ nghỉ. Chèo Sup trên biển Đà Nẵng Những năm gần đây, chèo Sup (Stand Up Paddleboard) đã trở thành hoạt động được nhiều người yêu thích khi đến Đà Nẵng. Bãi biển Nguyễn Tất Thành là điểm đến lý tưởng để thử môn thể thao này. Khởi hành từ sáng sớm, du khách có thể tận hưởng khung cảnh yên bình của biển, tập giữ thăng bằng trên ván và cảm nhận tiếng sóng vỗ nhẹ nhàng. Ban đầu có thể hơi khó khăn, nhưng khi quen dần, cảm giác tự tin và thư giãn sẽ nhanh chóng xuất hiện. Thư giãn tại suối Khe Ram Sau hành trình khám phá, một điểm dừng chân mát lành là suối Khe Ram, nằm ở thôn An Định, xã Hòa Bắc, huyện Hòa Vang, cách trung tâm Đà Nẵng khoảng 20km. Dù đường đi có phần gập ghềnh, nhưng bù lại là dòng nước trong xanh, không gian tĩnh lặng và cảnh quan hoang sơ. Ngâm mình dưới làn nước mát, lắng nghe âm thanh róc rách của suối chảy, du khách dễ dàng tìm thấy sự an yên, tạm gác lại những bộn bề cuộc sống. Lượn xe máy trên đèo Hải Vân Đèo Hải Vân – cung đường được mệnh danh đẹp nhất Việt Nam – luôn là lựa chọn hấp dẫn cho những ai đam mê phượt. Chạy xe máy men theo con đèo, một bên là núi xanh mướt, một bên là biển cả mênh mông. Vào buổi chiều tối, mây phủ trắng xóa, khung cảnh trở nên kỳ ảo
+Tên tài liệu: Công viên Châu Á Đà Nẵng – Sunworld Đà Nẵng Wonders Đà Nẵng đúng là thiên đường của các khu vui chơi
+Nội dung: Công viên Châu Á Đà Nẵng – Sunworld Đà Nẵng Wonders Đà Nẵng đúng là thiên đường của các khu vui chơi giải trí, nếu như phía trên Cuồng du lịch đã đưa các bạn đến với một trong những địa điểm du lịch nổi tiếng nhất Đà Nẵng là Bà Nà Hills rồi thì bây giờ cuồng sẽ đưa các bạn đến với thiên đường mặt đất của Đà Nẵng, đó là Asia Park hay còn gọi là Công viên Châu Á địa điểm du lịch Đà Nẵng Công viên Asia Park Đà Nẵng trở thành một điểm đến không thể bỏ qua khi du lịch Đà Nẵng. Được mệnh danh là kỳ quan nhân tạo của Đà Nẵng, Asia Park sở hữu hệ thống các trò chơi và giải trí cực kỳ hấp dẫn. Bạn có thể đi monorail ngắm cảnh công viên, hoặc lên ngay cabin Sunwheel để ngắm Đà Nẵng cả đêm lẫn ngày. Dành cho các bạn nào đang tò mò về quy mô của địa điểm du lịch Đà Nẵng này thì với diện tích lên đến gần 98ha, đây được xem là 1 trong những khu vui chơi giải trí tầm cỡ nhất VN đó nha. Toàn bộ công viên Châu Á Đà Nẵng được tạo dựng gồm ba khu vực chính: Công viên giải trí ngoài trời Công viên văn hóa với rất nhiều những công trình kiến trúc và nghệ thuật đã được thu nhỏ, là biểu trưng cho 10 quốc gia châu Á. Khu Sun Wheel là điểm giao thoa giữa vẻ đẹp hiện đại và truyền thống. Giá vé: 1000/ người, địa điểm du lịch Đà Nẵng này hay có nhiều đợt khuyến mãi vé hấp dẫn lắm nha, các bạn nhớ canh mua vé vào những ngày có bán vé công viên Châu Á giá rẻ đó nha Địa chỉ: 1 Phan Đăng Lưu, bên cạnh sông Hàn, đoạn giữa cầu Tiên Sơn và cầu Trần Thị Lý</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cầu Rồng ở Đà Nẵng có đặc điểm nổi bật gì khiến du khách thích thú?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Cầu Rồng là cây cầu độc đáo có thể phun lửa và nước vào cuối tuần, là biểu tượng hiện đại của Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cầu Rồng Đà Nẵng nổi bật với kiến trúc mô phỏng hình con rồng thời Lý vươn ra biển, là thiết kế độc đáo chưa từng có trên thế giới, kết hợp dầm thép, vòm thép và dầm bê tông. Đặc biệt, vào các khung giờ nhất định (bắt đầu lúc 21 giờ các ngày Thứ Bảy, Chủ nhật và các ngày lễ lớn) cầu còn “biểu diễn” phun lửa, phun nước, tạo nên một màn trình diễn ánh sáng và âm thanh thu hút du khách. Ngoài ra, hình dáng rồng bay qua sông Hàn và hệ thống chiếu sáng ban đêm khiến cầu trở thành một biểu tượng kiến trúc và điểm tham quan không thể bỏ qua khi đến Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the key points from the provided context: the dragon‑shaped architecture, the unique steel‑and‑concrete construction, the 21:00 fire and water shows on weekends and holidays, and the nighttime lighting that makes the bridge a landmark. No information is fabricated or omitted that would alter the meaning, so it is highly faithful.</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by listing the Dragon Bridge’s distinctive architectural design, its fire and water performances, lighting effects, and overall iconic status—all features that attract tourists. It is fully focused on the requested information.</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>The provided context documents contain detailed, accurate information about the Dragon Bridge’s architecture, fire and water performances, lighting, and its status as a landmark, directly supporting every claim in the answer. Minor unrelated mentions of other bridges or tourist packages do not significantly detract from the overall relevance.</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>The context documents collectively mention that Cầu Rồng is a unique bridge that performs fire and water displays on weekends, and it is described as a modern symbol of Đà Nẵng. All key facts from the ground truth are present, so the recall is very high.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Cầu Rồng Đà Nẵng  Một trong những biểu tượng bất hủ của du lịch Đà Nẵng đó là chiếc cầu có hình con 
+Nội dung: Cầu Rồng Đà Nẵng  Một trong những biểu tượng bất hủ của du lịch Đà Nẵng đó là chiếc cầu có hình con rồng độc nhất vô nhị này. Với kiến trúc hình một chú rồng đang vươn mình ra biển lớn, cầu Rồng Đà Nẵng gần như là điểm tham quan không thể bỏ qua khi đến du lịch Đà Nẵng. Ngoài ra, vào những khung giờ nhất định cầu Rồng còn “biểu diễn” phun lửa, phun nước rất độc đáo. Cầu Rồng Đà Nẵng có kiến trúc độc đáo mô phỏng hình con rồng thời Lý mạnh mẽ vươn ra biển, trở thành điểm nhấn quan trọng, là biểu tượng kiến trúc của thành phố. Nét đặc trưng của cầu dễ phân biệt đó là mô hình hệ thống kết cấu dầm thép dưới dạng một con rồng bay qua sông Hàn, hướng ra biển. Đây được cho là thiết kế độc đáo chưa từng có trên thế giới về kết cấu chịu lực là sự kết hợp giữa dầm thép, vòm thép và dầm bê tông. Mách bạn thông tin về thời gian phun lửa và phun nước: bắt đầu vào lúc 21 giờ các ngày Thứ Bảy, Chủ nhật hàng tuần và các ngày Lễ lớn. khách đi du lịch Đà Nẵng trọn gói 3 ngày 2 đêm mà có rơi vào 1 trong 2 đêm thứ 7 chủ nhật thì chắc chắn phải ra đây để ngắm cảnh. Còn nếu bạn là đi người đi du lịch Đà Nẵng tự túc thì không cần bàn cãi rồi, các bạn có thể đi dạo phố rồi trươc giờ phun nước 15 20p thì đến cầu rồng chờ đợi nhé.
+Tên tài liệu: Những cây cầu Đà Nẵng được mệnh danh là thành phố của những cây cầu. Nổi bật có cầu Rồng, cầu quay s
+Nội dung: Những cây cầu Đà Nẵng được mệnh danh là thành phố của những cây cầu. Nổi bật có cầu Rồng, cầu quay sông Hàn, cầu Trần Thị Lý, cầu tình yêu cùng tượng cá chép hóa rồng ngay cạnh. Cầu Rồng đông khách nhất vào tối thứ Bảy, Chủ Nhật với màn trình diễn phun lửa và phun nước lúc 21h. Trong thời gian diễn ra, cầu tạm dừng giao thông khoảng 15 phút. Cầu sông Hàn là cầu quay đầu tiên ở Việt Nam, biểu tượng sự đồng thuận của chính quyền và nhân dân thành phố. Ngoài ra, cầu Thuận Phước là cầu dây võng lớn nhất cả nước, còn cầu Trần Thị Lý mang tên nữ anh hùng quê Quảng Nam. Đêm xuống, khi hệ thống chiếu sáng được bật, các cây cầu tạo nên vẻ đẹp lung linh, khiến Đà Nẵng được gọi là "thành phố ánh sáng".
+Tên tài liệu:  Cầu Rồng Địa chỉ: P. An Hải Tây, Q. Sơn Trà, TP. Đà Nẵng. Đưa vào hoạt động năm 2013, điểm tham qua
+Nội dung: Cầu Rồng Địa chỉ: P. An Hải Tây, Q. Sơn Trà, TP. Đà Nẵng. Đưa vào hoạt động năm 2013, điểm tham quan Đà Nẵng cầu Rồng là một trong những địa điểm du lịch mới ở Đà Nẵng hấp dẫn du khách. Với thiết kế độc đáo mang hình dáng con rồng bắc qua sông Hàn thơ mộng, cầu Rồng là cây cầu thứ 7 tạo nên biểu tượng “thành phố của những cây cầu”. Đến đây vào các ngày cuối tuần, bạn còn xem được cảnh rồng phun lửa, phun nước sống động.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Từ The New Orient Hotel Đà Nẵng di chuyển đến Cầu Rồng bằng phương tiện nào thuận tiện nhất?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Du khách có thể đi taxi hoặc xe máy, chỉ mất khoảng 10 phút để đến Cầu Rồng từ The New Orient Hotel.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Taxi là phương tiện thuận tiện nhất để di chuyển từ The New Orient Hotel Đà Nẵng đến Cầu Rồng.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>The context describes taxis as convenient and quick, making them a suitable choice for short trips within Da Nang. While it does not explicitly state that taxis are the single most convenient option, it does not contradict the answer either. Therefore the answer is largely faithful to the provided information.</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>The answer directly states that a taxi is the most convenient way to travel from The New Orient Hotel in Da Nang to Cầu Rồng, which precisely addresses the question asked.</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>The context discusses general transportation options in Da Nang and notes that taxis are convenient, but it does not mention The New Orient Hotel or Cầu Rồng specifically. Thus it provides some support for the answer but lacks precise, direct evidence for that particular route.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>The context does not mention The New Orient Hotel, Cầu Rồng, or the 10‑minute travel time by taxi or motorcycle. None of the provided documents contain the specific facts from the ground truth, so the recall is essentially zero.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Di chuyển ở Đà Nẵng bằng phương tiện gì? Sau khi đã đến Đà Nẵng, việc đi lại trong thành phố rất dễ
+Nội dung: Di chuyển ở Đà Nẵng bằng phương tiện gì? Sau khi đã đến Đà Nẵng, việc đi lại trong thành phố rất dễ dàng vì các điểm du lịch nằm gần nhau. Một số phương tiện phổ biến: Taxi: tiện lợi, nhanh chóng nhưng chi phí khá cao. Phù hợp khi đi gia đình hoặc nhóm đông. Xe máy: phổ biến nhất với giới trẻ, vừa tiết kiệm chi phí vừa chủ động thời gian, địa điểm. Xích lô: ít người chọn nhưng là trải nghiệm hoài cổ, thong dong ngắm cảnh phố phường. Thuê ô tô: phù hợp nhóm hoặc gia đình đông người, nhưng chi phí cao và cần người rành đường. Xe buýt: nhiều tuyến, giá rẻ, hoạt động cả ngày. Tuy nhiên, mất thời gian chờ (15 – 20 phút/chuyến).
+Tên tài liệu: Di chuyển tại Đà Nẵng : Nói về phương tiện di chuyển tại Đà Nẵng thì đối với các bạn đi tour du lịch
+Nội dung: Di chuyển tại Đà Nẵng : Nói về phương tiện di chuyển tại Đà Nẵng thì đối với các bạn đi tour du lịch Đà Nẵng trọn gói như tour du lịch Đà Nẵng 3 ngày 2 đêm hay du lịch Đà Nẵng 4 ngày 3 đêm thì đã có sẵn ô tô. Riêng các bạn đi du lịch Đà Nẵng tự túc sẽ có nhiều lựa chọn.  Với các bạn trẻ cùng nhau đi du lịch Đà Nẵng tự túc có thể chọn phương án di chuyển bằng xe máy. Tại Đà Nẵng có rất nhiều điểm cho thuê xe máy đặt biệt là khu vực trung tâm hoặc bạn có thể nhờ khách sạn đặt dùm. Giá thuê xe máy tại Đà Nẵng chỉ từ 1000đ/ngày đối với xe số và 140.000đ/ngày đối với xe tay ga. Vậy là các bạn có thể vi vu khám phá mọi ngóc ngách của Đà thành. Riêng các bạn đi du lịch Đà Nẵng tự túc theo nhóm gia đình thì nên chọn phương án thuê ô tô hay đặt tour Đà Nẵng 1 ngày. Giá dịch vụ du lịch tại Đà Nẵng đều được niêm yết và công bố rõ ràng nên các bạn hoàn toàn có thể yên tâm khi sử dụng.
+Tên tài liệu: Đà Nẵng đón chuyến bay đầu tiên từ Dubai – cú hích mới cho du lịch Tối 2/6, chuyến bay EK370 của Emi
+Nội dung: Đà Nẵng đón chuyến bay đầu tiên từ Dubai – cú hích mới cho du lịch Tối 2/6, chuyến bay EK370 của Emirates khởi hành từ Dubai đã hạ cánh xuống sân bay quốc tế Đà Nẵng, mang theo 333 hành khách quốc tế. Đây là chuyến bay đầu tiên trong kế hoạch khai thác thường lệ của hãng trên đường bay Dubai – Bangkok – Đà Nẵng, với tần suất 4 chuyến/tuần. Đây cũng là tuyến bay thứ ba của Emirates đến Việt Nam, sau Hà Nội và TP. Hồ Chí Minh. Việc mở đường bay này giúp rút ngắn khoảng cách du lịch giữa Đà Nẵng với các thị trường tiềm năng như Trung Đông, châu Âu, Bắc Mỹ và châu Phi, đưa thành phố đến gần hơn với dòng khách quốc tế chất lượng cao. Theo bà Trương Thị Hồng Hạnh, Giám đốc Sở Văn hóa, Thể thao và Du lịch TP. Đà Nẵng, tuyến bay mới mở ra cơ hội kết nối thành phố với hơn 140 điểm đến toàn cầu, đặc biệt là các thị trường có mức chi tiêu du lịch cao. Để sẵn sàng đón khách, Đà Nẵng đã chuẩn bị hệ thống cơ sở vật chất, nâng cao chất lượng dịch vụ, đồng thời đào tạo chuyên sâu về văn hóa, phong tục và quy trình phục vụ phù hợp với các thị trường đặc thù, trong đó có khách Trung Đông. Ngoài ra, thành phố cũng đang triển khai các hoạt động kết nối doanh nghiệp du lịch, mở rộng thị trường quốc tế thông qua tuyến bay Dubai – Đà Nẵng, với mục tiêu tăng lượng khách hai chiều và khai thác đường bay bền vững, hiệu quả. Cảnh báo lừa đảo tour du lịch và vé xem Lễ hội Pháo hoa Quốc tế Đà Nẵng 2025 Công an TP</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Khi di chuyển giữa trung tâm Đà Nẵng và các điểm du lịch như Chợ Hàn hay Ngũ Hành Sơn, phương tiện nào được khuyên dùng?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Xe máy hoặc taxi là lựa chọn phổ biến vì các điểm nằm gần nhau trong phạm vi 5–10 km, di chuyển nhanh và tiện lợi.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Xe máy là phương tiện được nhiều du khách lựa chọn khi di chuyển giữa trung tâm Đà Nẵng và các điểm du lịch như Chợ Hàn hay Ngũ Hành Sơn, vì nó vừa tiết kiệm chi phí vừa cho phép tự do lựa chọn thời gian và lộ trình. Nếu muốn tiện lợi hơn và không muốn tự lái, taxi hoặc Grab cũng là lựa chọn, nhưng chi phí sẽ cao hơn. Xe buýt cũng có các tuyến đi đến các khu vực này với giá rẻ, tuy nhiên có thể phải chờ khoảng 15‑20 phút mỗi chuyến.</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the context, noting that many tourists choose motorbikes for traveling between central Da Nang and attractions like Chợ Hàn and Ngũ Hành Sơn, and also mentions taxis, Grab, and buses as alternatives. It does not contradict any information in the provided documents and aligns with the recommendation tone implied in the context.</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the recommended transportation options between Da Nang city center and tourist spots like Han Market and Ngu Hanh Son, providing the primary recommendation (motorbike) and alternative options (taxi/Grab, bus). It is fully relevant and focused on the question.</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>The context documents discuss various transportation options in Da Nang (bike, taxi, bus, etc.) and highlight the convenience and cost‑effectiveness of motorbikes, which directly supports the answer. While the specific tourist spots (Chợ Hàn, Ngũ Hành Sơn) are not named, the general guidance about moving between city center and attractions is covered, making the context largely relevant but not perfectly precise.</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>The context includes multiple passages that state taxi and motorbike (xe máy) are popular modes of transport in Da Nang, that tourist spots are close to each other, and that these options are fast and convenient. It does not explicitly mention the 5–10 km distance range, but the idea that points are close is conveyed. Overall, the key facts from the ground truth are largely present, warranting a high recall score.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Di chuyển ở Đà Nẵng bằng phương tiện gì? Sau khi đã đến Đà Nẵng, việc đi lại trong thành phố rất dễ
+Nội dung: Di chuyển ở Đà Nẵng bằng phương tiện gì? Sau khi đã đến Đà Nẵng, việc đi lại trong thành phố rất dễ dàng vì các điểm du lịch nằm gần nhau. Một số phương tiện phổ biến: Taxi: tiện lợi, nhanh chóng nhưng chi phí khá cao. Phù hợp khi đi gia đình hoặc nhóm đông. Xe máy: phổ biến nhất với giới trẻ, vừa tiết kiệm chi phí vừa chủ động thời gian, địa điểm. Xích lô: ít người chọn nhưng là trải nghiệm hoài cổ, thong dong ngắm cảnh phố phường. Thuê ô tô: phù hợp nhóm hoặc gia đình đông người, nhưng chi phí cao và cần người rành đường. Xe buýt: nhiều tuyến, giá rẻ, hoạt động cả ngày. Tuy nhiên, mất thời gian chờ (15 – 20 phút/chuyến).
+Tên tài liệu:  Phương tiện di chuyển tại Đà Nẵng Khi đến Đà Nẵng, bạn có thể thuê xe máy (100.000 – 150.000 VNĐ/ng
+Nội dung: Phương tiện di chuyển tại Đà Nẵng Khi đến Đà Nẵng, bạn có thể thuê xe máy (100.000 – 150.000 VNĐ/ngày) để chủ động vi vu; thuê ô tô tự lái (khoảng 800.000 VNĐ/ngày) nếu đi cùng gia đình hoặc nhóm đông; di chuyển bằng xe buýt (000 – 3000 VNĐ/lượt từ Đà Nẵng đi Hội An, Tam Kỳ); hoặc chọn Grab, taxi với sự tiện lợi nhưng giá cao hơn.
+Tên tài liệu: Di chuyển tại Đà Nẵng : Nói về phương tiện di chuyển tại Đà Nẵng thì đối với các bạn đi tour du lịch
+Nội dung: Di chuyển tại Đà Nẵng : Nói về phương tiện di chuyển tại Đà Nẵng thì đối với các bạn đi tour du lịch Đà Nẵng trọn gói như tour du lịch Đà Nẵng 3 ngày 2 đêm hay du lịch Đà Nẵng 4 ngày 3 đêm thì đã có sẵn ô tô. Riêng các bạn đi du lịch Đà Nẵng tự túc sẽ có nhiều lựa chọn.  Với các bạn trẻ cùng nhau đi du lịch Đà Nẵng tự túc có thể chọn phương án di chuyển bằng xe máy. Tại Đà Nẵng có rất nhiều điểm cho thuê xe máy đặt biệt là khu vực trung tâm hoặc bạn có thể nhờ khách sạn đặt dùm. Giá thuê xe máy tại Đà Nẵng chỉ từ 1000đ/ngày đối với xe số và 140.000đ/ngày đối với xe tay ga. Vậy là các bạn có thể vi vu khám phá mọi ngóc ngách của Đà thành. Riêng các bạn đi du lịch Đà Nẵng tự túc theo nhóm gia đình thì nên chọn phương án thuê ô tô hay đặt tour Đà Nẵng 1 ngày. Giá dịch vụ du lịch tại Đà Nẵng đều được niêm yết và công bố rõ ràng nên các bạn hoàn toàn có thể yên tâm khi sử dụng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mì Quảng là món đặc sản nổi tiếng của Đà Nẵng được ăn kèm với gì?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Mì Quảng là món đặc sản trứ danh của Đà Nẵng, ăn kèm bánh tráng và rau sống.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Mì Quảng thường được ăn kèm với bánh tráng nướng và đậu phộng rang.</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>The answer correctly states that Mì Quảng is typically served with bánh tráng nướng and đậu phộng rang, which is explicitly mentioned in the provided context. No contradictions or inaccuracies are present.</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>The answer mentions common accompaniments (bánh tráng nướng and đậu phộng rang) that are indeed served with Mì Quảng, but it omits other typical ingredients such as fresh herbs, bean sprouts, boiled eggs, and meats. Thus it is partially relevant but not fully comprehensive.</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>The context explicitly states that Mì Quảng is served with bánh tráng nướng and đậu phộng rang, directly supporting the answer. The additional information in the documents does not detract from this relevance, making the context highly precise.</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>The context mentions that Mì Quảng is served with bánh tráng (in several forms such as bánh tráng nướng and bánh tráng giòn) and also lists rau sống as part of the dish. Thus it covers both key facts from the ground truth, giving a high recall score.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn
+Nội dung: Ăn gì ở Đà Nẵng Sau đây Cuồng sẽ giưới thiệu 1 số địa chỉ ăn uống ngon bổ rẻ tại Đà Nẵng cho các bạn tham khảo Mì Quảng: Được biết đến là món ăn nổi tiếng ở Đà Nẵng, với nhiều hương vị khác nhau như: Mì Quảng tôm, gà, chả cua, lươn… ăn kèm với bánh tráng nướng, đậu phộng rang… Để thưởng thức mì Quảng ngon tại Đà Nẵng, các bạn có thể tham khảo một số địa chỉ: Quán mì Quảng Thi (địa chỉ 251 Hoàng Diệu, Quận Hải Châu, Đà Nẵng). Mì được đánh giá rất ngon và đông khách, giá dao động từ 18-30k/ tô lớn với nhiều hương vị như mì gà, mì ếch, mì cá lóc… Quán mì Quảng Bà Mua (Địa chỉ 19 Trần Bình Trong, Quận Hải Châu, Đà Nẵng), giá khoảng 25k/tô. Quán mì Bà Vị (địa chỉ 166 Lê Đình Dương, Quận Hải Châu, Đà Nẵng), giá 25k/tô. Thưởng thức đặc sản Đà Nẵng không thể bỏ qua món bánh tráng cuốn thịt heo ngon nức tiếng. Sự kết hợp độc đáo giữa thịt luộc ăn kèm với các loại rau củ và nước mắm nêm làm nên sức hấp dẫn cho món ăn. Địa chỉ bánh tráng cuốn thịt heo ngon ở Đà Nẵng các bạn có thể tham khảo: Quán bánh tráng thịt heo Mậu (Địa chỉ 35 Đỗ thúc Tịnh, Quận Cẩm Lệ, Đà Nẵng), với 55k/suất no nê. Bánh tráng Quên Nhà (Địa chỉ K72/1C Hàm Nghi, Quận Thanh Khê, Đà Nẵng), giá 35k/suất. Quán Bánh tráng Thịt Heo Bà Hường – 364 2 tháng 9, Quận Hải Châu, giá 50k/suất. Bún chả cá: Không khó để thưởng thức món ăn này tại nhiều nơi, nhưng bún chả cá Đà Nẵng có hương vị riêng biệt. Tô bún kết hợp với vị thanh ngọt của rau củ với nước lèo ăn một lần nhớ mãi
+Tên tài liệu: Mì Quảng và bún chả cá Nu Đồ là nơi nổi tiếng với mì Quảng – món ăn biểu tượng của Đà Nẵng. Đầu bếp 
+Nội dung: Mì Quảng và bún chả cá Nu Đồ là nơi nổi tiếng với mì Quảng – món ăn biểu tượng của Đà Nẵng. Đầu bếp Tuyết mang đến hương vị đầy sáng tạo, sợi mì vàng mềm, kết hợp nhiều topping như trứng, hoa chuối, lạc rang và bánh tráng giòn. Ngoài ra, Bún chả cá Hờn với nước dùng vàng óng từ nghệ, cà chua, thơm và rau củ đã trở thành món ăn quen thuộc suốt hơn 30 năm. Nếu nhớ hương vị phở, bạn có thể ghé Phở Việt Kiều, nơi phục vụ thực đơn đa dạng, thân thiện với du khách quốc tế. Với mì kéo thủ công, Ân Ký Mì Gia nổi bật với mì wonton, sủi cảo và bánh bao, mở cửa từ 6h sáng, có menu tiếng Anh rõ ràng.
+Tên tài liệu:  Mì Quảng - Món Ăn Đà Nẵng Nổi Tiếng Bốn Phương mon-an-da-nang Nguồn ảnh: Foody Đến Đà Nẵng mà chưa 
+Nội dung: Mì Quảng - Món Ăn Đà Nẵng Nổi Tiếng Bốn Phương mon-an-da-nang Nguồn ảnh: Foody Đến Đà Nẵng mà chưa thử Mì Quảng thì coi như chưa đến! Món ăn này không chỉ là đặc sản của người dân địa phương mà còn là niềm tự hào của ẩm thực miền Trung. Sợi mì Quảng dày, dai, được làm từ bột gạo, hòa quyện cùng nước lèo đậm đà từ xương hầm, tạo nên một nền tảng vững chắc cho "bản giao hưởng" hương vị. Thịt heo, thịt gà, tôm, chả lụa và rau sống tươi mát là những "nốt nhạc" thêm thắt, tạo nên sự phong phú cho món ăn. Các Địa Chỉ Bán Mì Quảng Ngon Ở Đà Nẵng: Mì Quảng Ánh: 45 Phạm Văn Nghị Mì Quảng Phú Chiêm: 63 Phạm Văn Nghị Mì Quảng Phú Chiêm: 75 Châu Thị Vĩnh Tế Quán Mì Quảng Thi: 251 Hoàng Diệu, quận Hải Châu, TP.Đà Nẵng Mì Quảng Bà Mua: 19 Trần Bình Trọng, quận Hải Châu, TP.Đà Nẵng Mì Quảng Bà Vị: 166 Lê Đình Dương, quận Hải Châu, TP.Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ở Đà Nẵng, món bánh tráng cuốn thịt heo thường được chấm với loại nước chấm nào đặc trưng?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bánh tráng cuốn thịt heo ở Đà Nẵng được chấm với mắm nêm đậm đà đặc trưng miền Trung.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Món bánh tráng cuốn thịt heo ở Đà Nẵng thường được chấm với nước mắm nêm đặc trưng.</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>The answer correctly states that bánh tráng cuốn thịt heo in Đà Nẵng is typically dipped in "nước mắm nêm" (mắm nêm), which is explicitly mentioned in the provided context. The answer is fully supported by the source material.</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>The answer directly states that the typical dipping sauce for bánh tráng cuốn thịt heo in Đà Nẵng is nước mắm nêm, which precisely addresses the question about the characteristic sauce.</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>The provided context contains multiple passages that explicitly mention "mắm nêm" (or "nước mắm nêm") as the dipping sauce for bánh tráng cuốn thịt heo in Đà Nẵng, directly supporting the answer. The references are clear, relevant, and concise, with no contradictory or irrelevant information.</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>The context includes multiple passages that mention bánh tráng cuốn thịt heo in Đà Nẵng, the use of mắm nêm as the dipping sauce, and describes the flavor as đậm đà (rich) characteristic of the Central region. All key facts from the ground truth are present, so the recall is very high.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Bánh tráng cuốn thịt heo Tuy được kết hợp từ những nguyên liệu đơn giản, quen thuộc nhưng bánh trán
+Nội dung: Bánh tráng cuốn thịt heo Tuy được kết hợp từ những nguyên liệu đơn giản, quen thuộc nhưng bánh tráng cuốn thịt heo Đà Nẵng lại sở hữu hương vị cuốn hút rất riêng. Đó là vị ngọt của thịt heo luộc thái mỏng, vị thanh mát của các loại rau sống, độ dẻo dai của bánh tráng và nhất là vị ngon khó cưỡng của bát mắm nêm pha theo công thức bí truyền.
+Tên tài liệu: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún 
+Nội dung: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún chả cá, bánh tráng cuốn thịt heo, hải sản tươi sống, chè xoa xoa hạt lựu… Mỗi món ăn là một nét văn hóa đặc trưng của vùng đất miền Trung nắng gió.
+Tên tài liệu:  Bánh Tráng Cuốn Thịt Heo - Đậm Đà Hương Vị Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh tráng cuốn 
+Nội dung: Bánh Tráng Cuốn Thịt Heo - Đậm Đà Hương Vị Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh tráng cuốn thịt heo thì ở đâu cũng có, nhưng đến Đà Nẵng, bạn sẽ được thưởng thức một "phiên bản nâng cấp" khiến vị giác phải "rung rinh". Bí quyết nằm ở miếng thịt heo "hai đầu da" - vừa mềm, vừa mỏng, lại có thêm lớp bì béo ngậy, chút mỡ chạy dọc theo thớ thịt, nhìn thôi đã thấy hấp dẫn! Cuốn miếng thịt thơm lừng cùng rau sống tươi mát trong lớp bánh tráng mềm dẻo, chấm vào chén mắm nêm "thần thánh" với tỏi ớt cay nồng, bạn sẽ cảm nhận được sự hòa quyện hoàn hảo của các hương vị, đấy. Ăn Bánh Tráng Cuốn Thịt Heo Ngon Ở Đà Nẵng Tại: Bánh tráng cuốn thịt heo Bi Mĩ: Chợ Cồn Quán Đại Lộc: 97 Trưng Nữ Vương Bánh tráng thịt heo Bà Hường: 126 Duy Tân Quán Trần: 4 Lê Duẩn, quận Hải Châu, TP. Đà Nẵng Quán Mậu: 35 Đỗ Thức Tịnh, quận Cẩm Lệ, TP. Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hải sản tươi sống ở Đà Nẵng thường được du khách thưởng thức ở khu vực nào?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Du khách thường ghé các quán ven biển Đà Nẵng để thưởng thức hải sản tươi sống như tôm, cua, ốc.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Du khách thường thưởng thức hải sản tươi sống tại các quán ven biển, đặc biệt là ở khu vực Sơn Trà và các địa chỉ nổi tiếng như Hải sản Nam Đảnh (K139/59/38 Trần Quang Khải), Hải sản Bé Mặn (08 Võ Nguyên Giáp), Hải sản Bà Rô (115 Lý Tử Tấn, Sơn Trà), Quán Lộng Gió (Lô 5‑6‑7 Trần Hưng Đạo, Quận Sơn Trà) và Cua Biển Quán (Lô 10, Võ Nguyên Giáp, Quận Sơn Trà).</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>The answer accurately reflects the information in the context, specifically citing the Sơn Trà area and the listed seafood restaurants. It directly matches the details provided and does not add unsupported claims.</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>The answer directly addresses the question by specifying the typical areas (Sơn Trà and nearby beachfront spots) where tourists enjoy fresh seafood in Da Nang, providing relevant details and examples.</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>The context includes a document that lists the same seafood restaurants and addresses mentioned in the answer, directly supporting it. However, the context also contains additional unrelated information, so it is not entirely concise.</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>The context contains the exact phrase from the ground truth: "Ghé các quán ven biển để thưởng thức tôm, cua, ốc tươi." This covers all key facts needed to answer the question about where tourists enjoy fresh seafood in Da Nang.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún 
+Nội dung: Thưởng thức ẩm thực Đà Nẵng Đà Nẵng hấp dẫn thực khách bằng loạt món ngon đặc sản như mì Quảng, bún chả cá, bánh tráng cuốn thịt heo, hải sản tươi sống, chè xoa xoa hạt lựu… Mỗi món ăn là một nét văn hóa đặc trưng của vùng đất miền Trung nắng gió.
+Tên tài liệu:  Thoả Thích Ăn Ốc &amp; Hải Sản Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Đà Nẵng đích thị là hiên đường
+Nội dung: Thoả Thích Ăn Ốc &amp; Hải Sản Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Đà Nẵng đích thị là hiên đường hải sản tươi sống. Bạn sẽ được thỏa sức khám phá những món ngon như mực nướng muối ớt, với vị cay nồng "bùng cháy". Hãy thử ngay mực cơm tươi ngon hoặc sò điệp nướng phô mai béo ngậy. Ốc và cua Huỳnh Đế - "linh hồn" của ẩm thực Đà Nẵng, không thử là tiếc hùi hụi đấy! Và đừng quên nghêu hấp sả, món ngon dân dã dễ dàng đánh thức vị giác. Hãy để vị giác của bạn được "phiêu lưu" trong thế giới hải sản tươi ngon và trải nghiệm không khí nhộn nhịp tại các chợ địa phương Đà Nẵng nhé! Các Địa Chỉ Ăn Hải Sản Ngon Ở Đà Nẵng: Hải sản Nam Đảnh: K139/59/38 Trần Quang Khải Hải sản Bé Mặn: 08 Võ Nguyên Giáp Hải sản Bà Rô: 115 Lý Tử Tấn, Sơn Trà Quán Lộng Gió: Lô 5 – 6 – 7 Trần Hưng Đạo, Quận Sơn Trà,TP. Đà Nẵng Cua Biển Quán: Lô 10, Võ Nguyên Giáp, Quận Sơn Trà, TP. Đà Nẵng
+Tên tài liệu: Món ngon nên thưởng thức khi đến Đà Nẵng Mì Quảng: Món đặc sản trứ danh, ăn kèm bánh tráng và rau số
+Nội dung: Món ngon nên thưởng thức khi đến Đà Nẵng Mì Quảng: Món đặc sản trứ danh, ăn kèm bánh tráng và rau sống. Bún chả cá: Nước dùng thanh, chả cá thơm dai, đậm chất miền Trung. Bánh tráng cuốn thịt heo: Cuốn thịt, rau sống, chấm mắm nêm đậm đà. Bánh xèo – nem lụi: Vỏ giòn, nem thơm, nước chấm béo ngon khó cưỡng. Hải sản tươi sống: Ghé các quán ven biển để thưởng thức tôm, cua, ốc tươi. Bún mắm nêm: Mắm nêm đặc trưng, ăn cùng thịt luộc, nem, rau. Chè xoa xoa hạt lựu: Món tráng miệng mát lạnh, ngọt dịu, ăn giải nhiệt. Nơi lưu trú khi đến du lịch Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Món chè nào được xem là tráng miệng mát lạnh, phổ biến tại Đà Nẵng?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Chè xoa xoa hạt lựu là món tráng miệng mát lạnh, ngọt dịu, giúp giải nhiệt ở Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Chè Xoa Xoa Hạt Lựu là món chè mát lạnh, rất được ưa chuộng tại Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies Chè Xoa Xoa Hạt Lựu as a cold dessert popular in Đà Nẵng, which is explicitly stated in the provided context. No misinformation or omission is present.</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>The answer directly identifies a cold dessert popular in Da Nang, precisely addressing the question.</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>The context includes a document titled "Chè Xoa Xoa Hạt Lựu - Món Ngọt Nổi Tiếng Đà Nẵng" that explicitly describes the dessert as a cold, popular treat in Đà Nẵng, directly supporting the answer. The other documents are unrelated but do not diminish the relevance of the key excerpt.</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>The context contains a detailed description of Chè Xoa Xoa Hạt Lựu, explicitly stating it is a cold, sweet dessert that helps cool down, and it is popular in Đà Nẵng. This covers all key facts from the ground truth, making the recall very high.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Cuối cùng, chè là món tráng miệng không thể bỏ qua. Người dân Đà Nẵng thường ăn chè vào buổi chiều h
+Nội dung: Cuối cùng, chè là món tráng miệng không thể bỏ qua. Người dân Đà Nẵng thường ăn chè vào buổi chiều hay tối mát. Có thể chọn chè hạt sen, chè đậu xanh hoặc chè thập cẩm nhiều màu sắc, ăn cùng đá bào và nước cốt dừa. Địa chỉ quen thuộc: 31 Lê Duẩn.
+Tên tài liệu: Rau câu trái dừa là món tráng miệng mát lạnh, được làm từ nước dừa và thạch agar-agar. Lớp trên là k
+Nội dung: Rau câu trái dừa là món tráng miệng mát lạnh, được làm từ nước dừa và thạch agar-agar. Lớp trên là kem dừa béo mịn, lớp dưới là thạch giòn nhẹ, ngọt thanh. Dọc đường Bạch Đằng ven sông Hàn, bạn có thể dễ dàng tìm thấy nhiều quán bán món ăn này – đặc biệt phù hợp cho những ai ăn chay hoặc muốn món ngọt nhẹ nhàng.
+Tên tài liệu:  Chè Xoa Xoa Hạt Lựu - Món Ngọt Nổi Tiếng Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Nếu bạn muốn tìm k
+Nội dung: Chè Xoa Xoa Hạt Lựu - Món Ngọt Nổi Tiếng Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Nếu bạn muốn tìm kiếm một món chè giải khát mới lạ, chè xoa xoa hạt lựu Đà Nẵng sẽ là một gợi ý thú vị. Sự kết hợp giữa vị ngọt mát của hạt lựu, thạch đen dai dai, xoa xoa mềm mịn và trân châu dẻo dai trong nước cốt dừa béo ngậy sẽ khiến bạn không thể dừng lại ở giới hạn "một ly". Món chè này không chỉ ngon miệng mà còn có tác dụng giải nhiệt, đặc biệt phù hợp trong những ngày hè nóng bức. Các Địa Chỉ Ăn Chè Xoa Xoa Hạt Lựu Ngon Ở Đà Nẵng: Chè hạt lựu Cô Châm: 374/6 Núi Thành Xoa xoa hạt lựu O Châm Chợ Cồn: 187 Hải Phòng, quận Thanh Khê, TP. Đà Nẵng Chè xoa xoa Trần Bình Trọng: 46 Trần Bình Trọng, quận Hải Châu, TP. Đà Nẵng Chè xoa xoa Phan Thanh: 111 Phan Thanh, quận Thanh Khê, TP. Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Quán ăn nào tại Đà Nẵng nổi tiếng với bánh xèo giòn và nem lụi thơm ngon?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Bánh xèo – nem lụi là món ăn phổ biến tại nhiều quán Đà Nẵng, nổi bật với vỏ giòn và nước chấm béo thơm.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Quán Bà Dưỡng (địa chỉ K280/23 Hoàng Diệu, quận Hải Châu, TP. Đà Nẵng) nổi tiếng với bánh xèo giòn rụm và nem lụi thơm ngon.</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies Quán Bà Dưỡng as the famous eatery in Đà Nẵng known for crispy bánh xèo and fragrant nem lụi, which is explicitly stated in multiple parts of the provided context. No misinformation or omission is present.</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>The answer directly identifies a specific restaurant in Da Nang that is known for crispy bánh xèo and fragrant nem lụi, exactly matching the question's request.</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>The provided context explicitly names Quán Bà Dưỡng, gives its address (K280/23 Hoàng Diệu, quận Hải Châu, TP. Đà Nẵng), and describes its bánh xèo as giòn rụm and nem lụi as thơm ngon. All key details in the answer are directly supported by the context, with no contradictory or irrelevant information.</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>The context includes the key facts from the ground truth: bánh xèo and nem lụi are popular in Đà Nẵng, the bánh has a crispy crust (vỏ giòn) and a rich, creamy sauce (nước chấm béo ngậy). It also names a specific well‑known restaurant, Bà Dưỡng, which satisfies the question about a famous spot. The only minor shortfall is that the ground truth does not specify a particular restaurant, so the context adds extra detail rather than missing any core facts.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Bánh xèo Đà Nẵng nổi bật với màu vàng nghệ, rán trên chảo nóng cho vỏ giòn rụm. Nhân bánh gồm thịt h
+Nội dung: Bánh xèo Đà Nẵng nổi bật với màu vàng nghệ, rán trên chảo nóng cho vỏ giòn rụm. Nhân bánh gồm thịt heo, tôm, hành tây, giá đỗ và nấm. Khi ăn, thực khách xé nhỏ, cuốn cùng rau sống và bánh tráng, chấm với nước sốt đậu phộng béo ngậy. Quán Bà Dưỡng (280/23 Hoàng Diệu) là địa chỉ lâu đời nổi tiếng.
+Tên tài liệu: Bánh xèo, nem lụi và bánh bột lọc Một trải nghiệm đặc trưng Đà Nẵng là bánh xèo và nem lụi, ăn kèm n
+Nội dung: Bánh xèo, nem lụi và bánh bột lọc Một trải nghiệm đặc trưng Đà Nẵng là bánh xèo và nem lụi, ăn kèm nước chấm đậm đà từ gan, lạc và gia vị. Bánh xèo Bà Dưỡng là địa chỉ nổi tiếng với không gian giản dị, dịch vụ nhanh và hương vị truyền thống. Ngoài ra, các loại bánh Huế như bánh bèo, bánh nậm, bánh bột lọc cũng rất được ưa chuộng, trong đó Bánh bèo Bà Bé là nơi nổi tiếng để thử nhiều loại bánh với giá bình dân.
+Tên tài liệu:  Bánh Xèo &amp; Nem Lụi Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh xèo và nem lụi, hai món ăn dân dã
+Nội dung: Bánh Xèo &amp; Nem Lụi Ở Đà Nẵng mon-an-da-nang Nguồn ảnh: Foody Bánh xèo và nem lụi, hai món ăn dân dã nhưng không kém phần hấp dẫn, là sự lựa chọn tuyệt vời cho những ai muốn khám phá ẩm thực Đà Nẵng. Bánh xèo giòn rụm, nhân tôm thịt thơm lừng, ăn kèm rau sống tươi mát và nước mắm chấm đậm đà, sẽ khiến bạn "tan chảy" trong từng miếng cắn. #teamKlook có thể gọi thêm vài xiên nem lụi nướng than thơm phức, rất ư là nịnh vị. Các Địa Chỉ Bán Bánh Xèo - Nem Lụi Ngon Ở Đà Nẵng: Quán bánh xèo Đà Nẵng: 130 Mẹ Suốt Bánh xèo Bà Thúy: 319 Trưng Nữ Vương Bánh xèo Đà Nẵng: 313 Hà Huy Tập Quán Bà Dưỡng: K280/23 Hoàng Diệu, quận Hải Châu, TP. Đà Nẵng Quán cô Mười: 23 Châu Thị Vĩnh Tế, quận Ngũ Hành Sơn, TP. Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Danh thắng Ngũ Hành Sơn được định hướng phát triển theo loại hình du lịch nào?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Danh thắng Ngũ Hành Sơn được định hướng phát triển thành điểm đến tâm linh và thiên nhiên mang tính biểu tượng.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>The provided answer correctly states that it cannot answer the question due to lack of information. The context does not contain any explicit statement about the type of tourism development for Ngũ Hành Sơn, so the answer is faithful to the available information.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information about the type of tourism for Ngu Hang Son; it merely states inability to answer, making it irrelevant.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>The provided context contains general descriptions of Ngũ Hành Sơn but does not mention its development orientation or type of tourism. The answer given is a refusal to answer, which is not supported by the context. Therefore the context precision is 0.0.</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>The context contains multiple references to Ngũ Hành Sơn as a spiritual (địa linh) and natural attraction, describing it as a symbolic tourist destination. It covers the key facts of the ground truth, though it does not explicitly state the phrase "điểm đến tâm linh và thiên nhiên mang tính biểu tượng" verbatim, it conveys the same meaning.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Ngũ Hành Sơn Đà Nẵng  Ngày trước nếu chưa có Bà Nà Hills thì Ngũ Hành Sơn là địa điểm du lịch Đà Nẵn
+Nội dung: Ngũ Hành Sơn Đà Nẵng  Ngày trước nếu chưa có Bà Nà Hills thì Ngũ Hành Sơn là địa điểm du lịch Đà Nẵng được nhiều người ưa thích nhất. thậm chí nó còn được xem là biểu tượng của du lịch Đà Nẵng nữa cơ. Các bạn biết vì sao Ngũ Hành Sơn Đà Nẵng được xem là địa điểm du lịch Đà Nẵng nổi tiếng không? Bởi vì Ngũ Hành Sơn có 5 ngọn núi đá vôi sừng sững, hiên ngang và có những hang động tuyệt đẹp nữa. Ngũ Hành Sơn là một địa danh du lịch Đà Nẵng được rất nhiều du khách trong nước và quốc tế biết đến. Ngũ Hành Sơn là tên chung của danh thắng gồm 5 ngọn núi đá vôi nhô lên giữa giữa bãi cát ven biển ở Đà Nẵng. Ngũ Hành Sơn gồm có: Kim Sơn, Mộc Sơn, Thủy Sơn, Hỏa Sơn và Thổ Sơn. Nhiều tour du lịch Đà Nẵng trọn gói 3 ngày 2 đêm luôn có địa điểm du lịch Đà Nẵng này. nhưng cũng có nhiều nhóm khách đi du lịch Đà Nẵng tự túc vẫn có thể ghé qua tham quan, thăm viếng bởi vì địa điểm du lịch Đà Nẵng này đường rất dễ đi. Địa chỉ: Hoà Hải, quận Ngũ Hành Sơn, Đà Nẵng Ngũ hành Sơn nằm đối diện với biển Non Nước, cũng là một trong nhưng địa điểm du lịch Đà Nẵng nổi tiếng và biển Non Nước cũng là bãi biển đẹp nhất Đà Nẵng nữa đó các bạn. nhắc tới biển Non Nước thì giờ mình sẽ qua địa điểm du lịch Đà Nẵng này luôn nhé. Bãi tắm Non Nước Đà Nẵng  Nhiều người cho rằng đối với họ, địa điểm du lịch Đà Nẵng đáng để đi nhất là bãi biển Non Nước Đà Nẵng đó các bạn
+Tên tài liệu: Hướng Dẫn Thăm Quan NGŨ HÀNH SƠN Đà Nẵng Chi Tiết Ngũ Hành Sơn hay núi Non Nước là tên chung của 6 n
+Nội dung: Hướng Dẫn Thăm Quan NGŨ HÀNH SƠN Đà Nẵng Chi Tiết Ngũ Hành Sơn hay núi Non Nước là tên chung của 6 ngọn núi đá vôi nhô lên sau một bãi cát ven biển, có diện tích khoảng 2000km2 nơi đây là một thắng cảnh nổi tiếng Đà Nẵng với phong cảnh non nước tuyệt đẹp và nhiều hang động huyền bí, trong ký ức của nhiều người đây còn là vùng “địa linh” của xứ Quảng xưa nay, nơi đây hội tụ vẻ đẹp của núi, của biển, của cả những giá trị lịch sử, văn hoá, tâm linh. Một điểm đến thật hấp dẫn đúng không nào? hôm nay hãy đồng hành cùng Cuồng và Cuồng sẽ tổng kết lại kinh nghiệm du lịch Ngũ Hành Sơn và hướng dẫn tất tần tật lịch trình tham quan vui chơi ở Ngũ Hành Sơn cho các bạn cùng khám phá nơi đây nhé!
+Tên tài liệu:  Chùa Linh Ứng﻿ Đã đến lên đỉnh ngọn núi Thuỷ Sơn thì Cuồng không thể bỏ qua ngôi chùa Linh Ứng trên
+Nội dung: . Trong khuôn viên chùa bài trí hòn non bộ, hoa, cây cảnh sinh động. Chùa Linh Ứng Ngũ Hành Sơn đã được Bộ Văn hóa công nhận là Di tích lịch sử – văn hóa quốc gia. Nếu có dịp đến Đà Nẵng thì bạn đừng bỏ qua địa danh này, nơi có núi non thăm thẳm, trời xanh bao la và địa điểm tâm linh nổi tiếng, bạn còn yêu cầu nào nhiều hơn thế?!</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Bán đảo Sơn Trà nổi bật với công trình tôn giáo nào?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Bán đảo Sơn Trà có chùa Linh Ứng, thắng cảnh thiên nhiên và hệ sinh thái phong phú, được định hướng thành khu du lịch quốc gia.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>The answer states it cannot provide an answer due to lack of information, but the context does not contain any relevant data. Therefore the response is not faithful to the question or the available context.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>The answer does not address the question at all; it simply states a lack of information, making it completely irrelevant.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>The context is empty, providing no information to support the answer.</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>The provided context is empty, so it contains none of the key facts from the ground truth about Bán đảo Sơn Trà, including the presence of Chùa Linh Ứng.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Bà Nà Hills ở Đà Nẵng được phát triển theo định hướng du lịch gì?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Bà Nà Hills được phát triển thành tổ hợp nghỉ dưỡng và giải trí cao cấp theo chủ đề, tận dụng khí hậu và cảnh quan tự nhiên.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Bà Nà Hills được phát triển theo định hướng du lịch giải trí, là một khu du lịch vui chơi với các công trình, trò chơi và trải nghiệm như cáp treo, Cầu Vàng, làng Pháp cổ và Fantasy Park.</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>The answer correctly states that Bà Nà Hills is developed as an entertainment tourism destination, which is directly supported by the context that describes it as a "khu vui chơi giải trí" (entertainment park) with attractions such as cable cars, the Golden Bridge, French village, and Fantasy Park. No contradictory information is present.</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>The answer directly states that Bà Nà Hills was developed with an entertainment tourism orientation, which precisely addresses the question.</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>The context includes multiple passages that explicitly describe Bà Nà Hills as a "khu vui chơi giải trí" (entertainment park) with attractions such as the cable car, Golden Bridge, French Village, and Fantasy Park. These details directly support the answer that Bà Nà Hills is developed with an entertainment tourism orientation. While the context is somewhat lengthy and contains additional unrelated information, the relevant parts are clear and directly relevant, warranting a high precision score.</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>The context mentions Bà Nà Hills as a high‑end entertainment complex and references its climate (four seasons in one day) and scenic setting, but it does not explicitly state that it was developed as a themed resort and entertainment complex that leverages climate and natural scenery. Therefore, it partially recalls the key facts but does not cover them fully.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Bà Nà Hills (bổ sung để đủ top 10) Đà Nẵng có rất nhiều địa điểm du lịch vui chơi cả ở tro
+Nội dung: Bà Nà Hills (bổ sung để đủ top 10) Đà Nẵng có rất nhiều địa điểm du lịch vui chơi cả ở trong nội thành lẫn ngoại thành. Nếu có dịp đến Đà Nẵng du lịch, bạn nhất định không nên bỏ qua những địa điểm nổi tiếng như:  Cầu tình yêu Đà Nẵng Nổi bật bên bờ sông Hàn, cầu Tình Yêu mang đến không khí lãng mạn và là nơi được rất nhiều cặp đôi đến để móc khóa, lưu giữ kỷ niệm tình yêu. Bên cạnh đó, nơi đây còn có biểu tượng “Cá chép hóa rồng” nổi tiếng của Đà Nẵng, là địa điểm check-in rất được yêu thích. Địa chỉ: đường Trần Hưng Đạo, An Hải Trung, Sơn Trà, Đà Nẵng.  Núi Ngũ Hành Sơn Ngũ Hành Sơn là danh thắng gồm 5 ngọn núi đá vôi: Kim Sơn, Mộc Sơn, Thủy Sơn, Hỏa Sơn và Thổ Sơn, nhô lên giữa bãi cát ven biển ở Đà Nẵng. Trong đó, Thủy Sơn là ngọn lớn nhất, cao nhất và đẹp nhất nên đã trở thành điểm đến hấp dẫn để khám phá, chinh phục. Địa chỉ: Hoà Hải, quận Ngũ Hành Sơn, Đà Nẵng.  Bãi Biển Mỹ Khê Bãi biển Mỹ Khê chỉ cách trung tâm thành phố 3km, nổi tiếng với làn nước trong xanh nhìn thấy đáy và bãi cát trắng mịn. Đây không chỉ là cảnh đẹp biểu tượng của Đà Nẵng mà còn lọt top những bãi biển đẹp nhất hành tinh. Địa chỉ: phường Phước Mỹ, Q. Sơn Trà, TP. Đà Nẵng.  Chùa Linh Ứng Từ thành phố Đà Nẵng, có thể nhìn thấy bức tượng Quan Âm trắng muốt cao 67m, tọa trên đài sen rộng 35m của chùa Linh Ứng tại bán đảo Sơn Trà
+Tên tài liệu: Bà Nà Hills Đà Nẵng  Khu vui chơi giải trí Bà Nà Hills đã trở thành địa điểm du lịch Đà Nẵng nổi tiế
+Nội dung: Bà Nà Hills Đà Nẵng  Khu vui chơi giải trí Bà Nà Hills đã trở thành địa điểm du lịch Đà Nẵng nổi tiếng nhất rồi. không hẵn được biết đến trên khắp cả nước Việt Nam mà nó còn nổi tiếng khắp cả các trang chia sẻ kinh nghiệm du lịch Đà Nẵng của bạn bè quốc tế nữa.  Khu vui chơi giải trí Bà Nà Hills này nằm cách trung tâm khoảng chừng 40km, khá là xa nên kinh nghiệm du lịch Đà Nẵng vui chơi Bà Nà Hills là các bạn nên đi sớm sớm một chút nha, chứ đi trễ quá thời gian di chuyển lại nhiều mà trong địa điểm du lịch Đà Nẵng này có cả đống trò chơi, đi trễ quá chơi không được nhiêu thì lại phí cái vé đi. À giá vé của Bà Nà Hills đang được bán với giá niêm yết tại cổng của địa điểm du lịch Đà Nẵng này là 750.000đ/vé nha các bạn. Nếu các bạn muốn mua vé Bà Nà Hills giá rẻ thì đừng quên gọi cho Cuồng du lịch, vì Cuồng du lịch là đại lý bán vé Bà Nà Hills giá rẻ mà. Bà Nà Hills dần dần chiếm trọn trái tim của những khách du lịch Đà Nẵng bởi đây là công trình vui chơi có quy mô hoành tráng nhất hiện nay. Tuyến cáp treo lên khu vui chơi giải trí Bà Nà Hills cũng là một trong những lý do khiến khách du lịch Đà Nẵng đến Bà Nà Hills nhiều như thế. Tuyến cáp treo ở tại địa điểm du lịch Đà Nẵng này sẽ đưa các bạn đến với chốn tiên cảnh
+Tên tài liệu: Một số địa điểm khi đến Đà Nẵng nên ghé thăm Bà Nà Hills – “Đường lên tiên cảnh” Bà Nà Hills nằm các
+Nội dung: Một số địa điểm khi đến Đà Nẵng nên ghé thăm Bà Nà Hills – “Đường lên tiên cảnh” Bà Nà Hills nằm cách trung tâm thành phố Đà Nẵng khoảng 30km về phía Tây Nam, là một trong những điểm du lịch nổi tiếng nhất của miền Trung. Du khách sẽ được trải nghiệm cáp treo đạt kỷ lục Guinness, khám phá Cầu Vàng huyền thoại được nâng bởi đôi bàn tay khổng lồ, dạo bước trong làng Pháp cổ kính với khí hậu bốn mùa trong một ngày. Ngoài ra, nơi đây còn có vườn hoa Le Jardin D’Amour, hầm rượu Debay và khu vui chơi giải trí Fantasy Park dành cho mọi lứa tuổi. Cầu Rồng – Cầu sông Hàn Hai cây cầu mang tính biểu tượng nhất của Đà Nẵng. Cầu Rồng nổi bật với thiết kế hình rồng uốn lượn, có khả năng phun lửa và phun nước vào 21h tối thứ 7 và Chủ nhật hàng tuần – là điểm check-in không thể bỏ lỡ vào ban đêm. Trong khi đó, cầu quay sông Hàn là cây cầu xoay duy nhất tại Việt Nam, tượng trưng cho sự phát triển năng động và sáng tạo của thành phố biển. Bãi biển Mỹ Khê – Vẻ đẹp quyến rũ của thiên nhiên Được tạp chí Forbes bình chọn là một trong những bãi biển quyến rũ nhất hành tinh, Mỹ Khê sở hữu bãi cát trắng mịn, nước biển trong xanh và sóng nhẹ. Đây là điểm đến lý tưởng để tắm biển, nghỉ dưỡng, chơi thể thao dưới nước, hoặc chỉ đơn giản là dạo bộ và ngắm bình minh tuyệt đẹp vào mỗi sớm mai. Bán đảo Sơn Trà – Lá phổi xanh của thành phố Cách trung tâm Đà Nẵng khoảng 10km, bán đảo Sơn Trà là nơi giao hòa giữa biển cả và rừng núi hoang sơ</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Rừng dừa Bảy Mẫu nằm ở khu vực nào của thành phố Đà Nẵng?</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rừng dừa Bảy Mẫu nằm gần Cù Lao Chàm, là khu du lịch sinh thái đặc sắc của thành phố Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó.</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>The answer correctly states that it cannot provide the requested information because the provided context does not contain any mention of Rừng dừa Bảy Mẫu’s location within Đà Nẵng. This is a faithful response to the question given the available context.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>The answer does not provide any information about the location of Rừng dừa Bảy Mẫu and simply states a lack of data, making it irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>The provided context does not contain any information about the location of Rừng dừa Bảy Mẫu within Đà Nẵng, so it does not support the answer. The answer correctly states that it cannot provide the information, but the context is largely irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>The provided context does not mention that Rừng dừa Bảy Mẫu is located near Cù Lao Chàm or that it is an ecological tourism area of Đà Nẵng. All excerpts either refer to Đà Nẵng in a general sense or describe locations in Hội An, Quảng Nam. Therefore none of the key facts from the ground truth are present in the context.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Rừng dừa Bảy Mẫu Không chỉ được biết đến là một thành phố trẻ, năng động, Đà Nẵng còn nỗ lực gìn giữ
+Nội dung: Rừng dừa Bảy Mẫu Không chỉ được biết đến là một thành phố trẻ, năng động, Đà Nẵng còn nỗ lực gìn giữ, phát huy giá trị của những làng nghề truyền thống trăm năm tuổi: mắm Nam Ô thơm nồng vị biển khơi, Bánh tráng Túy Loan món quà quê giản dị, đúc đồng Phước Kiều nổi tiếng với những khuôn đồng tinh xảo, mộc Kim Bồng ghi dấu bằng những sản phẩm mộc chạm trổ khéo léo. Tất cả hòa quyện, tạo nên một bức tranh làng nghề rực rỡ và sống động giữa lòng thành phố mới… Đầu tư cho y tế, giáo dục bảo đảm cuộc sống có chất lượng cao cho người dân là một mục tiêu quan trọng trong những nỗ lực của thành phố. Ngành Y tế thành phố Đà Nẵng đã vươn lên mạnh mẽ, không ngừng phát triển và hội nhập sâu rộng, hướng đến mục tiêu trở thành hạt nhân của trung tâm y tế chuyên sâu, khám, điều trị bệnh chất lượng cao của khu vực miền Trung – Tây Nguyên và cả nước, hình thành và phát triển các sản phẩm du lịch y tế. Thông qua các đề án đào tạo ekip, chuyên sâu, hợp tác trong và ngoài nước, nhiều kỹ thuật y tế tiên tiến, hiện đại được ứng dụng, chuyển giao thành công tại các bệnh viện tuyến cuối của thành phố như Bệnh viện Đà Nẵng, Bệnh viện Phụ sản – Nhi, Bệnh viện Ung bướu, giảm chuyển gửi bệnh nhân lên trung ương, đi nước ngoài cũng như đáp ứng nhu cầu khám chữa bệnh của người dân thành phố và khu vực.
+Tên tài liệu:  Rừng dừa Bảy Mẫu Địa chỉ: P. Cẩm Thanh, TP. Hội An, Quảng Nam. Rừng dừa Bảy Mẫu là điểm check-in Đà
+Nội dung: Rừng dừa Bảy Mẫu Địa chỉ: P. Cẩm Thanh, TP. Hội An, Quảng Nam. Rừng dừa Bảy Mẫu là điểm check-in Đà Nẵng - Hội An hấp dẫn. Nơi đây dành cho những ai yêu thích cảnh sông nước miền Tây. Ngồi trên những chiếc thuyền thúng quen thuộc của người miền Trung để tham quan rừng dừa, len lỏi vào từng gốc dừa, giăng lưới đánh cá, đua thúng ... là những hoạt động vô cùng thú vị.
+Tên tài liệu: Rừng dừa Bảy Mẫu Rừng dừa Bảy Mẫu ở Hội An cũng là điểm đến thu hút đông đảo du khách. Tại đây, bạn 
+Nội dung: Rừng dừa Bảy Mẫu Rừng dừa Bảy Mẫu ở Hội An cũng là điểm đến thu hút đông đảo du khách. Tại đây, bạn sẽ có cơ hội ngồi thuyền thúng len lỏi qua rừng dừa xanh mướt, thưởng thức các món ăn dân dã và mua những món quà lưu niệm độc đáo từ lá dừa. Đây là hoạt động mang đậm nét đặc trưng miền sông nước và rất đáng trải nghiệm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Các thương hiệu khách sạn quốc tế nổi tiếng nào đã có mặt tại Đà Nẵng?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Đà Nẵng có các thương hiệu khách sạn quốc tế như Hilton, Accor, Marriott, Sheraton.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Các thương hiệu khách sạn quốc tế nổi tiếng đã có mặt tại Đà Nẵng bao gồm: InterContinental, Hyatt Regency, Pullman, Furama, Four Points by Sheraton, Novotel, Hilton, Fusion Suites và Danang Golden Bay Hotel.</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>The answer lists exactly the international hotel brands mentioned in the context (InterContinental, Hyatt Regency, Pullman, Furama, Four Points by Sheraton, Novotel, Hilton, Fusion Suites, Danang Golden Bay Hotel) and does not add or omit any brand. Therefore it is fully faithful to the provided information.</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>The answer directly lists international hotel brands that operate in Da Nang, matching the question’s request. It is concise, relevant, and fully addresses the query.</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>The provided context contains multiple documents that explicitly mention each hotel brand listed in the answer, confirming their presence in Đà Nẵng. While the context includes additional descriptive details that are not directly needed for the answer, it remains concise and directly relevant to the question, supporting the answer with clear evidence.</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>The context lists Hilton, Four Points by Sheraton (Sheraton), and Novotel (an Accor brand), covering three of the four key hotel groups mentioned in the ground truth. Marriott is not referenced, so the recall is 3/4 ≈ 0.75.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Các resort, khách sạn 5 sao nổi tiếng tại Đà Nẵng gồm InterContinental Đà Nẵng Sun Peninsula Resort,
+Nội dung: Các resort, khách sạn 5 sao nổi tiếng tại Đà Nẵng gồm InterContinental Đà Nẵng Sun Peninsula Resort, Hyatt Regency Danang Resort and Spa, Pullman, Furama Resort Danang, Four Points by Sheraton Danang, Novotel, Hilton, Fusion Suites, Danang Golden Bay Hotel… Giá phòng từ 200.000 đến 000.000 đồng/đêm.
+Tên tài liệu:  Hyatt Regency Danang Resort &amp; Spa Tọa lạc trên bãi biển thơ mộng với cát trắng và yên bình, Hyatt R
+Nội dung: . Nội thất gỗ đều là các sản phẩm mang tính nghệ thuật mang lại một không gian hiện đại nhưng vẫn rất đậm chất phương đông đó nha. Hyatt Regency Danang Resort &amp; Spa với thiết kế hiện đại cùng lối kiến trúc theo phong cách Việt Nam, nội thất được sắp đặt theo nghệ thuật phương Đông tạo nên một nét thư giãn đặc trưng của Châu Á mà không phải khu nghỉ dưỡng cao cấp nào ở Đà Nẵng nói chung hay cả Việt Nam nói riêng có được đâu nha.
+Tên tài liệu:  InterContinental Danang Sun Peninsula Resort Có lẽ Cuồng không phải giới thiệu nhiều về Resort Inte
+Nội dung: InterContinental Danang Sun Peninsula Resort Có lẽ Cuồng không phải giới thiệu nhiều về Resort Intercontinental Đà Nẵng nhỉ vì nghe đến thương hiệu Intercontinental là mọi người đều hình dung ra được style lẫn mức độ sang trọng của bất cứ khách sạn hay khu nghỉ dưỡng nào của chuỗi này trên thế giới. Ở Việt Nam cũng có rất nhiều khách sạn hay khu nghỉ dưỡng InterContinental, nhưng InterContinental Đà Nẵng là resort sang trọng nhất với phong cách thiết kế độc đáo và hoành tráng nhất đó nha. Khu resort 5 sao Đà Nẵng này nằm nép mình bên vịnh biển riêng, hoàn toàn tách biệt tại bán đảo Sơn Trà nên không có gì kỳ lạ khi mà khu nghỉ dưỡng 5 sao này nằm trong top 10 resort sang chảnh nhất Đà Nẵng rồi. Với bàn tay và tài năng thiên bẩm của mình, vị kiến trúc sư lừng danh Bill Bensley thuộc top 5 kiến trúc sư giỏi nhất thế giới đã tái hiện lịch sử và nét đẹp văn hóa Việt thông qua thiết kế cá tính và đầy sáng tạo, tạo nên một khu nghỉ dưỡng độc đáo, trải dài qua bốn tầng – Heaven (Thiên đường), Sky (Bầu trời), Earth (Mặt đất) and Sea (Biển cả). Du khách sẽ có cơ hội trải nghiệm dịch vụ hàng đầu và tiện nghi sang trọng ngay từ giây phút đặt chân đến khu nghỉ dưỡng 5 sao ở Đà Nẵng được vinh danh là sang trọng bậc nhất thế giới này</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Biển nào ở Đà Nẵng được tạp chí Forbes bình chọn là một trong những bãi biển đẹp nhất hành tinh?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Biển Mỹ Khê được Forbes bình chọn là một trong những bãi biển quyến rũ nhất hành tinh.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Biển Mỹ Khê ở Đà Nẵng được tạp chí Forbes bình chọn là một trong những bãi biển đẹp nhất hành tinh.</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies Biển Mỹ Khê as the beach in Đà Nẵng that Forbes selected as one of the most beautiful beaches on the planet, which is directly supported by all provided context excerpts.</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>The answer directly states the beach (Biển Mỹ Khê) that Forbes selected as one of the most beautiful beaches on Earth, exactly matching the question.</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>All provided context excerpts explicitly state that Biển Mỹ Khê in Đà Nẵng was selected by Forbes as one of the most beautiful beaches on the planet, directly supporting the answer. The information is concise, relevant, and contains no contradictory or noisy content.</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>The context contains multiple passages that explicitly state Biển Mỹ Khê was selected by Forbes as one of the most beautiful (or most alluring) beaches on the planet, matching the key fact in the ground truth. All essential elements—name of the beach, location (Đà Nẵng), and Forbes ranking—are present, so recall is almost complete.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Biển Mỹ Khê Địa chỉ: Phường Phước Mỹ, Q. Sơn Trà, TP.Đà Nẵng  Bãi biển Mỹ Khê Đà Nẵng, được tạp chí 
+Nội dung: Biển Mỹ Khê Địa chỉ: Phường Phước Mỹ, Q. Sơn Trà, TP.Đà Nẵng  Bãi biển Mỹ Khê Đà Nẵng, được tạp chí Forbes của Mỹ bình chọn là một trong 6 bãi biển đẹp nhất hành tinh. Không phải ngẫu nhiên, tình cờ mà có kết quả như vậy. Ngay cả tờ báo Sunday Herald Sun của Úc cũng đánh giá Bãi biển Mỹ Khê Đà Nẵng là một trong 10 bãi biển châu Á thu hút đông đảo khách du lịch. Tuy nhiên Biển Mỹ Khê sóng đánh mạnh, bờ biển dốc vì vậy không nên tám biển vào lúc mưa gió và tuyệt đối làm theo chỉ dẫn của các nhân viên cứu hộ dọc bờ biển
+Tên tài liệu:  Bãi biển Mỹ Khê Địa chỉ: P. Phước Mỹ, Q. Sơn Trà, TP. Đà Nẵng. Được tạp chí Forbes bình chọn là 1 t
+Nội dung: Bãi biển Mỹ Khê Địa chỉ: P. Phước Mỹ, Q. Sơn Trà, TP. Đà Nẵng. Được tạp chí Forbes bình chọn là 1 trong 6 bãi biển quyến rũ nhất hành tinh, bãi biển Mỹ Khê là địa điểm du lịch Đà Nẵng hấp dẫn bạn nhất định không thể bỏ qua. Nơi đây có cảnh sắc tuyệt đẹp, đường bờ biển dài, cùng nước biển xanh trong, hiền hòa. Bãi biển Mỹ Khê đã được thành phố quy hoạch phát triển với nhiều loại hình dịch vụ vui chơi, giải trí. Nên khi đến đây, du khách ngoài dạo biển, tắm mát, còn được trải nghiệm nhiều hoạt động thú vị khác như dù lượn, lướt sóng, lặn biển,..
+Tên tài liệu: Biển Mỹ Khê Biển Mỹ Khê từng được tạp chí Forbes (Mỹ) bình chọn là một trong 6 bãi biển quyến rũ nhấ
+Nội dung: Biển Mỹ Khê Biển Mỹ Khê từng được tạp chí Forbes (Mỹ) bình chọn là một trong 6 bãi biển quyến rũ nhất hành tinh và lọt top 25 bãi biển đẹp nhất châu Á (TripAdvisor, 2021). Nằm trên đường Phạm Văn Đồng, bãi biển trải dài 900 m, cát trắng mịn, sóng êm, rất thích hợp cho tắm biển và các hoạt động vui chơi dưới nước. Ngắm bình minh tại Mỹ Khê, du khách còn có cơ hội tìm hiểu đời sống ngư dân địa phương.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nghề truyền thống nào của Đà Nẵng được công nhận là di sản văn hóa phi vật thể quốc gia?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nghề đá mỹ nghệ Non Nước đã được đưa vào danh mục di sản văn hóa phi vật thể quốc gia.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Nghề đá mỹ nghệ Non Nước được công nhận là di sản văn hóa phi vật thể quốc gia.</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies Nghề đá mỹ nghệ Non Nước as an intangible cultural heritage of Đà Nẵng, which is explicitly stated in the provided context.</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies Nghề đá mỹ nghệ Non Nước as the traditional occupation from Da Nẵng that has been recognized as an intangible cultural heritage, directly addressing the question.</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>The third document explicitly states that Nghề đá mỹ nghệ Non Nước is listed as a national intangible cultural heritage, directly supporting the answer. The other documents are unrelated, but the relevant excerpt is clear and concise, yielding a high precision score.</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>The context explicitly states that Nghề đá mỹ nghệ Non Nước has been included in the national intangible cultural heritage list, matching the ground truth and answering the question.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Ngoài ra, Đà Nẵng còn là trung điểm của 3 di sản văn hoá thế giới nổi tiếng là Cố đô Huế, Phố cổ Hội
+Nội dung: Ngoài ra, Đà Nẵng còn là trung điểm của 3 di sản văn hoá thế giới nổi tiếng là Cố đô Huế, Phố cổ Hội An và Thánh địa Mỹ Sơn. Trong phạm vi khu vực và quốc tế, Đà Nẵng là một trong những cửa ngõ quan trọng ra biển của Tây Nguyên và các nước Lào, Campuchia, Thái Lan, Myanma thông qua Hành lang kinh tế Đông Tây (EWEC) với điểm kết thúc là Cảng Tiên Sa. Nằm trên một trong những tuyến đường biển và đường hàng không quốc tế trọng yếu, thành phố Đà Nẵng có một vị trí địa lý đặc biệt thuận lợi cho việc phát triển sôi động và bền vững.
+Tên tài liệu: LỊCH SỬ ĐÀ NẴNG (TỪ NĂM 1835 – 1995) Năm 1835, khi vua Minh Mạng có dụ: “Tàu Tây chỉ được đậu tại Cử
+Nội dung: . Các ngành nghề sản xuất và kinh doanh hình thành và phát triển: sản xuất nông nghiệp, tiểu thủ công nghiệp, chế biến hàng xuất khẩu, sữa chữa tàu thuyền, kinh doanh dịch vụ. Cùng với Hải Phòng và Sài Gòn, Tourane trở thành trung tâm thương mại quan trọng của cả nước. Tháng 3 năm 1965, Mỹ đổ bộ vào Đà Nẵng và thiết lập ở đây một căn cứ quân sự hỗn hợp lớn. Năm 1967, Đà Nẵng được chính quyền Việt Nam Cộng hòa ấn định là thành phố trực thuộc trung ương và xác định mục tiêu xây dựng Đà Nẵng thành trung tâm chính trị, quân sự, văn hóa cho vùng I và II chiến thuật. Năm 1975, hòa bình lập lại, Đà Nẵng (là thành phố thuộc tỉnh Quảng Nam – Đà Nẵng) bắt tay vào khôi phục những hậu quả nặng nề của cuộc chiến tranh. Mặc dù còn lắm khó khăn nhưng công cuộc phục hồi và phát triển thành phố đã đạt được nhiều thành quả, nhất là thời kỳ đổi mới, sau 198
+Tên tài liệu: Ban Do Khong Gian Van Hoa Danang Hien Tai Mạng lưới cơ sở thể thao, tôn giáo, văn hóa hiện trạng 1 B
+Nội dung: Ban Do Khong Gian Van Hoa Danang Hien Tai Mạng lưới cơ sở thể thao, tôn giáo, văn hóa hiện trạng 1 Bảo tồn và phát huy di sản văn hóa Đến nay trên địa bàn thành phố có 02 di tích cấp quốc gia đặc biệt, 17 di tích cấp quốc gia, 55 di tích cấp thành phố và 40 di tích nằm trong danh mục kiểm kê. Nghề đá mỹ nghệ Non Nước, nghệ thuật Tuồng xứ Quảng ở Đà Nẵng, lễ hội Cầu ngư đều đã được đưa vào danh mục di sản văn hóa phi vật thể quốc gia. Các lễ hội đình làng, lễ hội cầu ngư truyền thống… tại các quận, huyện đều được duy trì và tổ chức theo định kỳ hàng năm. Hiện nay, thành phố cũng đã đầu tư xây dựng nhiều bảo tàng lớn để phục vụ nhu cầu văn hóa cho nhân dân như: Bảo tàng Chăm, Bảo tàng Đà Nẵng, Bảo tàng Mỹ thuật,… 2 Các hoạt động nghệ thuật chuyên nghiệp Ở Đà Nẵng hiện tồn tại 03 cơ sở hoạt động nghệ thuật chuyên nghiệp là nhà hát Tuồng Nguyễn Hiển Dĩnh, nhà hát Trưng Vương, Cung văn hóa thiếu nhi Đà Nẵng. Trong đó nhà hát Trưng Vương hiện nay đã trở thành đơn vị tổ chức sự kiện có uy tín và mang tính chuyên nghiệp cao trên địa bàn thành phố, được nhiều cơ quan, đơn vị tin tưởng, phối hợp tổ chức các sự kiện văn hóa, liên hoan nghệ thuật ca, múa, nhạc cấp quốc gia và quốc tế. 3 Thư viện Thư viện Khoa học tổng hợp thành phố là cơ sở được đầu tư hiện đại bao gồm 11 kho sách và một nguồn dữ liệu online độc lập với 25 máy được kết nối với máy chủ và hệ thống truy cập băng thông rộng với khoảng 24558 tài liệu/8000 tên</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Lễ hội nào thể hiện nét đặc sắc văn hóa ngư dân ven biển Đà Nẵng?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Lễ hội Cầu Ngư là lễ hội truyền thống tiêu biểu của ngư dân Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó.</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>The answer correctly acknowledges that the provided context does not contain information about a festival that showcases the distinctive culture of Da Nang's coastal fishermen, and therefore it cannot answer the question. This is faithful to the context.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>The answer does not address the question at all; it merely states a lack of information, making it completely irrelevant.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>The provided context discusses fireworks and entertainment shows, not a festival related to coastal fishermen culture. It does not support the answer, which correctly states lack of information.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>The provided context contains no mention of Lễ hội Cầu Ngư or any other fishing‑folk festival in Da Nang, so it fails to recall the key fact needed to answer the question.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Lễ hội Pháo hoa Quốc tế Đà Nẵng 2025: Đêm chung kết bùng nổ, du lịch đạt kỷ lục Mùa hè 2025 tại Đà N
+Nội dung: Lễ hội Pháo hoa Quốc tế Đà Nẵng 2025: Đêm chung kết bùng nổ, du lịch đạt kỷ lục Mùa hè 2025 tại Đà Nẵng trở nên “nóng” hơn bao giờ hết khi Lễ hội Pháo hoa Quốc tế Đà Nẵng (DIFF) bước vào đêm chung kết đầy kịch tính. Sức hút của sự kiện đã khiến lượng khách du lịch tăng kỷ lục, vé xem pháo hoa “cháy hàng” từ sớm, trong khi các khách sạn 4-5 sao đều đạt công suất gần 100%. Lượng khách và doanh thu bứt phá Theo Sở Văn hóa, Thể thao và Du lịch Đà Nẵng, chỉ trong vòng một tháng diễn ra vòng loại DIFF 2025 (31/5 – 30/6), thành phố đã đón khoảng 1,17 triệu lượt khách lưu trú, tăng 10,3% so với cùng kỳ 20 Riêng 5 đêm pháo hoa đầu tiên đã thu hút gần 400.000 lượt khách, ngang bằng cả mùa DIFF năm trước. Với việc năm nay kéo dài thêm một đêm thi, dự báo lượng khách trong đêm chung kết 12/7 sẽ tiếp tục tăng 15-20%. Doanh thu từ các ngành lưu trú, ăn uống và lữ hành trong tháng 6/2025 đạt khoảng 869 tỷ đồng, tăng 22% so với cùng kỳ. Công suất phòng toàn thành phố luôn ở mức 80-85%, riêng khối khách sạn 4-5 sao và khu vực trung tâm, ven biển duy trì từ 85-90%, thậm chí đạt 100% vào dịp cao điểm. Chung kết hấp dẫn: Việt Nam lần đầu góp mặt Không khí nóng bỏng của đêm chung kết đã lan tỏa từ tháng 4 khi toàn bộ vé được bán hết chỉ trong thời gian ngắn
+Tên tài liệu: Sun World Ba Na Hills ra mắt chuỗi show nghệ thuật đỉnh cao mùa hè 2025 Từ ngày 6/6, Sun World Ba Na
+Nội dung: Sun World Ba Na Hills ra mắt chuỗi show nghệ thuật đỉnh cao mùa hè 2025 Từ ngày 6/6, Sun World Ba Na Hills chính thức trình làng chuỗi ba show diễn đặc sắc tại đỉnh Bà Nà, hứa hẹn mang đến cho du khách một mùa hè sôi động, tràn đầy cảm xúc. “After Glow” – Dư âm lôi cuốn giữa Bà Nà về đêm Tâm điểm của chuỗi sự kiện là show “After Glow” (Dư âm) – tác phẩm Cabaret độc đáo do đạo diễn vũ đạo Đức Việt (biệt danh Vịt Đen) dàn dựng, người đứng sau các sản phẩm nổi bật như show “Anh trai say Hi” hay MV “Bắc Bling” của Hòa Minzy. Lấy cảm hứng từ vẻ đẹp huyền bí của Bà Nà về đêm và hình ảnh Hoàng hậu Pháp Marie Antoinette – biểu tượng của sự xa hoa và quyền lực, After Glow mang đến không gian Cabaret quyến rũ tại Beer Plaza, diễn ra hằng ngày từ 18h30 – 19h. Với sự kết hợp tinh tế giữa âm nhạc, vũ đạo nóng bỏng và hiệu ứng thị giác, show được dàn dựng công phu dành riêng cho khán giả từ 18 tuổi trở lên. Đặc biệt, chương trình còn có sự góp mặt của hai hoa hậu chuyển giới nổi tiếng từ Thái Lan: Tumpetch Mr. Rintara (Ning) – Hoa hậu Chuyển giới Quốc tế 2018 và Namjaidee Kasira (Nanny) – Hoa hậu Chuyển giới Bangkok 20 “Happy Fair” – Phiên chợ cổ tích rộn ràng Nếu yêu thích không khí sôi động và đầy sắc màu, du khách không thể bỏ lỡ show “Happy Fair”, tái hiện một ngôi làng châu Âu thời Trung cổ ngay tại quảng trường Beer Plaza. Chương trình diễn ra ngoài trời, tổ chức 2 suất/ngày (trừ thứ Ba hàng tuần)
+Tên tài liệu: Sun World Ba Na Hills ra mắt chuỗi show nghệ thuật đỉnh cao mùa hè 2025 Từ ngày 6/6, Sun World Ba Na
+Nội dung: . Chương trình diễn ra ngoài trời, tổ chức 2 suất/ngày (trừ thứ Ba hàng tuần). Tại đây, du khách sẽ được đắm mình trong không khí lễ hội, thưởng thức xúc xích nướng, bia thủ công mát lạnh, hòa mình vào các vũ điệu và tương tác trực tiếp cùng những nhân vật trong show – biến mỗi khán giả thành một phần của bức tranh lễ hội rực rỡ. “Solar Warriors” – Vũ điệu chiến binh Mặt trời Khác biệt hoàn toàn về màu sắc, “Solar Warriors” đưa khán giả vào thế giới của những chiến binh quyền lực với nghệ thuật múa trống Malambo đặc sắc. Chỉ bằng tiếng trống dồn dập, bước chân mạnh mẽ và những màn trình diễn bùng nổ của các nam vũ công quốc tế, show đã truyền tải trọn vẹn tinh thần mạnh mẽ và kịch tính. Chương trình diễn ra 2 lần/ngày tại Sân khấu Đấu trường Thần Mặt Trời – Quảng trường Hội Tụ (trừ thứ Tư). Nghệ thuật thăng hoa tại đỉnh Bà Nà Với ba show diễn mới mẻ và hoành tráng, Sun World Ba Na Hills khẳng định vị thế không chỉ là điểm đến thiên nhiên – kiến trúc ấn tượng, mà còn là “thánh đường nghệ thuật sống động”. Ông Nguyễn Lâm An, Giám đốc Khu du lịch Sun World Ba Na Hills, chia sẻ: “Bà Nà Hills vốn được yêu thích nhờ cảnh quan tuyệt đẹp và trải nghiệm đa dạng. Nhưng năm nay, chúng tôi mong muốn mang đến một tầng sâu nghệ thuật mới, với những show diễn được đầu tư sáng tạo, quy tụ tài năng trẻ cùng nghệ sĩ quốc tế</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nhà hát nào ở Đà Nẵng được xem là trung tâm tổ chức sự kiện lớn và uy tín?</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Nhà hát Trưng Vương là đơn vị tổ chức sự kiện văn hóa nghệ thuật chuyên nghiệp tại Đà Nẵng.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>The answer does not provide any claim that contradicts the context; it simply states that it lacks the necessary information. Since the context does not mention any theater in Da Nẵng, the refusal to answer is consistent with the available information, making the response fully faithful to the context.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>The answer admits lack of information and does not provide any answer to the question, making it completely irrelevant.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>The context only describes cultural centers and tourist attractions, not any theater in Da Nang. It does not support the answer, which simply states lack of information.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>The context does not mention Nhà hát Trưng Vương or any theater in Đà Nẵng, so it fails to provide the key fact needed to answer the question.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Tên tài liệu: Cung Văn hóa Thiếu nhi Đà Nẵng Tọa lạc trên đường 2/9, quận Hải Châu, Cung Văn hóa Thiếu nhi Đà Nẵng
+Nội dung: Cung Văn hóa Thiếu nhi Đà Nẵng Tọa lạc trên đường 2/9, quận Hải Châu, Cung Văn hóa Thiếu nhi Đà Nẵng nổi bật với thiết kế lấy cảm hứng từ trò chơi xếp hình Tangram. Công trình này từng đạt giải vàng Kiến trúc quốc gia 20 Bên trong gồm 3 tầng với các khu đa chức năng, vui chơi giải trí, phòng học, thư viện và hội trường, là điểm check-in được giới trẻ yêu thích.
+Tên tài liệu:  Cung văn hóa thiếu nhi Đà Nẵng Địa chỉ: 2A Phan Đăng Lưu, P. Hòa Cường Bắc, Q. Hải Châu, TP. Đà Nẵn
+Nội dung: Cung văn hóa thiếu nhi Đà Nẵng Địa chỉ: 2A Phan Đăng Lưu, P. Hòa Cường Bắc, Q. Hải Châu, TP. Đà Nẵng. Cung văn hóa thiếu nhi nổi bật với kiến trúc hiện đại, nghệ thuật, là địa điểm được nhiều cặp đôi lựa chọn để chụp ảnh cưới. Ngoài ra, nơi đây còn thường xuyên tổ chức các hoạt động giao lưu văn hóa Việt – Hàn, Việt – Nhật… thu hút đông đảo bạn trẻ.
+Tên tài liệu: Một số địa điểm khi đến Đà Nẵng nên ghé thăm Bà Nà Hills – “Đường lên tiên cảnh” Bà Nà Hills nằm các
+Nội dung: Một số địa điểm khi đến Đà Nẵng nên ghé thăm Bà Nà Hills – “Đường lên tiên cảnh” Bà Nà Hills nằm cách trung tâm thành phố Đà Nẵng khoảng 30km về phía Tây Nam, là một trong những điểm du lịch nổi tiếng nhất của miền Trung. Du khách sẽ được trải nghiệm cáp treo đạt kỷ lục Guinness, khám phá Cầu Vàng huyền thoại được nâng bởi đôi bàn tay khổng lồ, dạo bước trong làng Pháp cổ kính với khí hậu bốn mùa trong một ngày. Ngoài ra, nơi đây còn có vườn hoa Le Jardin D’Amour, hầm rượu Debay và khu vui chơi giải trí Fantasy Park dành cho mọi lứa tuổi. Cầu Rồng – Cầu sông Hàn Hai cây cầu mang tính biểu tượng nhất của Đà Nẵng. Cầu Rồng nổi bật với thiết kế hình rồng uốn lượn, có khả năng phun lửa và phun nước vào 21h tối thứ 7 và Chủ nhật hàng tuần – là điểm check-in không thể bỏ lỡ vào ban đêm. Trong khi đó, cầu quay sông Hàn là cây cầu xoay duy nhất tại Việt Nam, tượng trưng cho sự phát triển năng động và sáng tạo của thành phố biển. Bãi biển Mỹ Khê – Vẻ đẹp quyến rũ của thiên nhiên Được tạp chí Forbes bình chọn là một trong những bãi biển quyến rũ nhất hành tinh, Mỹ Khê sở hữu bãi cát trắng mịn, nước biển trong xanh và sóng nhẹ. Đây là điểm đến lý tưởng để tắm biển, nghỉ dưỡng, chơi thể thao dưới nước, hoặc chỉ đơn giản là dạo bộ và ngắm bình minh tuyệt đẹp vào mỗi sớm mai. Bán đảo Sơn Trà – Lá phổi xanh của thành phố Cách trung tâm Đà Nẵng khoảng 10km, bán đảo Sơn Trà là nơi giao hòa giữa biển cả và rừng núi hoang sơ</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Bảo tàng nào ở Đà Nẵng lưu giữ nhiều hiện vật của nền văn hóa Chăm Pa?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Bảo tàng Chăm là nơi lưu giữ, trưng bày các hiện vật điêu khắc của văn hóa Chăm Pa.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bảo tàng Nghệ thuật Điêu khắc Chăm là nơi lưu giữ nhiều hiện vật của nền văn hóa Chăm Pa.</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>The answer correctly identifies the Bảo tàng Nghệ thuật Điêu khắc Chăm as the museum in Đà Nẵng that houses many artifacts of the Cham Pa culture, which is explicitly stated in the provided context.</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>The answer directly identifies the Cham Sculpture Art Museum in Da Nang as the repository of many Cham Pa cultural artifacts, which precisely addresses the question.</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>The context contains a relevant passage about Bảo tàng Nghệ thuật Điêu khắc Chăm that supports the answer, but also includes unrelated information about Bảo tàng Đà Nẵng, which reduces overall precision.</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>The context contains the exact statement that the Chăm Museum (Bảo tàng Nghệ thuật Điêu khắc Chăm) is the place that stores and displays Chăm Pa sculpture artifacts, matching the ground truth. All key facts are present.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Bảo tàng Đà Nẵng Địa chỉ: 24 Trần Phú, Thạch Thang, Hải Châu. Đây là nơi lưu giữ nhiều hiện vật, tá
+Nội dung: Bảo tàng Đà Nẵng Địa chỉ: 24 Trần Phú, Thạch Thang, Hải Châu. Đây là nơi lưu giữ nhiều hiện vật, tái hiện lịch sử và quá trình hình thành của vùng đất Quảng Đà từ thời sơ khai đến nay. Du khách có thể vừa tham quan, vừa tìm hiểu về văn hóa – lịch sử – đời sống xưa của Đà Nẵng.
+Tên tài liệu: Bảo tàng tại Đà Nẵng Bảo tàng Nghệ thuật Điêu khắc Chăm: nằm ở số 2 đường 2/9, quận Hải Châu, là nơi
+Nội dung: Bảo tàng tại Đà Nẵng Bảo tàng Nghệ thuật Điêu khắc Chăm: nằm ở số 2 đường 2/9, quận Hải Châu, là nơi duy nhất trưng bày di sản Chăm Pa. Mở cửa từ 7h đến 17h hằng ngày, vé tham quan 60.000 đồng/lượt. Có dịch vụ thuyết minh tự động và công nghệ scan 4D để tìm hiểu hiện vật.
+Tên tài liệu: Bảo tàng Đà Nẵng là nơi lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến
+Nội dung: Bảo tàng Đà Nẵng là nơi lưu giữ hơn 500 hiện vật, trải dài từ nông nghiệp, văn hóa đến lịch sử chiến tranh. Tại đây, du khách có thể tìm hiểu về quá khứ qua trang phục, nhạc cụ, đồ trang sức cổ, và một tầng chuyên đề về các cuộc kháng chiến với Pháp và Mỹ. (Địa chỉ: 24 Trần Phú, Hải Châu – Giờ mở cửa: 8h00–17h00).</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nghệ thuật biểu diễn nào ở Đà Nẵng được công nhận là di sản văn hóa phi vật thể quốc gia?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nghệ thuật Tuồng xứ Quảng ở Đà Nẵng đã được công nhận là di sản văn hóa phi vật thể quốc gia.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Hiện tại tôi không thể trả lời câu hỏi của bạn vì tôi thiếu thông tin về dữ liệu đó</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>The answer correctly acknowledges that the provided context does not contain any information about a performing art in Da Nang recognized as intangible cultural heritage, so it is faithful to the context. It does not fabricate or misrepresent any details from the context.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>The answer admits lack of information and does not provide any content related to the performing art in Da Nang that is recognized as intangible cultural heritage. It is completely irrelevant to the question.</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>The provided context discusses a craft village, a museum, and a UNESCO site, none of which mention a performing art recognized as intangible cultural heritage in Da Nang. Therefore the context does not support the answer, which simply states a lack of information.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>The context does not mention Nghệ thuật Tuồng xứ Quảng or its recognition as a national intangible cultural heritage, so it fails to cover the key fact needed to answer the question.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Tên tài liệu:  Làng nghề nước mắm Nam Ô Địa chỉ: Nam Ô, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP Đà Nẵng. Làng nghề nước
+Nội dung: Làng nghề nước mắm Nam Ô Địa chỉ: Nam Ô, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP Đà Nẵng. Làng nghề nước mắm Nam Ô là làng nghề nước mắm truyền thống nằm dưới chân đèo Hải Vân. Làng nghề đã tồn tại hàng trăm năm và được công nhận là Di sản Văn hóa Phi Vật Thể Quốc gia. Với đường bờ biển dài, đẹp như tranh, nơi đây thu hút du khách đến tham quan, tìm hiểu, trải nghiệm hoạt động làm mắm của người dân. Ngoài ra, những món ngon nơi đây như nước mắm, gỏi cá trích, cháo chờ cũng khiến nhiều du khách say mê.
+Tên tài liệu: Bảo tàng tại Đà Nẵng Bảo tàng Nghệ thuật Điêu khắc Chăm: nằm ở số 2 đường 2/9, quận Hải Châu, là nơi
+Nội dung: Bảo tàng tại Đà Nẵng Bảo tàng Nghệ thuật Điêu khắc Chăm: nằm ở số 2 đường 2/9, quận Hải Châu, là nơi duy nhất trưng bày di sản Chăm Pa. Mở cửa từ 7h đến 17h hằng ngày, vé tham quan 60.000 đồng/lượt. Có dịch vụ thuyết minh tự động và công nghệ scan 4D để tìm hiểu hiện vật.
+Tên tài liệu: Thánh địa Mỹ Sơn Thánh địa Mỹ Sơn – Di sản Văn hóa Thế giới được UNESCO công nhận – từng là trung tâ
+Nội dung: Thánh địa Mỹ Sơn Thánh địa Mỹ Sơn – Di sản Văn hóa Thế giới được UNESCO công nhận – từng là trung tâm tôn giáo quan trọng của vương quốc Chăm Pa. Nơi đây là quần thể đền tháp cổ, vừa mang giá trị lịch sử vừa thể hiện nghệ thuật kiến trúc độc đáo. Đây là điểm đến hấp dẫn cho những ai muốn tìm hiểu sâu về văn hóa Chăm Pa.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>